--- a/StudentGuideModule2/what_labs_to_include/132 lab list for 2021spring.xlsx
+++ b/StudentGuideModule2/what_labs_to_include/132 lab list for 2021spring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtrawick\Desktop\github\132\StudentGuideModule2\what_labs_to_include\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65CA67A-5B55-4572-9720-0A9AFAA51FB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D0F31E-C682-4224-955E-AD32C4C4C8F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18780" yWindow="5136" windowWidth="26616" windowHeight="15936" tabRatio="541" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="P7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="P8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -187,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="P10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -311,7 +311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="P23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -410,7 +410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="P27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -437,7 +437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="P28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -485,22 +485,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Ovidiu sez: needs changing.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="P30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -525,7 +510,22 @@
         </r>
       </text>
     </comment>
-    <comment ref="M31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="Q30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Ovidiu sez: needs changing.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -540,7 +540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="P33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -589,7 +589,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+    <comment ref="P34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -638,7 +638,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+    <comment ref="P35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -662,7 +662,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+    <comment ref="P38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -687,7 +687,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
+    <comment ref="P41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -735,7 +735,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
+    <comment ref="P46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -785,7 +785,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
+    <comment ref="P48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
       <text>
         <r>
           <rPr>
@@ -811,7 +811,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
+    <comment ref="P55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
       <text>
         <r>
           <rPr>
@@ -835,7 +835,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S56" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
+    <comment ref="P56" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
       <text>
         <r>
           <rPr>
@@ -860,7 +860,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S58" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
+    <comment ref="P58" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
       <text>
         <r>
           <rPr>
@@ -884,7 +884,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S61" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
+    <comment ref="P62" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
       <text>
         <r>
           <rPr>
@@ -909,7 +909,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S64" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
+    <comment ref="P65" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
       <text>
         <r>
           <rPr>
@@ -933,7 +933,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S67" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
+    <comment ref="P68" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
       <text>
         <r>
           <rPr>
@@ -958,7 +958,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S74" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
+    <comment ref="P75" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
       <text>
         <r>
           <rPr>
@@ -987,7 +987,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="240">
   <si>
     <t>1 Music to Our Ears: Standing Waves in Strings 7</t>
   </si>
@@ -1408,9 +1408,6 @@
     <t>Applying the Kinetic Theory</t>
   </si>
   <si>
-    <t>Heat of Vaporization of Nitrogen</t>
-  </si>
-  <si>
     <t>Cyclic Processes with an Ideal Gas</t>
   </si>
   <si>
@@ -1651,71 +1648,68 @@
     <t>Force by Editor</t>
   </si>
   <si>
+    <t>2020 spr Jerry</t>
+  </si>
+  <si>
+    <t>2019 fall Christine</t>
+  </si>
+  <si>
+    <t>Redone by Jerry, 2019, new software</t>
+  </si>
+  <si>
+    <t>by MT, updated 2019</t>
+  </si>
+  <si>
+    <t>Electric Charges, Fields and Potentials For a Point Charge</t>
+  </si>
+  <si>
+    <t>Electric Charges, Fields and Potentials For a Dipole</t>
+  </si>
+  <si>
+    <t>The Electric Field and the Electric Potential III</t>
+  </si>
+  <si>
+    <t>The Electric Field and the Electric Potential IV</t>
+  </si>
+  <si>
+    <t>uses pretty old software</t>
+  </si>
+  <si>
+    <t>Needed for kinetic theory labs?</t>
+  </si>
+  <si>
+    <t>2020 fall Jack</t>
+  </si>
+  <si>
+    <t>2020 fall Matt</t>
+  </si>
+  <si>
+    <t>lightly edited by MT, 2020</t>
+  </si>
+  <si>
+    <t>The Resistor Color Code</t>
+  </si>
+  <si>
+    <t>by MT 2020</t>
+  </si>
+  <si>
+    <t>by MT, 2020</t>
+  </si>
+  <si>
+    <t>Resistance, Resistivity, and Ideal Meters and Batteries</t>
+  </si>
+  <si>
     <t># users 
-for spring 2020</t>
-  </si>
-  <si>
-    <t>2020 spr Jerry</t>
-  </si>
-  <si>
-    <t>2019 fall Christine</t>
-  </si>
-  <si>
-    <t>Redone by Jerry, 2019, new software</t>
-  </si>
-  <si>
-    <t>by MT, updated 2019</t>
-  </si>
-  <si>
-    <t>Electric Charges, Fields and Potentials For a Point Charge</t>
-  </si>
-  <si>
-    <t>Electric Charges, Fields and Potentials For a Dipole</t>
-  </si>
-  <si>
-    <t>The Electric Field and the Electric Potential III</t>
-  </si>
-  <si>
-    <t>The Electric Field and the Electric Potential IV</t>
-  </si>
-  <si>
-    <t>uses pretty old software</t>
-  </si>
-  <si>
-    <t>pages in common</t>
-  </si>
-  <si>
-    <t>js &amp; gpg</t>
-  </si>
-  <si>
-    <t>js&amp;mt</t>
-  </si>
-  <si>
-    <t>gpg&amp;mt</t>
-  </si>
-  <si>
-    <t>Needed for kinetic theory labs?</t>
-  </si>
-  <si>
-    <t>2020 fall Jack</t>
-  </si>
-  <si>
-    <t>2020 fall Matt</t>
-  </si>
-  <si>
-    <t>lightly edited by MT, 2020</t>
-  </si>
-  <si>
-    <t>The Resistor Color Code</t>
-  </si>
-  <si>
-    <t>by MT 2020</t>
-  </si>
-  <si>
-    <t>by MT, 2020</t>
-  </si>
-  <si>
-    <t>Resistance, Resistivity, and Ideal Meters and Batteries</t>
+for spring 2021</t>
+  </si>
+  <si>
+    <t>"original" version</t>
+  </si>
+  <si>
+    <t>Heat of Vaporization of Nitrogen [minimalist version]</t>
+  </si>
+  <si>
+    <t>Heat of Vaporization of Nitrogen [prescriptive version]</t>
   </si>
 </sst>
 </file>
@@ -2588,70 +2582,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCDFFCD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCDFFCD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCDFFCD"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -2982,11 +2913,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD120"/>
+  <dimension ref="A1:AD121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2998,8 +2929,10 @@
     <col min="5" max="5" width="5.77734375" style="13" customWidth="1"/>
     <col min="6" max="10" width="5.77734375" style="13" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="30.109375" style="19" customWidth="1"/>
-    <col min="12" max="13" width="8.77734375" style="2" customWidth="1"/>
-    <col min="14" max="20" width="8.77734375" style="75" customWidth="1"/>
+    <col min="12" max="12" width="8.77734375" style="2" customWidth="1"/>
+    <col min="13" max="16" width="8.77734375" style="75" customWidth="1"/>
+    <col min="17" max="17" width="8.77734375" style="2" customWidth="1"/>
+    <col min="18" max="20" width="8.77734375" style="75" customWidth="1"/>
     <col min="21" max="21" width="11" style="3" customWidth="1"/>
     <col min="22" max="22" width="2.44140625" style="3" customWidth="1"/>
     <col min="23" max="23" width="10.33203125" style="3" customWidth="1"/>
@@ -3015,7 +2948,7 @@
         <v>107</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D1" s="48" t="s">
         <v>85</v>
@@ -3024,19 +2957,19 @@
         <v>86</v>
       </c>
       <c r="F1" s="48" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G1" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="I1" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="J1" s="48" t="s">
         <v>178</v>
-      </c>
-      <c r="J1" s="48" t="s">
-        <v>179</v>
       </c>
       <c r="K1" s="49" t="s">
         <v>108</v>
@@ -3045,31 +2978,31 @@
         <v>100</v>
       </c>
       <c r="M1" s="47" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="N1" s="47" t="s">
         <v>211</v>
       </c>
       <c r="O1" s="47" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="P1" s="47" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="Q1" s="47" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="R1" s="47" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="S1" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="T1" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="U1" s="50" t="s">
         <v>236</v>
-      </c>
-      <c r="T1" s="47" t="s">
-        <v>219</v>
-      </c>
-      <c r="U1" s="50" t="s">
-        <v>220</v>
       </c>
       <c r="V1" s="30"/>
       <c r="W1" s="31"/>
@@ -3096,7 +3029,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="54">
-        <f t="shared" ref="F2:F34" si="0">CEILING(D2,W$22+1)</f>
+        <f>CEILING(D2,W$22+1)</f>
         <v>4</v>
       </c>
       <c r="G2" s="54"/>
@@ -3105,25 +3038,25 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
       <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
+      <c r="M2" s="79"/>
       <c r="N2" s="79"/>
       <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79">
-        <v>1</v>
-      </c>
+      <c r="P2" s="56">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="53"/>
       <c r="R2" s="79">
         <v>1</v>
       </c>
-      <c r="S2" s="56">
+      <c r="S2" s="79">
         <v>1</v>
       </c>
       <c r="T2" s="79">
         <v>2</v>
       </c>
       <c r="U2" s="67">
-        <f>SUM(Q2:T2)</f>
-        <v>5</v>
+        <f>SUM(R2:T2)</f>
+        <v>4</v>
       </c>
       <c r="V2" s="31"/>
       <c r="W2" s="68"/>
@@ -3148,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="58">
-        <f t="shared" si="0"/>
+        <f>CEILING(D3,W$22+1)</f>
         <v>2</v>
       </c>
       <c r="G3" s="58"/>
@@ -3157,25 +3090,25 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
       <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
+      <c r="M3" s="80"/>
       <c r="N3" s="80"/>
       <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80">
-        <v>1</v>
-      </c>
+      <c r="P3" s="57">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="57"/>
       <c r="R3" s="80">
         <v>1</v>
       </c>
-      <c r="S3" s="57">
+      <c r="S3" s="80">
         <v>1</v>
       </c>
       <c r="T3" s="80">
         <v>2</v>
       </c>
       <c r="U3" s="81">
-        <f t="shared" ref="U3:U67" si="1">SUM(Q3:T3)</f>
-        <v>5</v>
+        <f>SUM(R3:T3)</f>
+        <v>4</v>
       </c>
       <c r="V3" s="31"/>
       <c r="W3" s="68"/>
@@ -3195,7 +3128,7 @@
         <v>110</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D4" s="13">
         <v>5</v>
@@ -3204,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="13">
-        <f t="shared" si="0"/>
+        <f>CEILING(D4,W$22+1)</f>
         <v>6</v>
       </c>
       <c r="G4" s="13">
@@ -3225,7 +3158,7 @@
       <c r="L4" s="34">
         <v>1</v>
       </c>
-      <c r="M4" s="34">
+      <c r="M4" s="77">
         <v>1</v>
       </c>
       <c r="N4" s="77">
@@ -3237,17 +3170,17 @@
       <c r="P4" s="77">
         <v>1</v>
       </c>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77">
-        <v>1</v>
-      </c>
+      <c r="Q4" s="34">
+        <v>1</v>
+      </c>
+      <c r="R4" s="77"/>
       <c r="S4" s="77">
         <v>1</v>
       </c>
       <c r="T4" s="77"/>
       <c r="U4" s="67">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>SUM(R4:T4)</f>
+        <v>1</v>
       </c>
       <c r="V4" s="31"/>
       <c r="W4" s="5"/>
@@ -3261,10 +3194,10 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B5" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D5" s="13">
         <v>2</v>
@@ -3273,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="13">
-        <f t="shared" si="0"/>
+        <f>CEILING(D5,W$22+1)</f>
         <v>2</v>
       </c>
       <c r="G5" s="13">
@@ -3292,7 +3225,7 @@
       <c r="L5" s="32">
         <v>1</v>
       </c>
-      <c r="M5" s="73">
+      <c r="M5" s="75">
         <v>1</v>
       </c>
       <c r="N5" s="75">
@@ -3301,18 +3234,18 @@
       <c r="O5" s="75">
         <v>1</v>
       </c>
-      <c r="P5" s="75">
-        <v>1</v>
-      </c>
-      <c r="R5" s="75">
-        <v>1</v>
-      </c>
-      <c r="S5" s="77">
+      <c r="P5" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="73">
+        <v>1</v>
+      </c>
+      <c r="S5" s="75">
         <v>1</v>
       </c>
       <c r="U5" s="67">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>SUM(R5:T5)</f>
+        <v>1</v>
       </c>
       <c r="V5" s="31"/>
       <c r="W5" s="5"/>
@@ -3327,10 +3260,10 @@
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="28"/>
       <c r="B6" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D6" s="13">
         <v>2</v>
@@ -3339,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="13">
-        <f t="shared" si="0"/>
+        <f>CEILING(D6,W$22+1)</f>
         <v>2</v>
       </c>
       <c r="H6" s="13">
@@ -3354,21 +3287,21 @@
       <c r="L6" s="34">
         <v>1</v>
       </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="77">
-        <v>1</v>
-      </c>
+      <c r="M6" s="77">
+        <v>1</v>
+      </c>
+      <c r="N6" s="77"/>
       <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77"/>
+      <c r="P6" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="6"/>
       <c r="R6" s="77"/>
-      <c r="S6" s="77">
-        <v>1</v>
-      </c>
+      <c r="S6" s="77"/>
       <c r="T6" s="77"/>
       <c r="U6" s="67">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(R6:T6)</f>
+        <v>0</v>
       </c>
       <c r="V6" s="31"/>
       <c r="W6" s="5"/>
@@ -3383,10 +3316,10 @@
     <row r="7" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="46"/>
       <c r="B7" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D7" s="26">
         <v>1</v>
@@ -3395,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="26">
-        <f t="shared" si="0"/>
+        <f>CEILING(D7,W$22+1)</f>
         <v>2</v>
       </c>
       <c r="G7" s="26"/>
@@ -3403,22 +3336,22 @@
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
       <c r="K7" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L7" s="35"/>
-      <c r="M7" s="74"/>
+      <c r="M7" s="78"/>
       <c r="N7" s="78"/>
       <c r="O7" s="78"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="78"/>
+      <c r="P7" s="78">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="74"/>
       <c r="R7" s="78"/>
-      <c r="S7" s="78">
-        <v>1</v>
-      </c>
+      <c r="S7" s="78"/>
       <c r="T7" s="78"/>
       <c r="U7" s="81">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(R7:T7)</f>
+        <v>0</v>
       </c>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
@@ -3430,10 +3363,10 @@
         <v>74</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D8" s="13">
         <v>4</v>
@@ -3442,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="13">
-        <f t="shared" si="0"/>
+        <f>CEILING(D8,W$22+1)</f>
         <v>4</v>
       </c>
       <c r="I8" s="13">
@@ -3452,12 +3385,12 @@
         <v>4</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L8" s="32">
         <v>1</v>
       </c>
-      <c r="M8" s="32">
+      <c r="M8" s="75">
         <v>1</v>
       </c>
       <c r="N8" s="75">
@@ -3466,18 +3399,18 @@
       <c r="O8" s="75">
         <v>1</v>
       </c>
-      <c r="P8" s="75">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="75">
-        <v>1</v>
-      </c>
-      <c r="S8" s="77">
+      <c r="P8" s="77">
         <v>0.1</v>
       </c>
+      <c r="Q8" s="32">
+        <v>1</v>
+      </c>
+      <c r="R8" s="75">
+        <v>1</v>
+      </c>
       <c r="U8" s="67">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
+        <f>SUM(R8:T8)</f>
+        <v>1</v>
       </c>
       <c r="V8" s="31"/>
       <c r="W8" s="5"/>
@@ -3494,7 +3427,7 @@
         <v>111</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D9" s="13">
         <v>2</v>
@@ -3503,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="13">
-        <f t="shared" si="0"/>
+        <f>CEILING(D9,W$22+1)</f>
         <v>2</v>
       </c>
       <c r="H9" s="13">
@@ -3521,7 +3454,7 @@
       <c r="L9" s="32">
         <v>1</v>
       </c>
-      <c r="M9" s="32">
+      <c r="M9" s="75">
         <v>1</v>
       </c>
       <c r="N9" s="75">
@@ -3530,15 +3463,15 @@
       <c r="O9" s="75">
         <v>1</v>
       </c>
-      <c r="P9" s="75">
-        <v>1</v>
-      </c>
-      <c r="S9" s="77">
+      <c r="P9" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="32">
         <v>1</v>
       </c>
       <c r="U9" s="67">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(R9:T9)</f>
+        <v>0</v>
       </c>
       <c r="V9" s="31"/>
       <c r="W9" s="5"/>
@@ -3555,7 +3488,7 @@
         <v>112</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D10" s="13">
         <v>5</v>
@@ -3564,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="13">
-        <f t="shared" si="0"/>
+        <f>CEILING(D10,W$22+1)</f>
         <v>6</v>
       </c>
       <c r="G10" s="13">
@@ -3578,15 +3511,15 @@
       </c>
       <c r="K10" s="21"/>
       <c r="L10" s="32"/>
-      <c r="M10" s="31"/>
-      <c r="Q10" s="75">
+      <c r="P10" s="77">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="75">
         <v>0.5</v>
       </c>
-      <c r="S10" s="77">
-        <v>0</v>
-      </c>
       <c r="U10" s="67">
-        <f t="shared" si="1"/>
+        <f>SUM(R10:T10)</f>
         <v>0.5</v>
       </c>
       <c r="V10" s="31"/>
@@ -3604,7 +3537,7 @@
         <v>113</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D11" s="13">
         <v>2</v>
@@ -3613,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="13">
-        <f t="shared" si="0"/>
+        <f>CEILING(D11,W$22+1)</f>
         <v>2</v>
       </c>
       <c r="H11" s="13">
@@ -3631,7 +3564,7 @@
       <c r="L11" s="32">
         <v>1</v>
       </c>
-      <c r="M11" s="32">
+      <c r="M11" s="75">
         <v>1</v>
       </c>
       <c r="N11" s="75">
@@ -3640,15 +3573,15 @@
       <c r="O11" s="75">
         <v>1</v>
       </c>
-      <c r="P11" s="75">
-        <v>1</v>
-      </c>
-      <c r="S11" s="77">
+      <c r="P11" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="32">
         <v>1</v>
       </c>
       <c r="U11" s="67">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(R11:T11)</f>
+        <v>0</v>
       </c>
       <c r="V11" s="31"/>
       <c r="W11" s="40" t="s">
@@ -3664,10 +3597,10 @@
     </row>
     <row r="12" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D12" s="13">
         <v>4</v>
@@ -3676,25 +3609,25 @@
         <v>1</v>
       </c>
       <c r="F12" s="13">
-        <f t="shared" si="0"/>
+        <f>CEILING(D12,W$22+1)</f>
         <v>4</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="Q12" s="75">
-        <v>1</v>
-      </c>
+      <c r="P12" s="77">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="75"/>
       <c r="R12" s="75">
         <v>1</v>
       </c>
-      <c r="S12" s="77">
-        <v>0</v>
+      <c r="S12" s="75">
+        <v>1</v>
       </c>
       <c r="U12" s="67">
-        <f t="shared" si="1"/>
+        <f>SUM(R12:T12)</f>
         <v>2</v>
       </c>
       <c r="V12" s="31"/>
@@ -3711,10 +3644,10 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B13" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D13" s="13">
         <v>3</v>
@@ -3723,25 +3656,25 @@
         <v>0</v>
       </c>
       <c r="F13" s="13">
-        <f t="shared" si="0"/>
+        <f>CEILING(D13,W$22+1)</f>
         <v>4</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="Q13" s="75">
-        <v>1</v>
-      </c>
+      <c r="P13" s="77">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="75"/>
       <c r="R13" s="75">
         <v>1</v>
       </c>
-      <c r="S13" s="77">
-        <v>0</v>
+      <c r="S13" s="75">
+        <v>1</v>
       </c>
       <c r="U13" s="67">
-        <f t="shared" si="1"/>
+        <f>SUM(R13:T13)</f>
         <v>2</v>
       </c>
       <c r="V13" s="31"/>
@@ -3756,10 +3689,10 @@
     </row>
     <row r="14" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D14" s="13">
         <v>3</v>
@@ -3768,17 +3701,17 @@
         <v>0</v>
       </c>
       <c r="F14" s="13">
-        <f t="shared" si="0"/>
+        <f>CEILING(D14,W$22+1)</f>
         <v>4</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="S14" s="77"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="75"/>
       <c r="U14" s="67">
-        <f t="shared" si="1"/>
+        <f>SUM(R14:T14)</f>
         <v>0</v>
       </c>
       <c r="V14" s="31"/>
@@ -3794,10 +3727,10 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B15" s="22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D15" s="13">
         <v>3</v>
@@ -3806,17 +3739,17 @@
         <v>0</v>
       </c>
       <c r="F15" s="13">
-        <f t="shared" si="0"/>
+        <f>CEILING(D15,W$22+1)</f>
         <v>4</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="S15" s="77"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="75"/>
       <c r="U15" s="67">
-        <f t="shared" si="1"/>
+        <f>SUM(R15:T15)</f>
         <v>0</v>
       </c>
       <c r="V15" s="31"/>
@@ -3835,10 +3768,10 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B16" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D16" s="13">
         <v>9</v>
@@ -3847,16 +3780,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="13">
-        <f t="shared" si="0"/>
+        <f>CEILING(D16,W$22+1)</f>
         <v>10</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L16" s="32">
         <v>1</v>
       </c>
-      <c r="M16" s="32">
+      <c r="M16" s="75">
         <v>1</v>
       </c>
       <c r="N16" s="75">
@@ -3865,21 +3798,21 @@
       <c r="O16" s="75">
         <v>1</v>
       </c>
-      <c r="P16" s="75">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="75">
+      <c r="P16" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="32">
         <v>1</v>
       </c>
       <c r="R16" s="75">
         <v>1</v>
       </c>
-      <c r="S16" s="77">
+      <c r="S16" s="75">
         <v>1</v>
       </c>
       <c r="U16" s="67">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>SUM(R16:T16)</f>
+        <v>2</v>
       </c>
       <c r="V16" s="31"/>
       <c r="W16" s="17" t="s">
@@ -3897,10 +3830,10 @@
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B17" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D17" s="13">
         <v>3</v>
@@ -3909,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="13">
-        <f t="shared" si="0"/>
+        <f>CEILING(D17,W$22+1)</f>
         <v>4</v>
       </c>
       <c r="G17" s="13">
@@ -3928,7 +3861,7 @@
       <c r="L17" s="32">
         <v>1</v>
       </c>
-      <c r="M17" s="32">
+      <c r="M17" s="75">
         <v>1</v>
       </c>
       <c r="N17" s="75">
@@ -3937,21 +3870,21 @@
       <c r="O17" s="75">
         <v>1</v>
       </c>
-      <c r="P17" s="75">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="75">
+      <c r="P17" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="32">
         <v>1</v>
       </c>
       <c r="R17" s="75">
         <v>1</v>
       </c>
-      <c r="S17" s="77">
+      <c r="S17" s="75">
         <v>1</v>
       </c>
       <c r="U17" s="67">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>SUM(R17:T17)</f>
+        <v>2</v>
       </c>
       <c r="V17" s="31"/>
       <c r="W17" s="17" t="s">
@@ -3969,10 +3902,10 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B18" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D18" s="13">
         <v>5</v>
@@ -3981,33 +3914,33 @@
         <v>0</v>
       </c>
       <c r="F18" s="13">
-        <f t="shared" si="0"/>
+        <f>CEILING(D18,W$22+1)</f>
         <v>6</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L18" s="32">
         <v>1</v>
       </c>
-      <c r="M18" s="32">
-        <v>1</v>
+      <c r="M18" s="75">
+        <v>0.5</v>
       </c>
       <c r="N18" s="75">
         <v>0.5</v>
       </c>
-      <c r="O18" s="75">
-        <v>0.5</v>
-      </c>
-      <c r="R18" s="75">
-        <v>1</v>
-      </c>
-      <c r="S18" s="77">
+      <c r="P18" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="32">
+        <v>1</v>
+      </c>
+      <c r="S18" s="75">
         <v>1</v>
       </c>
       <c r="U18" s="67">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>SUM(R18:T18)</f>
+        <v>1</v>
       </c>
       <c r="V18" s="31"/>
       <c r="W18" s="17" t="s">
@@ -4025,10 +3958,10 @@
     </row>
     <row r="19" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D19" s="13">
         <v>4</v>
@@ -4037,16 +3970,16 @@
         <v>0</v>
       </c>
       <c r="F19" s="13">
-        <f t="shared" si="0"/>
+        <f>CEILING(D19,W$22+1)</f>
         <v>4</v>
       </c>
       <c r="K19" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L19" s="32">
         <v>1</v>
       </c>
-      <c r="M19" s="32">
+      <c r="M19" s="75">
         <v>1</v>
       </c>
       <c r="N19" s="75">
@@ -4055,21 +3988,21 @@
       <c r="O19" s="75">
         <v>1</v>
       </c>
-      <c r="P19" s="75">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="75">
+      <c r="P19" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="32">
         <v>1</v>
       </c>
       <c r="R19" s="75">
+        <v>1</v>
+      </c>
+      <c r="S19" s="75">
         <v>0.1</v>
       </c>
-      <c r="S19" s="77">
-        <v>1</v>
-      </c>
       <c r="U19" s="67">
-        <f t="shared" si="1"/>
-        <v>2.1</v>
+        <f>SUM(R19:T19)</f>
+        <v>1.1000000000000001</v>
       </c>
       <c r="V19" s="31"/>
       <c r="W19" s="18" t="s">
@@ -4090,7 +4023,7 @@
         <v>114</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D20" s="13">
         <v>5</v>
@@ -4099,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="13">
-        <f t="shared" si="0"/>
+        <f>CEILING(D20,W$22+1)</f>
         <v>6</v>
       </c>
       <c r="H20" s="13">
@@ -4114,7 +4047,7 @@
       <c r="L20" s="32">
         <v>1</v>
       </c>
-      <c r="M20" s="32">
+      <c r="M20" s="75">
         <v>1</v>
       </c>
       <c r="N20" s="75">
@@ -4123,18 +4056,18 @@
       <c r="O20" s="75">
         <v>1</v>
       </c>
-      <c r="P20" s="75">
-        <v>1</v>
-      </c>
-      <c r="R20" s="75">
-        <v>1</v>
-      </c>
-      <c r="S20" s="77">
+      <c r="P20" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="32">
+        <v>1</v>
+      </c>
+      <c r="S20" s="75">
         <v>1</v>
       </c>
       <c r="U20" s="67">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>SUM(R20:T20)</f>
+        <v>1</v>
       </c>
       <c r="V20" s="31"/>
       <c r="Z20" s="31"/>
@@ -4148,7 +4081,7 @@
         <v>115</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D21" s="13">
         <v>3</v>
@@ -4157,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="13">
-        <f t="shared" si="0"/>
+        <f>CEILING(D21,W$22+1)</f>
         <v>4</v>
       </c>
       <c r="G21" s="13">
@@ -4165,15 +4098,15 @@
       </c>
       <c r="K21" s="21"/>
       <c r="L21" s="32"/>
-      <c r="M21" s="31"/>
-      <c r="S21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="31"/>
       <c r="U21" s="67">
-        <f t="shared" si="1"/>
+        <f>SUM(R21:T21)</f>
         <v>0</v>
       </c>
       <c r="V21" s="31"/>
       <c r="W21" s="40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X21" s="41"/>
       <c r="Y21" s="31"/>
@@ -4188,7 +4121,7 @@
         <v>116</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D22" s="13">
         <v>4</v>
@@ -4197,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="13">
-        <f t="shared" si="0"/>
+        <f>CEILING(D22,W$22+1)</f>
         <v>4</v>
       </c>
       <c r="G22" s="13">
@@ -4205,15 +4138,15 @@
       </c>
       <c r="K22" s="21"/>
       <c r="L22" s="32"/>
-      <c r="M22" s="32">
-        <v>1</v>
-      </c>
-      <c r="S22" s="77">
+      <c r="P22" s="77">
         <v>0.1</v>
       </c>
+      <c r="Q22" s="32">
+        <v>1</v>
+      </c>
       <c r="U22" s="67">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
+        <f>SUM(R22:T22)</f>
+        <v>0</v>
       </c>
       <c r="V22" s="31"/>
       <c r="W22" s="42">
@@ -4232,7 +4165,7 @@
         <v>117</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D23" s="13">
         <v>2</v>
@@ -4241,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="13">
-        <f t="shared" si="0"/>
+        <f>CEILING(D23,W$22+1)</f>
         <v>2</v>
       </c>
       <c r="G23" s="13">
@@ -4252,24 +4185,24 @@
       </c>
       <c r="K23" s="21"/>
       <c r="L23" s="32"/>
-      <c r="M23" s="32">
-        <v>0</v>
+      <c r="N23" s="75">
+        <v>0.5</v>
       </c>
       <c r="O23" s="75">
-        <v>0.5</v>
-      </c>
-      <c r="P23" s="75">
-        <v>1</v>
-      </c>
-      <c r="R23" s="75">
-        <v>1</v>
-      </c>
-      <c r="S23" s="77">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P23" s="77">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="32">
+        <v>0</v>
+      </c>
+      <c r="S23" s="75">
+        <v>1</v>
       </c>
       <c r="T23" s="78"/>
       <c r="U23" s="81">
-        <f t="shared" si="1"/>
+        <f>SUM(R23:T23)</f>
         <v>1</v>
       </c>
       <c r="V23" s="31"/>
@@ -4289,7 +4222,7 @@
         <v>118</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D24" s="12">
         <v>10</v>
@@ -4298,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="12">
-        <f t="shared" si="0"/>
+        <f>CEILING(D24,W$22+1)</f>
         <v>10</v>
       </c>
       <c r="G24" s="12"/>
@@ -4317,19 +4250,19 @@
       <c r="L24" s="33">
         <v>1</v>
       </c>
-      <c r="M24" s="33">
-        <v>1</v>
+      <c r="M24" s="76">
+        <v>0.5</v>
       </c>
       <c r="N24" s="76">
         <v>0.5</v>
       </c>
       <c r="O24" s="76">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P24" s="76">
         <v>1</v>
       </c>
-      <c r="Q24" s="76">
+      <c r="Q24" s="33">
         <v>1</v>
       </c>
       <c r="R24" s="76">
@@ -4340,8 +4273,8 @@
       </c>
       <c r="T24" s="77"/>
       <c r="U24" s="67">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>SUM(R24:T24)</f>
+        <v>2</v>
       </c>
       <c r="V24" s="31"/>
       <c r="W24" s="14"/>
@@ -4356,7 +4289,7 @@
         <v>119</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D25" s="13">
         <v>8</v>
@@ -4365,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="13">
-        <f t="shared" si="0"/>
+        <f>CEILING(D25,W$22+1)</f>
         <v>8</v>
       </c>
       <c r="H25" s="13">
@@ -4383,7 +4316,7 @@
       <c r="L25" s="32">
         <v>1</v>
       </c>
-      <c r="M25" s="32">
+      <c r="M25" s="75">
         <v>1</v>
       </c>
       <c r="N25" s="75">
@@ -4392,34 +4325,34 @@
       <c r="O25" s="75">
         <v>1</v>
       </c>
-      <c r="P25" s="75">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="75">
+      <c r="P25" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="32">
         <v>1</v>
       </c>
       <c r="R25" s="75">
         <v>1</v>
       </c>
-      <c r="S25" s="77">
+      <c r="S25" s="75">
         <v>1</v>
       </c>
       <c r="U25" s="67">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>SUM(R25:T25)</f>
+        <v>2</v>
       </c>
       <c r="V25" s="31"/>
       <c r="W25" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="X25" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="X25" s="4" t="s">
+      <c r="Y25" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="Y25" s="4" t="s">
+      <c r="Z25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Z25" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="AA25" s="31"/>
       <c r="AB25" s="31"/>
@@ -4428,10 +4361,10 @@
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D26" s="13">
         <v>3</v>
@@ -4440,36 +4373,36 @@
         <v>0</v>
       </c>
       <c r="F26" s="13">
-        <f t="shared" si="0"/>
+        <f>CEILING(D26,W$22+1)</f>
         <v>4</v>
       </c>
       <c r="K26" s="21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="S26" s="77">
-        <v>1</v>
-      </c>
+      <c r="P26" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="75"/>
       <c r="U26" s="67">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(R26:T26)</f>
+        <v>0</v>
       </c>
       <c r="V26" s="31"/>
       <c r="W26" s="69">
         <v>0</v>
       </c>
       <c r="X26" s="6">
-        <f>SUMIF(U$2:U$84,"&gt;=" &amp; W26,F$2:F$84)</f>
-        <v>362</v>
+        <f>SUMIF(U$2:U$85,"&gt;=" &amp; W26,F$2:F$85)</f>
+        <v>366</v>
       </c>
       <c r="Y26" s="6">
-        <f>SUMIF(U$2:U$84,"&gt;=" &amp; W26,E$2:E$84)</f>
+        <f>SUMIF(U$2:U$85,"&gt;=" &amp; W26,E$2:E$85)</f>
         <v>29</v>
       </c>
       <c r="Z26" s="8">
-        <f t="shared" ref="Z26:Z34" si="2">($Y$17 + $Y$15*X26+$Y$16*Y26)*(1+Y$18+Y$19)</f>
-        <v>38.74</v>
+        <f t="shared" ref="Z26:Z34" si="0">($Y$17 + $Y$15*X26+$Y$16*Y26)*(1+Y$18+Y$19)</f>
+        <v>39</v>
       </c>
       <c r="AA26" s="31"/>
       <c r="AB26" s="31"/>
@@ -4478,10 +4411,10 @@
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B27" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D27" s="13">
         <v>3</v>
@@ -4490,22 +4423,22 @@
         <v>0</v>
       </c>
       <c r="F27" s="13">
-        <f t="shared" si="0"/>
+        <f>CEILING(D27,W$22+1)</f>
         <v>4</v>
       </c>
       <c r="K27" s="21"/>
       <c r="L27" s="75"/>
       <c r="M27" s="75">
+        <v>1</v>
+      </c>
+      <c r="P27" s="77">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="75">
         <v>0.2</v>
       </c>
-      <c r="N27" s="75">
-        <v>1</v>
-      </c>
-      <c r="S27" s="77">
-        <v>0</v>
-      </c>
       <c r="U27" s="67">
-        <f t="shared" si="1"/>
+        <f>SUM(R27:T27)</f>
         <v>0</v>
       </c>
       <c r="V27" s="31"/>
@@ -4513,16 +4446,16 @@
         <v>0.5</v>
       </c>
       <c r="X27" s="6">
-        <f>SUMIF(U$2:U$84,"&gt;=" &amp; W27,F$2:F$84)</f>
-        <v>284</v>
+        <f>SUMIF(U$2:U$85,"&gt;=" &amp; W27,F$2:F$85)</f>
+        <v>228</v>
       </c>
       <c r="Y27" s="6">
-        <f>SUMIF(U$2:U$84,"&gt;=" &amp; W27,E$2:E$84)</f>
-        <v>26</v>
+        <f>SUMIF(U$2:U$85,"&gt;=" &amp; W27,E$2:E$85)</f>
+        <v>22</v>
       </c>
       <c r="Z27" s="8">
         <f>($Y$17 + $Y$15*X27+$Y$16*Y27)*(1+Y$18+Y$19)</f>
-        <v>32.500000000000007</v>
+        <v>27.3</v>
       </c>
       <c r="AA27" s="31"/>
       <c r="AB27" s="31"/>
@@ -4535,7 +4468,7 @@
         <v>120</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D28" s="13">
         <v>3</v>
@@ -4544,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="13">
-        <f t="shared" si="0"/>
+        <f>CEILING(D28,W$22+1)</f>
         <v>4</v>
       </c>
       <c r="G28" s="13"/>
@@ -4561,44 +4494,44 @@
       <c r="L28" s="32">
         <v>1</v>
       </c>
-      <c r="M28" s="32">
-        <v>1</v>
+      <c r="M28" s="75">
+        <v>0.5</v>
       </c>
       <c r="N28" s="75">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O28" s="75">
         <v>1</v>
       </c>
-      <c r="P28" s="75">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="75">
-        <v>1</v>
-      </c>
-      <c r="R28" s="75"/>
-      <c r="S28" s="77">
-        <v>1</v>
-      </c>
+      <c r="P28" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="32">
+        <v>1</v>
+      </c>
+      <c r="R28" s="75">
+        <v>1</v>
+      </c>
+      <c r="S28" s="75"/>
       <c r="T28" s="75"/>
       <c r="U28" s="67">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>SUM(R28:T28)</f>
+        <v>1</v>
       </c>
       <c r="W28" s="69">
         <v>1</v>
       </c>
       <c r="X28" s="6">
-        <f>SUMIF(U$2:U$84,"&gt;=" &amp; W28,F$2:F$84)</f>
-        <v>268</v>
+        <f>SUMIF(U$2:U$85,"&gt;=" &amp; W28,F$2:F$85)</f>
+        <v>222</v>
       </c>
       <c r="Y28" s="6">
-        <f>SUMIF(U$2:U$84,"&gt;=" &amp; W28,E$2:E$84)</f>
-        <v>23</v>
+        <f>SUMIF(U$2:U$85,"&gt;=" &amp; W28,E$2:E$85)</f>
+        <v>22</v>
       </c>
       <c r="Z28" s="8">
-        <f t="shared" si="2"/>
-        <v>30.289999999999996</v>
+        <f t="shared" si="0"/>
+        <v>26.910000000000004</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.3">
@@ -4606,7 +4539,7 @@
         <v>121</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D29" s="13">
         <v>3</v>
@@ -4615,7 +4548,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="13">
-        <f t="shared" si="0"/>
+        <f>CEILING(D29,W$22+1)</f>
         <v>4</v>
       </c>
       <c r="H29" s="13">
@@ -4633,7 +4566,7 @@
       <c r="L29" s="32">
         <v>1</v>
       </c>
-      <c r="M29" s="32">
+      <c r="M29" s="75">
         <v>1</v>
       </c>
       <c r="N29" s="75">
@@ -4642,34 +4575,34 @@
       <c r="O29" s="75">
         <v>1</v>
       </c>
-      <c r="P29" s="75">
-        <v>1</v>
-      </c>
-      <c r="R29" s="75">
-        <v>1</v>
-      </c>
-      <c r="S29" s="77">
+      <c r="P29" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="32">
+        <v>1</v>
+      </c>
+      <c r="S29" s="75">
         <v>1</v>
       </c>
       <c r="U29" s="67">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>SUM(R29:T29)</f>
+        <v>1</v>
       </c>
       <c r="V29" s="31"/>
       <c r="W29" s="70">
         <v>1.5</v>
       </c>
       <c r="X29" s="29">
-        <f>SUMIF(U$2:U$84,"&gt;=" &amp; W29,F$2:F$84)</f>
-        <v>162</v>
+        <f>SUMIF(U$2:U$85,"&gt;=" &amp; W29,F$2:F$85)</f>
+        <v>102</v>
       </c>
       <c r="Y29" s="29">
-        <f>SUMIF(U$2:U$84,"&gt;=" &amp; W29,E$2:E$84)</f>
-        <v>17</v>
+        <f>SUMIF(U$2:U$85,"&gt;=" &amp; W29,E$2:E$85)</f>
+        <v>13</v>
       </c>
       <c r="Z29" s="8">
-        <f t="shared" si="2"/>
-        <v>21.06</v>
+        <f t="shared" si="0"/>
+        <v>15.600000000000003</v>
       </c>
       <c r="AA29" s="31"/>
       <c r="AB29" s="31"/>
@@ -4681,7 +4614,7 @@
         <v>122</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D30" s="13">
         <v>5</v>
@@ -4690,25 +4623,25 @@
         <v>0</v>
       </c>
       <c r="F30" s="13">
-        <f t="shared" si="0"/>
+        <f>CEILING(D30,W$22+1)</f>
         <v>6</v>
       </c>
       <c r="G30" s="13">
         <v>37</v>
       </c>
       <c r="K30" s="55" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L30" s="32"/>
-      <c r="M30" s="32">
-        <v>0</v>
-      </c>
-      <c r="O30" s="75">
+      <c r="N30" s="75">
         <v>0.5</v>
       </c>
-      <c r="S30" s="77"/>
+      <c r="P30" s="77"/>
+      <c r="Q30" s="32">
+        <v>0</v>
+      </c>
       <c r="U30" s="67">
-        <f t="shared" si="1"/>
+        <f>SUM(R30:T30)</f>
         <v>0</v>
       </c>
       <c r="V30" s="31"/>
@@ -4716,16 +4649,16 @@
         <v>2</v>
       </c>
       <c r="X30" s="6">
-        <f>SUMIF(U$2:U$84,"&gt;=" &amp; W30,F$2:F$84)</f>
-        <v>158</v>
+        <f>SUMIF(U$2:U$85,"&gt;=" &amp; W30,F$2:F$85)</f>
+        <v>98</v>
       </c>
       <c r="Y30" s="6">
-        <f>SUMIF(U$2:U$84,"&gt;=" &amp; W30,E$2:E$84)</f>
-        <v>17</v>
+        <f>SUMIF(U$2:U$85,"&gt;=" &amp; W30,E$2:E$85)</f>
+        <v>13</v>
       </c>
       <c r="Z30" s="8">
-        <f t="shared" si="2"/>
-        <v>20.8</v>
+        <f t="shared" si="0"/>
+        <v>15.340000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.3">
@@ -4733,7 +4666,7 @@
         <v>123</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D31" s="13">
         <v>5</v>
@@ -4742,23 +4675,23 @@
         <v>0</v>
       </c>
       <c r="F31" s="13">
-        <f t="shared" si="0"/>
+        <f>CEILING(D31,W$22+1)</f>
         <v>6</v>
       </c>
       <c r="K31" s="55" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L31" s="32"/>
-      <c r="M31" s="32">
-        <v>0</v>
-      </c>
-      <c r="O31" s="75">
+      <c r="N31" s="75">
         <v>0.5</v>
       </c>
-      <c r="S31" s="77"/>
+      <c r="P31" s="77"/>
+      <c r="Q31" s="32">
+        <v>0</v>
+      </c>
       <c r="T31" s="78"/>
       <c r="U31" s="81">
-        <f t="shared" si="1"/>
+        <f>SUM(R31:T31)</f>
         <v>0</v>
       </c>
       <c r="V31" s="31"/>
@@ -4766,16 +4699,16 @@
         <v>2.5</v>
       </c>
       <c r="X31" s="6">
-        <f>SUMIF(U$2:U$84,"&gt;=" &amp; W31,F$2:F$84)</f>
-        <v>68</v>
+        <f>SUMIF(U$2:U$85,"&gt;=" &amp; W31,F$2:F$85)</f>
+        <v>8</v>
       </c>
       <c r="Y31" s="6">
-        <f>SUMIF(U$2:U$84,"&gt;=" &amp; W31,E$2:E$84)</f>
-        <v>6</v>
+        <f>SUMIF(U$2:U$85,"&gt;=" &amp; W31,E$2:E$85)</f>
+        <v>2</v>
       </c>
       <c r="Z31" s="8">
-        <f t="shared" si="2"/>
-        <v>10.66</v>
+        <f t="shared" si="0"/>
+        <v>5.2</v>
       </c>
       <c r="AA31" s="31"/>
       <c r="AB31" s="31"/>
@@ -4790,7 +4723,7 @@
         <v>124</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D32" s="12">
         <v>3</v>
@@ -4799,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="12">
-        <f t="shared" si="0"/>
+        <f>CEILING(D32,W$22+1)</f>
         <v>4</v>
       </c>
       <c r="G32" s="12">
@@ -4811,19 +4744,19 @@
       </c>
       <c r="J32" s="12"/>
       <c r="K32" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
+      <c r="M32" s="76"/>
       <c r="N32" s="76"/>
       <c r="O32" s="76"/>
       <c r="P32" s="76"/>
-      <c r="Q32" s="76"/>
+      <c r="Q32" s="33"/>
       <c r="R32" s="76"/>
       <c r="S32" s="76"/>
       <c r="T32" s="77"/>
       <c r="U32" s="67">
-        <f t="shared" si="1"/>
+        <f>SUM(R32:T32)</f>
         <v>0</v>
       </c>
       <c r="V32" s="31"/>
@@ -4831,16 +4764,16 @@
         <v>3</v>
       </c>
       <c r="X32" s="6">
-        <f>SUMIF(U$2:U$84,"&gt;=" &amp; W32,F$2:F$84)</f>
-        <v>64</v>
+        <f>SUMIF(U$2:U$85,"&gt;=" &amp; W32,F$2:F$85)</f>
+        <v>8</v>
       </c>
       <c r="Y32" s="6">
-        <f>SUMIF(U$2:U$84,"&gt;=" &amp; W32,E$2:E$84)</f>
-        <v>6</v>
+        <f>SUMIF(U$2:U$85,"&gt;=" &amp; W32,E$2:E$85)</f>
+        <v>2</v>
       </c>
       <c r="Z32" s="8">
-        <f t="shared" si="2"/>
-        <v>10.4</v>
+        <f t="shared" si="0"/>
+        <v>5.2</v>
       </c>
     </row>
     <row r="33" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4849,7 +4782,7 @@
         <v>125</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D33" s="13">
         <v>2</v>
@@ -4858,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="13">
-        <f t="shared" si="0"/>
+        <f>CEILING(D33,W$22+1)</f>
         <v>2</v>
       </c>
       <c r="G33" s="13">
@@ -4874,12 +4807,12 @@
         <v>15</v>
       </c>
       <c r="K33" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L33" s="32">
         <v>1</v>
       </c>
-      <c r="M33" s="73">
+      <c r="M33" s="75">
         <v>1</v>
       </c>
       <c r="N33" s="75">
@@ -4888,37 +4821,37 @@
       <c r="O33" s="75">
         <v>1</v>
       </c>
-      <c r="P33" s="75">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="75">
+      <c r="P33" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="73">
         <v>1</v>
       </c>
       <c r="R33" s="75">
         <v>1</v>
       </c>
-      <c r="S33" s="77">
+      <c r="S33" s="75">
         <v>1</v>
       </c>
       <c r="T33" s="75"/>
       <c r="U33" s="67">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>SUM(R33:T33)</f>
+        <v>2</v>
       </c>
       <c r="V33" s="31"/>
       <c r="W33" s="69">
         <v>3.5</v>
       </c>
       <c r="X33" s="6">
-        <f>SUMIF(U$2:U$84,"&gt;=" &amp; W33,F$2:F$84)</f>
+        <f>SUMIF(U$2:U$85,"&gt;=" &amp; W33,F$2:F$85)</f>
         <v>8</v>
       </c>
       <c r="Y33" s="6">
-        <f>SUMIF(U$2:U$84,"&gt;=" &amp; W33,E$2:E$84)</f>
+        <f>SUMIF(U$2:U$85,"&gt;=" &amp; W33,E$2:E$85)</f>
         <v>2</v>
       </c>
       <c r="Z33" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>5.2</v>
       </c>
       <c r="AA33"/>
@@ -4928,10 +4861,10 @@
     </row>
     <row r="34" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D34" s="13">
         <v>1</v>
@@ -4940,19 +4873,19 @@
         <v>0</v>
       </c>
       <c r="F34" s="13">
-        <f t="shared" si="0"/>
+        <f>CEILING(D34,W$22+1)</f>
         <v>2</v>
       </c>
       <c r="J34" s="13">
         <v>16</v>
       </c>
       <c r="K34" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L34" s="32">
         <v>1</v>
       </c>
-      <c r="M34" s="73">
+      <c r="M34" s="75">
         <v>1</v>
       </c>
       <c r="N34" s="75">
@@ -4961,20 +4894,20 @@
       <c r="O34" s="75">
         <v>1</v>
       </c>
-      <c r="P34" s="75">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="75">
+      <c r="P34" s="77">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="73">
         <v>1</v>
       </c>
       <c r="R34" s="75">
         <v>1</v>
       </c>
-      <c r="S34" s="77">
-        <v>0</v>
+      <c r="S34" s="75">
+        <v>1</v>
       </c>
       <c r="U34" s="67">
-        <f t="shared" si="1"/>
+        <f>SUM(R34:T34)</f>
         <v>2</v>
       </c>
       <c r="V34" s="31"/>
@@ -4982,25 +4915,25 @@
         <v>4</v>
       </c>
       <c r="X34" s="45">
-        <f>SUMIF(U$2:U$84,"&gt;=" &amp; W34,F$2:F$84)</f>
+        <f>SUMIF(U$2:U$85,"&gt;=" &amp; W34,F$2:F$85)</f>
         <v>8</v>
       </c>
       <c r="Y34" s="45">
-        <f>SUMIF(U$2:U$84,"&gt;=" &amp; W34,E$2:E$84)</f>
+        <f>SUMIF(U$2:U$85,"&gt;=" &amp; W34,E$2:E$85)</f>
         <v>2</v>
       </c>
       <c r="Z34" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>5.2</v>
       </c>
     </row>
     <row r="35" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D35" s="13">
         <v>3</v>
@@ -5009,7 +4942,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="13">
-        <f t="shared" ref="F35:F66" si="3">CEILING(D35,W$22+1)</f>
+        <f>CEILING(D35,W$22+1)</f>
         <v>4</v>
       </c>
       <c r="G35" s="13">
@@ -5025,12 +4958,12 @@
         <v>16</v>
       </c>
       <c r="K35" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L35" s="32">
         <v>1</v>
       </c>
-      <c r="M35" s="32">
+      <c r="M35" s="75">
         <v>1</v>
       </c>
       <c r="N35" s="75">
@@ -5039,22 +4972,22 @@
       <c r="O35" s="75">
         <v>1</v>
       </c>
-      <c r="P35" s="75">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="75">
+      <c r="P35" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="32">
         <v>1</v>
       </c>
       <c r="R35" s="75">
         <v>1</v>
       </c>
-      <c r="S35" s="77">
+      <c r="S35" s="75">
         <v>1</v>
       </c>
       <c r="T35" s="75"/>
       <c r="U35" s="67">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>SUM(R35:T35)</f>
+        <v>2</v>
       </c>
       <c r="W35" s="3"/>
       <c r="X35"/>
@@ -5070,7 +5003,7 @@
         <v>126</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D36" s="13">
         <v>3</v>
@@ -5079,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="13">
-        <f t="shared" si="3"/>
+        <f>CEILING(D36,W$22+1)</f>
         <v>4</v>
       </c>
       <c r="G36" s="13">
@@ -5095,14 +5028,14 @@
       <c r="L36" s="32">
         <v>1</v>
       </c>
-      <c r="M36" s="32">
-        <v>0</v>
-      </c>
-      <c r="S36" s="77">
+      <c r="P36" s="77">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="32">
         <v>0</v>
       </c>
       <c r="U36" s="67">
-        <f t="shared" si="1"/>
+        <f>SUM(R36:T36)</f>
         <v>0</v>
       </c>
       <c r="V36" s="31"/>
@@ -5116,7 +5049,7 @@
         <v>97</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D37" s="13">
         <v>2</v>
@@ -5125,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="13">
-        <f t="shared" si="3"/>
+        <f>CEILING(D37,W$22+1)</f>
         <v>2</v>
       </c>
       <c r="H37" s="13">
@@ -5143,21 +5076,21 @@
       <c r="L37" s="32">
         <v>1</v>
       </c>
-      <c r="M37" s="32">
+      <c r="M37" s="75">
         <v>1</v>
       </c>
       <c r="N37" s="75">
         <v>1</v>
       </c>
-      <c r="O37" s="75">
-        <v>1</v>
-      </c>
-      <c r="S37" s="77">
+      <c r="P37" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="32">
         <v>1</v>
       </c>
       <c r="U37" s="67">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(R37:T37)</f>
+        <v>0</v>
       </c>
       <c r="V37" s="31"/>
       <c r="X37" s="31"/>
@@ -5169,7 +5102,7 @@
         <v>98</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D38" s="13">
         <v>4</v>
@@ -5178,33 +5111,33 @@
         <v>0</v>
       </c>
       <c r="F38" s="13">
-        <f t="shared" si="3"/>
+        <f>CEILING(D38,W$22+1)</f>
         <v>4</v>
       </c>
       <c r="J38" s="13">
         <v>19</v>
       </c>
       <c r="K38" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L38" s="32">
         <v>1</v>
       </c>
-      <c r="M38" s="32">
-        <v>1</v>
+      <c r="M38" s="75">
+        <v>0.5</v>
       </c>
       <c r="N38" s="75">
-        <v>0.5</v>
-      </c>
-      <c r="O38" s="75">
-        <v>1</v>
-      </c>
-      <c r="S38" s="77">
+        <v>1</v>
+      </c>
+      <c r="P38" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="32">
         <v>1</v>
       </c>
       <c r="U38" s="67">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(R38:T38)</f>
+        <v>0</v>
       </c>
       <c r="V38" s="31"/>
       <c r="AA38" s="31"/>
@@ -5217,7 +5150,7 @@
         <v>95</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D39" s="13">
         <v>3</v>
@@ -5226,19 +5159,19 @@
         <v>0</v>
       </c>
       <c r="F39" s="13">
-        <f t="shared" si="3"/>
+        <f>CEILING(D39,W$22+1)</f>
         <v>4</v>
       </c>
       <c r="J39" s="13">
         <v>20</v>
       </c>
       <c r="K39" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L39" s="32">
         <v>1</v>
       </c>
-      <c r="M39" s="32">
+      <c r="M39" s="75">
         <v>1</v>
       </c>
       <c r="N39" s="75">
@@ -5247,15 +5180,15 @@
       <c r="O39" s="75">
         <v>1</v>
       </c>
-      <c r="P39" s="75">
-        <v>1</v>
-      </c>
-      <c r="S39" s="77">
+      <c r="P39" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="32">
         <v>1</v>
       </c>
       <c r="U39" s="67">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(R39:T39)</f>
+        <v>0</v>
       </c>
       <c r="V39" s="31"/>
       <c r="W39" s="72"/>
@@ -5265,7 +5198,7 @@
         <v>127</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D40" s="13">
         <v>7</v>
@@ -5274,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="13">
-        <f t="shared" si="3"/>
+        <f>CEILING(D40,W$22+1)</f>
         <v>8</v>
       </c>
       <c r="G40" s="13">
@@ -5290,36 +5223,36 @@
         <v>21</v>
       </c>
       <c r="K40" s="21" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L40" s="32">
         <v>1</v>
       </c>
-      <c r="M40" s="32">
-        <v>1</v>
+      <c r="M40" s="75">
+        <v>0.5</v>
       </c>
       <c r="N40" s="75">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="O40" s="75">
-        <v>0.75</v>
-      </c>
-      <c r="P40" s="75">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="75">
+        <v>1</v>
+      </c>
+      <c r="P40" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="32">
         <v>1</v>
       </c>
       <c r="R40" s="75">
         <v>1</v>
       </c>
-      <c r="S40" s="77">
+      <c r="S40" s="75">
         <v>1</v>
       </c>
       <c r="T40" s="78"/>
       <c r="U40" s="81">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>SUM(R40:T40)</f>
+        <v>2</v>
       </c>
       <c r="V40" s="31"/>
       <c r="W40" s="72"/>
@@ -5332,7 +5265,7 @@
         <v>128</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D41" s="12">
         <v>2</v>
@@ -5341,11 +5274,11 @@
         <v>0</v>
       </c>
       <c r="F41" s="12">
-        <f t="shared" si="3"/>
+        <f>CEILING(D41,W$22+1)</f>
         <v>2</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H41" s="12">
         <v>23</v>
@@ -5357,12 +5290,12 @@
         <v>22</v>
       </c>
       <c r="K41" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L41" s="33">
         <v>1</v>
       </c>
-      <c r="M41" s="33">
+      <c r="M41" s="76">
         <v>1</v>
       </c>
       <c r="N41" s="76">
@@ -5374,7 +5307,7 @@
       <c r="P41" s="76">
         <v>1</v>
       </c>
-      <c r="Q41" s="76">
+      <c r="Q41" s="33">
         <v>1</v>
       </c>
       <c r="R41" s="76">
@@ -5385,8 +5318,8 @@
       </c>
       <c r="T41" s="77"/>
       <c r="U41" s="67">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>SUM(R41:T41)</f>
+        <v>2</v>
       </c>
       <c r="V41" s="31"/>
       <c r="W41" s="72"/>
@@ -5395,10 +5328,10 @@
     <row r="42" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D42" s="13">
         <v>5</v>
@@ -5407,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="13">
-        <f t="shared" si="3"/>
+        <f>CEILING(D42,W$22+1)</f>
         <v>6</v>
       </c>
       <c r="G42" s="13">
@@ -5426,7 +5359,7 @@
       <c r="L42" s="32">
         <v>1</v>
       </c>
-      <c r="M42" s="32">
+      <c r="M42" s="75">
         <v>1</v>
       </c>
       <c r="N42" s="75">
@@ -5435,20 +5368,20 @@
       <c r="O42" s="75">
         <v>1</v>
       </c>
-      <c r="P42" s="75">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="75"/>
-      <c r="R42" s="75">
-        <v>1</v>
-      </c>
-      <c r="S42" s="77">
+      <c r="P42" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="32">
+        <v>1</v>
+      </c>
+      <c r="R42" s="75"/>
+      <c r="S42" s="75">
         <v>1</v>
       </c>
       <c r="T42" s="75"/>
       <c r="U42" s="67">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>SUM(R42:T42)</f>
+        <v>1</v>
       </c>
       <c r="V42" s="31"/>
       <c r="W42" s="3"/>
@@ -5462,10 +5395,10 @@
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B43" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D43" s="13">
         <v>4</v>
@@ -5474,17 +5407,17 @@
         <v>0</v>
       </c>
       <c r="F43" s="13">
-        <f t="shared" si="3"/>
+        <f>CEILING(D43,W$22+1)</f>
         <v>4</v>
       </c>
       <c r="K43" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L43" s="32"/>
-      <c r="M43" s="31"/>
-      <c r="S43" s="77"/>
+      <c r="P43" s="77"/>
+      <c r="Q43" s="31"/>
       <c r="U43" s="67">
-        <f t="shared" si="1"/>
+        <f>SUM(R43:T43)</f>
         <v>0</v>
       </c>
       <c r="V43" s="31"/>
@@ -5496,7 +5429,7 @@
         <v>129</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D44" s="13">
         <v>6</v>
@@ -5505,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="13">
-        <f t="shared" si="3"/>
+        <f>CEILING(D44,W$22+1)</f>
         <v>6</v>
       </c>
       <c r="H44" s="13">
@@ -5518,7 +5451,7 @@
         <v>92</v>
       </c>
       <c r="L44" s="32"/>
-      <c r="M44" s="32">
+      <c r="M44" s="75">
         <v>1</v>
       </c>
       <c r="N44" s="75">
@@ -5527,28 +5460,28 @@
       <c r="O44" s="75">
         <v>1</v>
       </c>
-      <c r="P44" s="75">
-        <v>1</v>
-      </c>
-      <c r="R44" s="75">
-        <v>1</v>
-      </c>
-      <c r="S44" s="77">
+      <c r="P44" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="32">
+        <v>1</v>
+      </c>
+      <c r="S44" s="75">
         <v>1</v>
       </c>
       <c r="U44" s="67">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>SUM(R44:T44)</f>
+        <v>1</v>
       </c>
       <c r="V44" s="31"/>
       <c r="Z44" s="6"/>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B45" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D45" s="13">
         <v>5</v>
@@ -5557,11 +5490,11 @@
         <v>2</v>
       </c>
       <c r="F45" s="13">
-        <f t="shared" si="3"/>
+        <f>CEILING(D45,W$22+1)</f>
         <v>6</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H45" s="13">
         <v>26</v>
@@ -5573,30 +5506,30 @@
         <v>25</v>
       </c>
       <c r="K45" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L45" s="32">
         <v>1</v>
       </c>
-      <c r="M45" s="32">
+      <c r="M45" s="75">
         <v>1</v>
       </c>
       <c r="N45" s="75">
         <v>1</v>
       </c>
-      <c r="O45" s="75">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="75">
-        <v>1</v>
-      </c>
-      <c r="S45" s="77">
+      <c r="P45" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="32">
+        <v>1</v>
+      </c>
+      <c r="R45" s="75">
         <v>1</v>
       </c>
       <c r="T45" s="78"/>
       <c r="U45" s="81">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>SUM(R45:T45)</f>
+        <v>1</v>
       </c>
       <c r="V45" s="31"/>
     </row>
@@ -5605,10 +5538,10 @@
         <v>79</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D46" s="12">
         <v>7</v>
@@ -5617,11 +5550,11 @@
         <v>1</v>
       </c>
       <c r="F46" s="12">
-        <f t="shared" si="3"/>
+        <f>CEILING(D46,W$22+1)</f>
         <v>8</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H46" s="12">
         <v>28</v>
@@ -5633,42 +5566,42 @@
         <v>26</v>
       </c>
       <c r="K46" s="20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L46" s="33">
         <v>1</v>
       </c>
-      <c r="M46" s="33">
+      <c r="M46" s="76">
+        <v>1</v>
+      </c>
+      <c r="N46" s="76">
+        <v>1</v>
+      </c>
+      <c r="O46" s="76">
+        <v>1</v>
+      </c>
+      <c r="P46" s="76">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="33">
         <v>0.8</v>
       </c>
-      <c r="N46" s="76">
-        <v>1</v>
-      </c>
-      <c r="O46" s="76">
-        <v>1</v>
-      </c>
-      <c r="P46" s="76">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="76"/>
       <c r="R46" s="76"/>
-      <c r="S46" s="76">
-        <v>1</v>
-      </c>
+      <c r="S46" s="76"/>
       <c r="T46" s="77"/>
       <c r="U46" s="67">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(R46:T46)</f>
+        <v>0</v>
       </c>
       <c r="W46" s="3"/>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" s="28"/>
       <c r="B47" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D47" s="13">
         <v>4</v>
@@ -5677,27 +5610,27 @@
         <v>2</v>
       </c>
       <c r="F47" s="13">
-        <f t="shared" si="3"/>
+        <f>CEILING(D47,W$22+1)</f>
         <v>4</v>
       </c>
       <c r="K47" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L47" s="77"/>
       <c r="M47" s="77"/>
       <c r="N47" s="77"/>
       <c r="O47" s="77"/>
       <c r="P47" s="77"/>
-      <c r="Q47" s="77">
-        <v>1</v>
-      </c>
+      <c r="Q47" s="77"/>
       <c r="R47" s="77">
         <v>1</v>
       </c>
-      <c r="S47" s="77"/>
+      <c r="S47" s="77">
+        <v>1</v>
+      </c>
       <c r="T47" s="77"/>
       <c r="U47" s="67">
-        <f t="shared" si="1"/>
+        <f>SUM(R47:T47)</f>
         <v>2</v>
       </c>
       <c r="V47" s="31"/>
@@ -5713,7 +5646,7 @@
         <v>93</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D48" s="13">
         <v>6</v>
@@ -5722,11 +5655,11 @@
         <v>3</v>
       </c>
       <c r="F48" s="13">
-        <f t="shared" si="3"/>
+        <f>CEILING(D48,W$22+1)</f>
         <v>6</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H48" s="13">
         <v>29</v>
@@ -5738,32 +5671,32 @@
         <v>27</v>
       </c>
       <c r="K48" s="21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L48" s="32">
         <v>1</v>
       </c>
-      <c r="M48" s="32">
+      <c r="M48" s="75">
+        <v>1</v>
+      </c>
+      <c r="N48" s="75">
+        <v>1</v>
+      </c>
+      <c r="O48" s="75">
+        <v>1</v>
+      </c>
+      <c r="P48" s="77">
+        <v>0.9</v>
+      </c>
+      <c r="Q48" s="32">
         <v>0.8</v>
       </c>
-      <c r="N48" s="75">
-        <v>1</v>
-      </c>
-      <c r="O48" s="75">
-        <v>1</v>
-      </c>
-      <c r="P48" s="75">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="75"/>
       <c r="R48" s="75"/>
-      <c r="S48" s="77">
-        <v>0.9</v>
-      </c>
+      <c r="S48" s="75"/>
       <c r="T48" s="75"/>
       <c r="U48" s="67">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
+        <f>SUM(R48:T48)</f>
+        <v>0</v>
       </c>
       <c r="W48" s="3"/>
       <c r="Z48" s="6"/>
@@ -5775,10 +5708,10 @@
     <row r="49" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D49" s="13">
         <v>8</v>
@@ -5787,7 +5720,7 @@
         <v>4</v>
       </c>
       <c r="F49" s="13">
-        <f t="shared" si="3"/>
+        <f>CEILING(D49,W$22+1)</f>
         <v>8</v>
       </c>
       <c r="G49" s="13"/>
@@ -5795,23 +5728,23 @@
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
       <c r="K49" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L49" s="75"/>
       <c r="M49" s="75"/>
       <c r="N49" s="75"/>
       <c r="O49" s="75"/>
-      <c r="P49" s="75"/>
-      <c r="Q49" s="75">
-        <v>1</v>
-      </c>
+      <c r="P49" s="77"/>
+      <c r="Q49" s="75"/>
       <c r="R49" s="75">
         <v>1</v>
       </c>
-      <c r="S49" s="77"/>
+      <c r="S49" s="75">
+        <v>1</v>
+      </c>
       <c r="T49" s="75"/>
       <c r="U49" s="67">
-        <f t="shared" si="1"/>
+        <f>SUM(R49:T49)</f>
         <v>2</v>
       </c>
       <c r="V49" s="31"/>
@@ -5828,7 +5761,7 @@
         <v>130</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D50" s="13">
         <v>2</v>
@@ -5837,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="13">
-        <f t="shared" si="3"/>
+        <f>CEILING(D50,W$22+1)</f>
         <v>2</v>
       </c>
       <c r="G50" s="13">
@@ -5857,36 +5790,36 @@
         <v>1</v>
       </c>
       <c r="M50" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="N50" s="75">
+        <v>1</v>
+      </c>
+      <c r="O50" s="75">
+        <v>1</v>
+      </c>
+      <c r="P50" s="77">
+        <v>0.1</v>
+      </c>
+      <c r="Q50" s="75">
         <v>0.8</v>
       </c>
-      <c r="N50" s="75">
-        <v>0.5</v>
-      </c>
-      <c r="O50" s="75">
-        <v>1</v>
-      </c>
-      <c r="P50" s="75">
-        <v>1</v>
-      </c>
-      <c r="R50" s="75">
-        <v>1</v>
-      </c>
-      <c r="S50" s="77">
-        <v>0.1</v>
+      <c r="S50" s="75">
+        <v>1</v>
       </c>
       <c r="U50" s="67">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
+        <f>SUM(R50:T50)</f>
+        <v>1</v>
       </c>
       <c r="V50" s="31"/>
       <c r="Y50" s="6"/>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B51" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D51" s="13">
         <v>4</v>
@@ -5895,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="13">
-        <f t="shared" si="3"/>
+        <f>CEILING(D51,W$22+1)</f>
         <v>4</v>
       </c>
       <c r="G51" s="13">
@@ -5911,23 +5844,23 @@
         <v>28</v>
       </c>
       <c r="K51" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L51" s="32"/>
-      <c r="M51" s="32"/>
+      <c r="N51" s="75">
+        <v>0.75</v>
+      </c>
       <c r="O51" s="75">
-        <v>0.75</v>
-      </c>
-      <c r="P51" s="75">
-        <v>1</v>
-      </c>
-      <c r="S51" s="77">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P51" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="32"/>
       <c r="T51" s="78"/>
       <c r="U51" s="81">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(R51:T51)</f>
+        <v>0</v>
       </c>
       <c r="V51" s="31"/>
     </row>
@@ -5936,10 +5869,10 @@
         <v>80</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D52" s="12">
         <v>2</v>
@@ -5948,7 +5881,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="12">
-        <f t="shared" si="3"/>
+        <f>CEILING(D52,W$22+1)</f>
         <v>2</v>
       </c>
       <c r="G52" s="12">
@@ -5963,24 +5896,24 @@
       <c r="J52" s="12"/>
       <c r="K52" s="20"/>
       <c r="L52" s="33"/>
-      <c r="M52" s="33"/>
+      <c r="M52" s="76">
+        <v>1</v>
+      </c>
       <c r="N52" s="76">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O52" s="76">
-        <v>0.75</v>
-      </c>
-      <c r="P52" s="76">
-        <v>1</v>
-      </c>
-      <c r="Q52" s="76"/>
-      <c r="R52" s="76">
-        <v>1</v>
-      </c>
-      <c r="S52" s="76"/>
+        <v>1</v>
+      </c>
+      <c r="P52" s="76"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="76"/>
+      <c r="S52" s="76">
+        <v>1</v>
+      </c>
       <c r="T52" s="77"/>
       <c r="U52" s="67">
-        <f t="shared" si="1"/>
+        <f>SUM(R52:T52)</f>
         <v>1</v>
       </c>
       <c r="V52" s="31"/>
@@ -5998,7 +5931,7 @@
         <v>131</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D53" s="13">
         <v>3</v>
@@ -6007,7 +5940,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="13">
-        <f t="shared" si="3"/>
+        <f>CEILING(D53,W$22+1)</f>
         <v>4</v>
       </c>
       <c r="G53" s="13">
@@ -6021,23 +5954,23 @@
       </c>
       <c r="K53" s="21"/>
       <c r="L53" s="32"/>
-      <c r="M53" s="32"/>
+      <c r="M53" s="75">
+        <v>1</v>
+      </c>
       <c r="N53" s="75">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O53" s="75">
-        <v>0.75</v>
-      </c>
-      <c r="P53" s="75">
-        <v>1</v>
-      </c>
-      <c r="R53" s="75">
-        <v>1</v>
-      </c>
-      <c r="S53" s="77"/>
+        <v>1</v>
+      </c>
+      <c r="P53" s="77"/>
+      <c r="Q53" s="32"/>
+      <c r="S53" s="75">
+        <v>1</v>
+      </c>
       <c r="T53" s="78"/>
       <c r="U53" s="81">
-        <f t="shared" si="1"/>
+        <f>SUM(R53:T53)</f>
         <v>1</v>
       </c>
       <c r="V53" s="31"/>
@@ -6050,7 +5983,7 @@
         <v>132</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D54" s="12">
         <v>2</v>
@@ -6059,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="12">
-        <f t="shared" si="3"/>
+        <f>CEILING(D54,W$22+1)</f>
         <v>2</v>
       </c>
       <c r="G54" s="12"/>
@@ -6072,28 +6005,28 @@
       <c r="J54" s="12"/>
       <c r="K54" s="20"/>
       <c r="L54" s="33"/>
-      <c r="M54" s="33">
-        <v>0</v>
-      </c>
-      <c r="N54" s="76"/>
+      <c r="M54" s="76"/>
+      <c r="N54" s="76">
+        <v>0.5</v>
+      </c>
       <c r="O54" s="76">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P54" s="76">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="76">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="33">
+        <v>0</v>
       </c>
       <c r="R54" s="76">
         <v>1</v>
       </c>
       <c r="S54" s="76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T54" s="77"/>
       <c r="U54" s="67">
-        <f t="shared" si="1"/>
+        <f>SUM(R54:T54)</f>
         <v>2</v>
       </c>
       <c r="V54" s="31"/>
@@ -6109,7 +6042,7 @@
         <v>133</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D55" s="13">
         <v>3</v>
@@ -6118,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="13">
-        <f t="shared" si="3"/>
+        <f>CEILING(D55,W$22+1)</f>
         <v>4</v>
       </c>
       <c r="G55" s="13">
@@ -6137,26 +6070,26 @@
       <c r="L55" s="32">
         <v>0</v>
       </c>
-      <c r="M55" s="73">
-        <v>0</v>
+      <c r="N55" s="75">
+        <v>0.25</v>
       </c>
       <c r="O55" s="75">
-        <v>0.25</v>
-      </c>
-      <c r="P55" s="75">
-        <v>1</v>
-      </c>
-      <c r="Q55" s="75">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="P55" s="77">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="73">
+        <v>0</v>
       </c>
       <c r="R55" s="75">
         <v>1</v>
       </c>
-      <c r="S55" s="77">
-        <v>0</v>
+      <c r="S55" s="75">
+        <v>1</v>
       </c>
       <c r="U55" s="67">
-        <f t="shared" si="1"/>
+        <f>SUM(R55:T55)</f>
         <v>2</v>
       </c>
       <c r="V55" s="31"/>
@@ -6166,7 +6099,7 @@
         <v>134</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D56" s="13">
         <v>3</v>
@@ -6175,7 +6108,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="13">
-        <f t="shared" si="3"/>
+        <f>CEILING(D56,W$22+1)</f>
         <v>4</v>
       </c>
       <c r="G56" s="13">
@@ -6191,20 +6124,20 @@
       <c r="L56" s="32">
         <v>0</v>
       </c>
-      <c r="M56" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="75">
+      <c r="P56" s="77">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="73">
+        <v>0</v>
+      </c>
+      <c r="R56" s="75">
         <v>0.5</v>
       </c>
-      <c r="R56" s="75">
-        <v>1</v>
-      </c>
-      <c r="S56" s="77">
-        <v>0</v>
+      <c r="S56" s="75">
+        <v>1</v>
       </c>
       <c r="U56" s="67">
-        <f t="shared" si="1"/>
+        <f>SUM(R56:T56)</f>
         <v>1.5</v>
       </c>
       <c r="V56" s="31"/>
@@ -6218,7 +6151,7 @@
         <v>135</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D57" s="13">
         <v>3</v>
@@ -6227,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="13">
-        <f t="shared" si="3"/>
+        <f>CEILING(D57,W$22+1)</f>
         <v>4</v>
       </c>
       <c r="G57" s="13">
@@ -6235,17 +6168,17 @@
       </c>
       <c r="K57" s="21"/>
       <c r="L57" s="32"/>
-      <c r="M57" s="73">
-        <v>0</v>
-      </c>
-      <c r="R57" s="75">
-        <v>1</v>
-      </c>
-      <c r="S57" s="77">
-        <v>0</v>
+      <c r="P57" s="77">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="73">
+        <v>0</v>
+      </c>
+      <c r="S57" s="75">
+        <v>1</v>
       </c>
       <c r="U57" s="67">
-        <f t="shared" si="1"/>
+        <f>SUM(R57:T57)</f>
         <v>1</v>
       </c>
       <c r="V57" s="31"/>
@@ -6256,7 +6189,7 @@
         <v>136</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D58" s="13">
         <v>2</v>
@@ -6265,7 +6198,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="13">
-        <f t="shared" si="3"/>
+        <f>CEILING(D58,W$22+1)</f>
         <v>2</v>
       </c>
       <c r="G58" s="13">
@@ -6281,30 +6214,30 @@
       <c r="L58" s="32">
         <v>0.5</v>
       </c>
-      <c r="M58" s="73">
-        <v>0.2</v>
+      <c r="M58" s="75">
+        <v>0.5</v>
       </c>
       <c r="N58" s="75">
         <v>0.5</v>
       </c>
       <c r="O58" s="75">
-        <v>0.5</v>
-      </c>
-      <c r="P58" s="75">
-        <v>1</v>
-      </c>
-      <c r="Q58" s="75">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="P58" s="77">
+        <v>0.1</v>
+      </c>
+      <c r="Q58" s="73">
+        <v>0.2</v>
       </c>
       <c r="R58" s="75">
         <v>1</v>
       </c>
-      <c r="S58" s="77">
-        <v>0.1</v>
+      <c r="S58" s="75">
+        <v>1</v>
       </c>
       <c r="U58" s="67">
-        <f t="shared" si="1"/>
-        <v>2.1</v>
+        <f>SUM(R58:T58)</f>
+        <v>2</v>
       </c>
       <c r="V58" s="31"/>
       <c r="AA58" s="31"/>
@@ -6314,7 +6247,7 @@
         <v>137</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D59" s="13">
         <v>5</v>
@@ -6323,7 +6256,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="13">
-        <f t="shared" si="3"/>
+        <f>CEILING(D59,W$22+1)</f>
         <v>6</v>
       </c>
       <c r="G59" s="13">
@@ -6342,7 +6275,7 @@
       <c r="L59" s="32">
         <v>1</v>
       </c>
-      <c r="M59" s="73">
+      <c r="M59" s="75">
         <v>1</v>
       </c>
       <c r="N59" s="75">
@@ -6351,18 +6284,18 @@
       <c r="O59" s="75">
         <v>1</v>
       </c>
-      <c r="P59" s="75">
-        <v>1</v>
-      </c>
-      <c r="Q59" s="75">
-        <v>1</v>
-      </c>
-      <c r="S59" s="77">
+      <c r="P59" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="73">
+        <v>1</v>
+      </c>
+      <c r="R59" s="75">
         <v>1</v>
       </c>
       <c r="U59" s="67">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>SUM(R59:T59)</f>
+        <v>1</v>
       </c>
       <c r="V59" s="31"/>
       <c r="Y59" s="6"/>
@@ -6373,7 +6306,7 @@
         <v>138</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D60" s="13">
         <v>5</v>
@@ -6382,7 +6315,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="13">
-        <f t="shared" si="3"/>
+        <f>CEILING(D60,W$22+1)</f>
         <v>6</v>
       </c>
       <c r="G60" s="13">
@@ -6401,397 +6334,404 @@
       <c r="L60" s="32">
         <v>1</v>
       </c>
-      <c r="M60" s="73">
+      <c r="M60" s="75">
         <v>1</v>
       </c>
       <c r="N60" s="75">
-        <v>1</v>
-      </c>
-      <c r="O60" s="75">
         <v>0.5</v>
       </c>
-      <c r="Q60" s="75">
-        <v>1</v>
-      </c>
-      <c r="S60" s="77">
+      <c r="P60" s="77">
         <v>0.1</v>
       </c>
+      <c r="Q60" s="73">
+        <v>1</v>
+      </c>
+      <c r="R60" s="75">
+        <v>1</v>
+      </c>
       <c r="U60" s="67">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
+        <f>SUM(R60:T60)</f>
+        <v>1</v>
       </c>
       <c r="V60" s="31"/>
       <c r="AA60" s="31"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="10"/>
       <c r="B61" s="22" t="s">
-        <v>139</v>
+        <v>239</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D61" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E61" s="13">
         <v>0</v>
       </c>
       <c r="F61" s="13">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="H61" s="13">
-        <v>37</v>
-      </c>
-      <c r="J61" s="13">
-        <v>35</v>
-      </c>
+        <f>CEILING(D61,W$22+1)</f>
+        <v>4</v>
+      </c>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
       <c r="K61" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="L61" s="32">
-        <v>1</v>
-      </c>
-      <c r="M61" s="73">
-        <v>1</v>
-      </c>
-      <c r="N61" s="75">
-        <v>1</v>
-      </c>
-      <c r="O61" s="75">
-        <v>1</v>
-      </c>
-      <c r="P61" s="75">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="75">
-        <v>1</v>
-      </c>
-      <c r="R61" s="75">
-        <v>1</v>
-      </c>
-      <c r="S61" s="77">
-        <v>1</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="L61" s="75"/>
+      <c r="M61" s="75"/>
+      <c r="N61" s="75"/>
+      <c r="O61" s="75"/>
+      <c r="P61" s="77"/>
+      <c r="Q61" s="73"/>
+      <c r="R61" s="75"/>
+      <c r="S61" s="75"/>
+      <c r="T61" s="75"/>
       <c r="U61" s="67">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="V61" s="31"/>
-      <c r="Z61" s="6"/>
-      <c r="AA61" s="31"/>
+        <f>SUM(R61:T61)</f>
+        <v>0</v>
+      </c>
+      <c r="W61" s="3"/>
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B62" s="22" t="s">
-        <v>96</v>
+        <v>238</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D62" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E62" s="13">
         <v>0</v>
       </c>
       <c r="F62" s="13">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f>CEILING(D62,W$22+1)</f>
+        <v>2</v>
+      </c>
+      <c r="H62" s="13">
+        <v>37</v>
       </c>
       <c r="J62" s="13">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K62" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L62" s="32">
         <v>1</v>
       </c>
-      <c r="M62" s="31"/>
+      <c r="M62" s="75">
+        <v>1</v>
+      </c>
+      <c r="N62" s="75">
+        <v>1</v>
+      </c>
       <c r="O62" s="75">
-        <v>0.5</v>
-      </c>
-      <c r="S62" s="77">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="P62" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="73">
+        <v>1</v>
+      </c>
+      <c r="R62" s="75">
+        <v>1</v>
+      </c>
+      <c r="S62" s="75">
+        <v>1</v>
       </c>
       <c r="U62" s="67">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f>SUM(R62:T62)</f>
+        <v>2</v>
       </c>
       <c r="V62" s="31"/>
+      <c r="Z62" s="6"/>
       <c r="AA62" s="31"/>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B63" s="22" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="C63" s="29" t="s">
         <v>204</v>
       </c>
       <c r="D63" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E63" s="13">
         <v>0</v>
       </c>
       <c r="F63" s="13">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f>CEILING(D63,W$22+1)</f>
+        <v>4</v>
       </c>
       <c r="J63" s="13">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K63" s="21" t="s">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="L63" s="32">
         <v>1</v>
       </c>
-      <c r="M63" s="32">
+      <c r="N63" s="75">
         <v>0.5</v>
       </c>
-      <c r="O63" s="75">
+      <c r="P63" s="77">
         <v>0.5</v>
       </c>
-      <c r="P63" s="75">
-        <v>1</v>
-      </c>
-      <c r="S63" s="77">
-        <v>1</v>
-      </c>
+      <c r="Q63" s="31"/>
       <c r="U63" s="67">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(R63:T63)</f>
+        <v>0</v>
       </c>
       <c r="V63" s="31"/>
       <c r="AA63" s="31"/>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B64" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D64" s="13">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E64" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F64" s="13">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="G64" s="13">
-        <v>10</v>
-      </c>
-      <c r="K64" s="21"/>
-      <c r="L64" s="32"/>
-      <c r="M64" s="31"/>
-      <c r="Q64" s="75">
-        <v>1</v>
-      </c>
-      <c r="S64" s="77">
-        <v>0</v>
+        <f>CEILING(D64,W$22+1)</f>
+        <v>6</v>
+      </c>
+      <c r="J64" s="13">
+        <v>37</v>
+      </c>
+      <c r="K64" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="L64" s="32">
+        <v>1</v>
+      </c>
+      <c r="N64" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="O64" s="75">
+        <v>1</v>
+      </c>
+      <c r="P64" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="32">
+        <v>0.5</v>
       </c>
       <c r="U64" s="67">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(R64:T64)</f>
+        <v>0</v>
       </c>
       <c r="V64" s="31"/>
       <c r="AA64" s="31"/>
-      <c r="AB64" s="6"/>
-      <c r="AC64" s="6"/>
-      <c r="AD64" s="6"/>
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B65" s="22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D65" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E65" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" s="13">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <f>CEILING(D65,W$22+1)</f>
+        <v>10</v>
       </c>
       <c r="G65" s="13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K65" s="21"/>
       <c r="L65" s="32"/>
-      <c r="M65" s="31"/>
-      <c r="O65" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="75">
-        <v>1</v>
-      </c>
-      <c r="S65" s="77"/>
+      <c r="P65" s="77">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="31"/>
+      <c r="R65" s="75">
+        <v>1</v>
+      </c>
       <c r="U65" s="67">
-        <f t="shared" si="1"/>
+        <f>SUM(R65:T65)</f>
         <v>1</v>
       </c>
       <c r="V65" s="31"/>
-      <c r="Z65" s="6"/>
       <c r="AA65" s="31"/>
+      <c r="AB65" s="6"/>
+      <c r="AC65" s="6"/>
+      <c r="AD65" s="6"/>
     </row>
     <row r="66" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B66" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="D66" s="13">
+        <v>7</v>
+      </c>
+      <c r="E66" s="13">
+        <v>1</v>
+      </c>
+      <c r="F66" s="13">
+        <f>CEILING(D66,W$22+1)</f>
+        <v>8</v>
+      </c>
+      <c r="G66" s="13">
+        <v>11</v>
+      </c>
+      <c r="K66" s="21"/>
+      <c r="L66" s="32"/>
+      <c r="N66" s="75">
+        <v>0</v>
+      </c>
+      <c r="P66" s="77"/>
+      <c r="Q66" s="31"/>
+      <c r="R66" s="75">
+        <v>1</v>
+      </c>
+      <c r="U66" s="67">
+        <f>SUM(R66:T66)</f>
+        <v>1</v>
+      </c>
+      <c r="V66" s="31"/>
+      <c r="Z66" s="6"/>
+      <c r="AA66" s="31"/>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B67" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="D67" s="13">
+        <v>5</v>
+      </c>
+      <c r="E67" s="13">
+        <v>0</v>
+      </c>
+      <c r="F67" s="13">
+        <f>CEILING(D67,W$22+1)</f>
+        <v>6</v>
+      </c>
+      <c r="J67" s="13">
+        <v>38</v>
+      </c>
+      <c r="K67" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="L67" s="32">
+        <v>1</v>
+      </c>
+      <c r="N67" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="O67" s="75">
+        <v>1</v>
+      </c>
+      <c r="P67" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="32"/>
+      <c r="T67" s="78"/>
+      <c r="U67" s="81">
+        <f>SUM(R67:T67)</f>
+        <v>0</v>
+      </c>
+      <c r="V67" s="31"/>
+      <c r="AA67" s="31"/>
+    </row>
+    <row r="68" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="C66" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="D66" s="13">
-        <v>5</v>
-      </c>
-      <c r="E66" s="13">
-        <v>0</v>
-      </c>
-      <c r="F66" s="13">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="J66" s="13">
-        <v>38</v>
-      </c>
-      <c r="K66" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="L66" s="32">
-        <v>1</v>
-      </c>
-      <c r="M66" s="32"/>
-      <c r="O66" s="75">
+      <c r="C68" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="D68" s="12">
+        <v>3</v>
+      </c>
+      <c r="E68" s="12">
+        <v>0</v>
+      </c>
+      <c r="F68" s="12">
+        <f>CEILING(D68,W$22+1)</f>
+        <v>4</v>
+      </c>
+      <c r="G68" s="12">
+        <v>45</v>
+      </c>
+      <c r="H68" s="12">
+        <v>27</v>
+      </c>
+      <c r="I68" s="12">
+        <v>36</v>
+      </c>
+      <c r="J68" s="12">
+        <v>29</v>
+      </c>
+      <c r="K68" s="20"/>
+      <c r="L68" s="33"/>
+      <c r="M68" s="76"/>
+      <c r="N68" s="76">
         <v>0.5</v>
       </c>
-      <c r="P66" s="75">
-        <v>1</v>
-      </c>
-      <c r="S66" s="77">
-        <v>1</v>
-      </c>
-      <c r="T66" s="78"/>
-      <c r="U66" s="81">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V66" s="31"/>
-      <c r="AA66" s="31"/>
-    </row>
-    <row r="67" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B67" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="C67" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="D67" s="12">
-        <v>3</v>
-      </c>
-      <c r="E67" s="12">
-        <v>0</v>
-      </c>
-      <c r="F67" s="12">
-        <f t="shared" ref="F67:F83" si="4">CEILING(D67,W$22+1)</f>
-        <v>4</v>
-      </c>
-      <c r="G67" s="12">
-        <v>45</v>
-      </c>
-      <c r="H67" s="12">
-        <v>27</v>
-      </c>
-      <c r="I67" s="12">
-        <v>36</v>
-      </c>
-      <c r="J67" s="12">
-        <v>29</v>
-      </c>
-      <c r="K67" s="20"/>
-      <c r="L67" s="33"/>
-      <c r="M67" s="33"/>
-      <c r="N67" s="76"/>
-      <c r="O67" s="76">
+      <c r="O68" s="76">
+        <v>1</v>
+      </c>
+      <c r="P68" s="76">
         <v>0.5</v>
       </c>
-      <c r="P67" s="76">
-        <v>1</v>
-      </c>
-      <c r="Q67" s="76">
-        <v>1</v>
-      </c>
-      <c r="R67" s="76">
-        <v>1</v>
-      </c>
-      <c r="S67" s="76">
-        <v>0.5</v>
-      </c>
-      <c r="T67" s="77"/>
-      <c r="U67" s="67">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="V67" s="31"/>
-      <c r="W67" s="3"/>
-      <c r="X67"/>
-      <c r="Y67"/>
-      <c r="Z67"/>
-      <c r="AA67" s="31"/>
-      <c r="AB67"/>
-      <c r="AC67"/>
-      <c r="AD67"/>
-    </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="B68" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C68" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="D68" s="13">
-        <v>7</v>
-      </c>
-      <c r="E68" s="13">
+      <c r="Q68" s="33"/>
+      <c r="R68" s="76">
+        <v>1</v>
+      </c>
+      <c r="S68" s="76">
+        <v>1</v>
+      </c>
+      <c r="T68" s="77"/>
+      <c r="U68" s="67">
+        <f>SUM(R68:T68)</f>
         <v>2</v>
       </c>
-      <c r="F68" s="13">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="G68" s="13">
-        <v>46</v>
-      </c>
-      <c r="K68" s="21"/>
-      <c r="L68" s="32"/>
-      <c r="M68" s="31"/>
-      <c r="Q68" s="75">
-        <v>1</v>
-      </c>
-      <c r="S68" s="77"/>
-      <c r="U68" s="67">
-        <f t="shared" ref="U68:U83" si="5">SUM(Q68:T68)</f>
-        <v>1</v>
-      </c>
       <c r="V68" s="31"/>
+      <c r="W68" s="3"/>
+      <c r="X68"/>
+      <c r="Y68"/>
+      <c r="Z68"/>
+      <c r="AA68" s="31"/>
+      <c r="AB68"/>
+      <c r="AC68"/>
+      <c r="AD68"/>
     </row>
     <row r="69" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B69" s="22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" s="13">
         <v>7</v>
@@ -6800,326 +6740,319 @@
         <v>2</v>
       </c>
       <c r="F69" s="13">
-        <f t="shared" si="4"/>
+        <f>CEILING(D69,W$22+1)</f>
         <v>8</v>
       </c>
       <c r="G69" s="13">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K69" s="21"/>
       <c r="L69" s="32"/>
-      <c r="M69" s="31"/>
-      <c r="S69" s="77"/>
+      <c r="P69" s="77"/>
+      <c r="Q69" s="31"/>
+      <c r="R69" s="75">
+        <v>1</v>
+      </c>
       <c r="U69" s="67">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>SUM(R69:T69)</f>
+        <v>1</v>
       </c>
       <c r="V69" s="31"/>
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A70" s="46"/>
-      <c r="B70" s="23" t="s">
+      <c r="B70" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="D70" s="13">
+        <v>7</v>
+      </c>
+      <c r="E70" s="13">
+        <v>2</v>
+      </c>
+      <c r="F70" s="13">
+        <f>CEILING(D70,W$22+1)</f>
+        <v>8</v>
+      </c>
+      <c r="G70" s="13">
+        <v>47</v>
+      </c>
+      <c r="K70" s="21"/>
+      <c r="L70" s="32"/>
+      <c r="P70" s="77"/>
+      <c r="Q70" s="31"/>
+      <c r="U70" s="67">
+        <f>SUM(R70:T70)</f>
+        <v>0</v>
+      </c>
+      <c r="V70" s="31"/>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A71" s="46"/>
+      <c r="B71" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="D71" s="26">
+        <v>10</v>
+      </c>
+      <c r="E71" s="26">
+        <v>0</v>
+      </c>
+      <c r="F71" s="26">
+        <f>CEILING(D71,W$22+1)</f>
+        <v>10</v>
+      </c>
+      <c r="G71" s="26">
+        <v>34</v>
+      </c>
+      <c r="H71" s="26"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="35"/>
+      <c r="M71" s="78"/>
+      <c r="N71" s="78"/>
+      <c r="O71" s="78">
+        <v>1</v>
+      </c>
+      <c r="P71" s="78"/>
+      <c r="Q71" s="35"/>
+      <c r="R71" s="78">
+        <v>1</v>
+      </c>
+      <c r="S71" s="78"/>
+      <c r="T71" s="78"/>
+      <c r="U71" s="81">
+        <f>SUM(R71:T71)</f>
+        <v>1</v>
+      </c>
+      <c r="V71" s="31"/>
+      <c r="X71" s="31"/>
+      <c r="Z71" s="6"/>
+    </row>
+    <row r="72" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C70" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="D70" s="26">
-        <v>10</v>
-      </c>
-      <c r="E70" s="26">
-        <v>0</v>
-      </c>
-      <c r="F70" s="26">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="G70" s="26">
-        <v>34</v>
-      </c>
-      <c r="H70" s="26"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="27"/>
-      <c r="L70" s="35"/>
-      <c r="M70" s="35"/>
-      <c r="N70" s="78"/>
-      <c r="O70" s="78"/>
-      <c r="P70" s="78">
-        <v>1</v>
-      </c>
-      <c r="Q70" s="78">
-        <v>1</v>
-      </c>
-      <c r="R70" s="78"/>
-      <c r="S70" s="78"/>
-      <c r="T70" s="78"/>
-      <c r="U70" s="81">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="V70" s="31"/>
-      <c r="X70" s="31"/>
-      <c r="Z70" s="6"/>
-    </row>
-    <row r="71" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B71" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="C71" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="D71" s="13">
+      <c r="C72" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="D72" s="13">
         <v>4</v>
       </c>
-      <c r="E71" s="13">
-        <v>0</v>
-      </c>
-      <c r="F71" s="13">
-        <f t="shared" si="4"/>
+      <c r="E72" s="13">
+        <v>0</v>
+      </c>
+      <c r="F72" s="13">
+        <f>CEILING(D72,W$22+1)</f>
         <v>4</v>
       </c>
-      <c r="G71" s="13">
+      <c r="G72" s="13">
         <v>48</v>
       </c>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
-      <c r="J71" s="13"/>
-      <c r="K71" s="21"/>
-      <c r="L71" s="32"/>
-      <c r="M71" s="31"/>
-      <c r="N71" s="75"/>
-      <c r="O71" s="75"/>
-      <c r="P71" s="75"/>
-      <c r="Q71" s="75"/>
-      <c r="R71" s="75"/>
-      <c r="S71" s="77"/>
-      <c r="T71" s="75"/>
-      <c r="U71" s="67">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V71" s="31"/>
-      <c r="W71" s="3"/>
-      <c r="X71"/>
-      <c r="Y71"/>
-      <c r="Z71"/>
-      <c r="AA71"/>
-      <c r="AB71"/>
-      <c r="AC71"/>
-      <c r="AD71"/>
-    </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="B72" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="C72" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="D72" s="13">
-        <v>3</v>
-      </c>
-      <c r="E72" s="13">
-        <v>0</v>
-      </c>
-      <c r="F72" s="13">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="G72" s="13">
-        <v>49</v>
-      </c>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
       <c r="K72" s="21"/>
       <c r="L72" s="32"/>
-      <c r="M72" s="32"/>
-      <c r="S72" s="77"/>
+      <c r="M72" s="75"/>
+      <c r="N72" s="75"/>
+      <c r="O72" s="75"/>
+      <c r="P72" s="77"/>
+      <c r="Q72" s="31"/>
+      <c r="R72" s="75"/>
+      <c r="S72" s="75"/>
+      <c r="T72" s="75"/>
       <c r="U72" s="67">
-        <f t="shared" si="5"/>
+        <f>SUM(R72:T72)</f>
         <v>0</v>
       </c>
       <c r="V72" s="31"/>
-      <c r="AA72" s="6"/>
-      <c r="AB72" s="6"/>
-      <c r="AC72" s="6"/>
-      <c r="AD72" s="6"/>
-    </row>
-    <row r="73" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="10"/>
+      <c r="W72" s="3"/>
+      <c r="X72"/>
+      <c r="Y72"/>
+      <c r="Z72"/>
+      <c r="AA72"/>
+      <c r="AB72"/>
+      <c r="AC72"/>
+      <c r="AD72"/>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B73" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="D73" s="13">
+        <v>3</v>
+      </c>
+      <c r="E73" s="13">
+        <v>0</v>
+      </c>
+      <c r="F73" s="13">
+        <f>CEILING(D73,W$22+1)</f>
+        <v>4</v>
+      </c>
+      <c r="G73" s="13">
+        <v>49</v>
+      </c>
+      <c r="K73" s="21"/>
+      <c r="L73" s="32"/>
+      <c r="P73" s="77"/>
+      <c r="Q73" s="32"/>
+      <c r="U73" s="67">
+        <f>SUM(R73:T73)</f>
+        <v>0</v>
+      </c>
+      <c r="V73" s="31"/>
+      <c r="AA73" s="6"/>
+      <c r="AB73" s="6"/>
+      <c r="AC73" s="6"/>
+      <c r="AD73" s="6"/>
+    </row>
+    <row r="74" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="10"/>
+      <c r="B74" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="D74" s="13">
+        <v>4</v>
+      </c>
+      <c r="E74" s="13">
+        <v>0</v>
+      </c>
+      <c r="F74" s="13">
+        <f>CEILING(D74,W$22+1)</f>
+        <v>4</v>
+      </c>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="C73" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="D73" s="13">
-        <v>4</v>
-      </c>
-      <c r="E73" s="13">
-        <v>0</v>
-      </c>
-      <c r="F73" s="13">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="L73" s="75"/>
-      <c r="M73" s="75"/>
-      <c r="N73" s="75"/>
-      <c r="O73" s="75"/>
-      <c r="P73" s="75"/>
-      <c r="Q73" s="75"/>
-      <c r="R73" s="75"/>
-      <c r="S73" s="77"/>
-      <c r="T73" s="78"/>
-      <c r="U73" s="81">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W73" s="3"/>
-      <c r="X73"/>
-      <c r="Y73"/>
-      <c r="Z73"/>
-      <c r="AA73"/>
-      <c r="AB73"/>
-      <c r="AC73"/>
-      <c r="AD73"/>
-    </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A74" s="11" t="s">
+      <c r="L74" s="75"/>
+      <c r="M74" s="75"/>
+      <c r="N74" s="75"/>
+      <c r="O74" s="75"/>
+      <c r="P74" s="77"/>
+      <c r="Q74" s="75"/>
+      <c r="R74" s="75"/>
+      <c r="S74" s="75"/>
+      <c r="T74" s="78"/>
+      <c r="U74" s="81">
+        <f>SUM(R74:T74)</f>
+        <v>0</v>
+      </c>
+      <c r="W74" s="3"/>
+      <c r="X74"/>
+      <c r="Y74"/>
+      <c r="Z74"/>
+      <c r="AA74"/>
+      <c r="AB74"/>
+      <c r="AC74"/>
+      <c r="AD74"/>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A75" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B74" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="C74" s="25"/>
-      <c r="D74" s="12">
+      <c r="B75" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C75" s="25"/>
+      <c r="D75" s="12">
         <v>2</v>
       </c>
-      <c r="E74" s="12">
-        <v>0</v>
-      </c>
-      <c r="F74" s="12">
-        <f t="shared" si="4"/>
+      <c r="E75" s="12">
+        <v>0</v>
+      </c>
+      <c r="F75" s="12">
+        <f>CEILING(D75,W$22+1)</f>
         <v>2</v>
       </c>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="20"/>
-      <c r="L74" s="33">
-        <v>1</v>
-      </c>
-      <c r="M74" s="33">
-        <v>1</v>
-      </c>
-      <c r="N74" s="76">
-        <v>1</v>
-      </c>
-      <c r="O74" s="76">
-        <v>1</v>
-      </c>
-      <c r="P74" s="76">
-        <v>1</v>
-      </c>
-      <c r="Q74" s="76"/>
-      <c r="R74" s="76"/>
-      <c r="S74" s="76">
-        <v>0</v>
-      </c>
-      <c r="T74" s="77"/>
-      <c r="U74" s="67">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V74" s="31"/>
-    </row>
-    <row r="75" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="28"/>
-      <c r="B75" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C75" s="29"/>
-      <c r="D75" s="13">
-        <v>2</v>
-      </c>
-      <c r="E75" s="13">
-        <v>1</v>
-      </c>
-      <c r="F75" s="13">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
-      <c r="J75" s="13"/>
-      <c r="K75" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="L75" s="34"/>
-      <c r="M75" s="34">
-        <v>1</v>
-      </c>
-      <c r="N75" s="77">
-        <v>1</v>
-      </c>
-      <c r="O75" s="77">
-        <v>1</v>
-      </c>
-      <c r="P75" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q75" s="77">
-        <v>1</v>
-      </c>
-      <c r="R75" s="77">
-        <v>1</v>
-      </c>
-      <c r="S75" s="77">
-        <v>1</v>
-      </c>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="20"/>
+      <c r="L75" s="33">
+        <v>1</v>
+      </c>
+      <c r="M75" s="76">
+        <v>1</v>
+      </c>
+      <c r="N75" s="76">
+        <v>1</v>
+      </c>
+      <c r="O75" s="76">
+        <v>1</v>
+      </c>
+      <c r="P75" s="76">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="33">
+        <v>1</v>
+      </c>
+      <c r="R75" s="76"/>
+      <c r="S75" s="76"/>
       <c r="T75" s="77"/>
       <c r="U75" s="67">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="W75" s="3"/>
-    </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
+        <f>SUM(R75:T75)</f>
+        <v>0</v>
+      </c>
+      <c r="V75" s="31"/>
+    </row>
+    <row r="76" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="28"/>
       <c r="B76" s="29" t="s">
-        <v>213</v>
+        <v>99</v>
       </c>
       <c r="C76" s="29"/>
       <c r="D76" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E76" s="13">
         <v>1</v>
       </c>
       <c r="F76" s="13">
-        <f t="shared" si="4"/>
+        <f>CEILING(D76,W$22+1)</f>
         <v>2</v>
       </c>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
       <c r="K76" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="L76" s="77"/>
-      <c r="M76" s="77"/>
-      <c r="N76" s="77"/>
-      <c r="O76" s="77"/>
-      <c r="P76" s="77"/>
-      <c r="Q76" s="77">
+        <v>205</v>
+      </c>
+      <c r="L76" s="34"/>
+      <c r="M76" s="77">
+        <v>1</v>
+      </c>
+      <c r="N76" s="77">
+        <v>1</v>
+      </c>
+      <c r="O76" s="77">
+        <v>1</v>
+      </c>
+      <c r="P76" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="34">
         <v>1</v>
       </c>
       <c r="R76" s="77">
@@ -7128,337 +7061,350 @@
       <c r="S76" s="77">
         <v>1</v>
       </c>
-      <c r="T76" s="77">
+      <c r="T76" s="77"/>
+      <c r="U76" s="67">
+        <f>SUM(R76:T76)</f>
         <v>2</v>
       </c>
-      <c r="U76" s="67">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="V76" s="31"/>
-      <c r="X76" s="31"/>
-      <c r="Y76" s="31"/>
-      <c r="Z76" s="31"/>
-    </row>
-    <row r="77" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="10"/>
-      <c r="B77" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="C77" s="22"/>
+      <c r="W76" s="3"/>
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A77" s="28"/>
+      <c r="B77" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="C77" s="29"/>
       <c r="D77" s="13">
+        <v>1</v>
+      </c>
+      <c r="E77" s="13">
+        <v>1</v>
+      </c>
+      <c r="F77" s="13">
+        <f>CEILING(D77,W$22+1)</f>
+        <v>2</v>
+      </c>
+      <c r="K77" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="L77" s="77"/>
+      <c r="M77" s="77"/>
+      <c r="N77" s="77"/>
+      <c r="O77" s="77"/>
+      <c r="P77" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="77"/>
+      <c r="R77" s="77">
+        <v>1</v>
+      </c>
+      <c r="S77" s="77">
+        <v>1</v>
+      </c>
+      <c r="T77" s="77">
+        <v>2</v>
+      </c>
+      <c r="U77" s="67">
+        <f>SUM(R77:T77)</f>
         <v>4</v>
       </c>
-      <c r="E77" s="13">
-        <v>3</v>
-      </c>
-      <c r="F77" s="13">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="21"/>
-      <c r="L77" s="32">
-        <v>1</v>
-      </c>
-      <c r="M77" s="73">
-        <v>1</v>
-      </c>
-      <c r="N77" s="75">
-        <v>1</v>
-      </c>
-      <c r="O77" s="75">
-        <v>1</v>
-      </c>
-      <c r="P77" s="75"/>
-      <c r="Q77" s="75">
-        <v>1</v>
-      </c>
-      <c r="R77" s="75">
-        <v>1</v>
-      </c>
-      <c r="S77" s="77">
-        <v>1</v>
-      </c>
-      <c r="T77" s="75"/>
-      <c r="U77" s="67">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="V77" s="14"/>
-      <c r="W77" s="3"/>
-      <c r="X77"/>
+      <c r="V77" s="31"/>
+      <c r="X77" s="31"/>
       <c r="Y77" s="31"/>
-      <c r="Z77"/>
-      <c r="AA77" s="31"/>
-      <c r="AB77" s="31"/>
-      <c r="AC77" s="31"/>
-      <c r="AD77" s="31"/>
+      <c r="Z77" s="31"/>
     </row>
     <row r="78" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10"/>
       <c r="B78" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C78" s="22"/>
       <c r="D78" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E78" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F78" s="13">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>CEILING(D78,W$22+1)</f>
+        <v>4</v>
       </c>
       <c r="G78" s="13"/>
       <c r="H78" s="13"/>
       <c r="I78" s="13"/>
       <c r="J78" s="13"/>
-      <c r="K78" s="21" t="s">
-        <v>109</v>
-      </c>
+      <c r="K78" s="21"/>
       <c r="L78" s="32">
         <v>1</v>
       </c>
-      <c r="M78" s="73">
+      <c r="M78" s="75">
         <v>1</v>
       </c>
       <c r="N78" s="75">
         <v>1</v>
       </c>
-      <c r="O78" s="75">
-        <v>1</v>
-      </c>
-      <c r="P78" s="75">
-        <v>1</v>
-      </c>
-      <c r="Q78" s="75">
-        <v>1</v>
-      </c>
-      <c r="R78" s="75"/>
-      <c r="S78" s="77">
+      <c r="O78" s="75"/>
+      <c r="P78" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="73">
+        <v>1</v>
+      </c>
+      <c r="R78" s="75">
+        <v>1</v>
+      </c>
+      <c r="S78" s="75">
         <v>1</v>
       </c>
       <c r="T78" s="75"/>
       <c r="U78" s="67">
-        <f t="shared" si="5"/>
+        <f>SUM(R78:T78)</f>
         <v>2</v>
       </c>
       <c r="V78" s="14"/>
       <c r="W78" s="3"/>
-      <c r="X78" s="31"/>
+      <c r="X78"/>
       <c r="Y78" s="31"/>
-      <c r="Z78" s="31"/>
+      <c r="Z78"/>
       <c r="AA78" s="31"/>
       <c r="AB78" s="31"/>
       <c r="AC78" s="31"/>
       <c r="AD78" s="31"/>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="10"/>
       <c r="B79" s="22" t="s">
-        <v>238</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C79" s="22"/>
       <c r="D79" s="13">
         <v>1</v>
       </c>
       <c r="E79" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" s="13">
-        <f t="shared" si="4"/>
+        <f>CEILING(D79,W$22+1)</f>
         <v>2</v>
       </c>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
       <c r="K79" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="L79" s="75"/>
-      <c r="M79" s="73"/>
-      <c r="Q79" s="75">
-        <v>1</v>
-      </c>
-      <c r="S79" s="77">
-        <v>1</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="L79" s="32">
+        <v>1</v>
+      </c>
+      <c r="M79" s="75">
+        <v>1</v>
+      </c>
+      <c r="N79" s="75">
+        <v>1</v>
+      </c>
+      <c r="O79" s="75">
+        <v>1</v>
+      </c>
+      <c r="P79" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="73">
+        <v>1</v>
+      </c>
+      <c r="R79" s="75">
+        <v>1</v>
+      </c>
+      <c r="S79" s="75"/>
+      <c r="T79" s="75"/>
       <c r="U79" s="67">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f>SUM(R79:T79)</f>
+        <v>1</v>
       </c>
       <c r="V79" s="14"/>
+      <c r="W79" s="3"/>
+      <c r="X79" s="31"/>
+      <c r="Y79" s="31"/>
+      <c r="Z79" s="31"/>
+      <c r="AA79" s="31"/>
+      <c r="AB79" s="31"/>
+      <c r="AC79" s="31"/>
+      <c r="AD79" s="31"/>
     </row>
     <row r="80" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B80" s="22" t="s">
-        <v>153</v>
+        <v>232</v>
       </c>
       <c r="D80" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E80" s="13">
         <v>1</v>
       </c>
       <c r="F80" s="13">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="K80" s="21"/>
+        <f>CEILING(D80,W$22+1)</f>
+        <v>2</v>
+      </c>
+      <c r="K80" s="21" t="s">
+        <v>233</v>
+      </c>
       <c r="L80" s="75"/>
-      <c r="M80" s="75"/>
-      <c r="S80" s="77"/>
+      <c r="P80" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="73"/>
+      <c r="R80" s="75">
+        <v>1</v>
+      </c>
       <c r="U80" s="67">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>SUM(R80:T80)</f>
+        <v>1</v>
       </c>
       <c r="V80" s="14"/>
-      <c r="AA80" s="6"/>
-      <c r="AB80" s="6"/>
-      <c r="AC80" s="6"/>
-      <c r="AD80" s="6"/>
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B81" s="22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D81" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E81" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" s="13">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>CEILING(D81,W$22+1)</f>
+        <v>4</v>
       </c>
       <c r="K81" s="21"/>
       <c r="L81" s="75"/>
-      <c r="M81" s="75"/>
-      <c r="S81" s="77"/>
+      <c r="P81" s="77"/>
+      <c r="Q81" s="75"/>
       <c r="U81" s="67">
-        <f t="shared" si="5"/>
+        <f>SUM(R81:T81)</f>
         <v>0</v>
       </c>
       <c r="V81" s="14"/>
-    </row>
-    <row r="82" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="10"/>
+      <c r="AA81" s="6"/>
+      <c r="AB81" s="6"/>
+      <c r="AC81" s="6"/>
+      <c r="AD81" s="6"/>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B82" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="C82" s="22"/>
+        <v>153</v>
+      </c>
       <c r="D82" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E82" s="13">
         <v>0</v>
       </c>
       <c r="F82" s="13">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
-      <c r="J82" s="13"/>
+        <f>CEILING(D82,W$22+1)</f>
+        <v>2</v>
+      </c>
       <c r="K82" s="21"/>
       <c r="L82" s="75"/>
-      <c r="M82" s="75"/>
-      <c r="N82" s="75"/>
-      <c r="O82" s="75"/>
-      <c r="P82" s="75"/>
+      <c r="P82" s="77"/>
       <c r="Q82" s="75"/>
-      <c r="R82" s="75"/>
-      <c r="S82" s="77"/>
-      <c r="T82" s="75"/>
       <c r="U82" s="67">
-        <f t="shared" si="5"/>
+        <f>SUM(R82:T82)</f>
         <v>0</v>
       </c>
       <c r="V82" s="14"/>
-      <c r="W82" s="3"/>
-      <c r="X82"/>
-      <c r="Y82"/>
-      <c r="Z82"/>
-      <c r="AA82" s="6"/>
-      <c r="AB82" s="6"/>
-      <c r="AC82" s="6"/>
-      <c r="AD82" s="6"/>
-    </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="B83" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="C83" s="23"/>
-      <c r="D83" s="26">
-        <v>1</v>
-      </c>
-      <c r="E83" s="26">
-        <v>0</v>
-      </c>
-      <c r="F83" s="26">
-        <f t="shared" si="4"/>
+    </row>
+    <row r="83" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="10"/>
+      <c r="B83" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C83" s="22"/>
+      <c r="D83" s="13">
+        <v>4</v>
+      </c>
+      <c r="E83" s="13">
+        <v>0</v>
+      </c>
+      <c r="F83" s="13">
+        <f>CEILING(D83,W$22+1)</f>
+        <v>4</v>
+      </c>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13"/>
+      <c r="K83" s="21"/>
+      <c r="L83" s="75"/>
+      <c r="M83" s="75"/>
+      <c r="N83" s="75"/>
+      <c r="O83" s="75"/>
+      <c r="P83" s="77"/>
+      <c r="Q83" s="75"/>
+      <c r="R83" s="75"/>
+      <c r="S83" s="75"/>
+      <c r="T83" s="75"/>
+      <c r="U83" s="67">
+        <f>SUM(R83:T83)</f>
+        <v>0</v>
+      </c>
+      <c r="V83" s="14"/>
+      <c r="W83" s="3"/>
+      <c r="X83"/>
+      <c r="Y83"/>
+      <c r="Z83"/>
+      <c r="AA83" s="6"/>
+      <c r="AB83" s="6"/>
+      <c r="AC83" s="6"/>
+      <c r="AD83" s="6"/>
+    </row>
+    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B84" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C84" s="23"/>
+      <c r="D84" s="26">
+        <v>1</v>
+      </c>
+      <c r="E84" s="26">
+        <v>0</v>
+      </c>
+      <c r="F84" s="26">
+        <f>CEILING(D84,W$22+1)</f>
         <v>2</v>
       </c>
-      <c r="G83" s="26"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="26"/>
-      <c r="J83" s="26"/>
-      <c r="K83" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="L83" s="35"/>
-      <c r="M83" s="35">
-        <v>1</v>
-      </c>
-      <c r="N83" s="78"/>
-      <c r="O83" s="78">
-        <v>1</v>
-      </c>
-      <c r="P83" s="78">
-        <v>1</v>
-      </c>
-      <c r="Q83" s="78"/>
-      <c r="R83" s="78"/>
-      <c r="S83" s="78"/>
-      <c r="T83" s="78"/>
-      <c r="U83" s="81">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="11"/>
-      <c r="X84" s="31"/>
-      <c r="Y84" s="31"/>
-      <c r="Z84" s="31"/>
-      <c r="AA84" s="6"/>
-      <c r="AB84" s="6"/>
-      <c r="AC84" s="6"/>
-      <c r="AD84" s="6"/>
-    </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="K85" s="82"/>
-      <c r="L85" s="63"/>
-      <c r="M85" s="63"/>
-      <c r="N85" s="63"/>
-      <c r="O85" s="63"/>
-      <c r="P85" s="60" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q85" s="61">
-        <f t="array" ref="Q85">SUM($F2:$F83*(Q2:Q83&gt;=0.9)*($U2:$U83&gt;=$W$12))</f>
-        <v>168</v>
-      </c>
-      <c r="R85" s="61">
-        <f t="array" ref="R85">SUM($F2:$F83*(R2:R83&gt;=0.9)*($U2:$U83&gt;=$W$12))</f>
-        <v>152</v>
-      </c>
-      <c r="S85" s="61">
-        <f t="array" ref="S85">SUM($F2:$F83*(S2:S83&gt;=0.9)*($U2:$U83&gt;=$W$12))</f>
-        <v>170</v>
-      </c>
-      <c r="T85" s="63"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="26"/>
+      <c r="J84" s="26"/>
+      <c r="K84" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="L84" s="35"/>
+      <c r="M84" s="78"/>
+      <c r="N84" s="78">
+        <v>1</v>
+      </c>
+      <c r="O84" s="78">
+        <v>1</v>
+      </c>
+      <c r="P84" s="78"/>
+      <c r="Q84" s="35">
+        <v>1</v>
+      </c>
+      <c r="R84" s="78"/>
+      <c r="S84" s="78"/>
+      <c r="T84" s="78"/>
+      <c r="U84" s="81">
+        <f>SUM(R84:T84)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="11"/>
+      <c r="X85" s="31"/>
+      <c r="Y85" s="31"/>
+      <c r="Z85" s="31"/>
       <c r="AA85" s="6"/>
       <c r="AB85" s="6"/>
       <c r="AC85" s="6"/>
@@ -7469,44 +7415,48 @@
       <c r="L86" s="63"/>
       <c r="M86" s="63"/>
       <c r="N86" s="63"/>
-      <c r="O86" s="63"/>
-      <c r="P86" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q86" s="63">
-        <f t="array" ref="Q86">SUM($F2:$F83*Q2:Q83*($U2:$U83&gt;=$W$12))</f>
-        <v>170</v>
-      </c>
-      <c r="R86" s="63">
-        <f t="array" ref="R86">SUM($F2:$F83*R2:R83*($U2:$U83&gt;=$W$12))</f>
-        <v>152.4</v>
-      </c>
-      <c r="S86" s="63">
-        <f t="array" ref="S86">SUM($F2:$F83*S2:S83*($U2:$U83&gt;=$W$12))</f>
-        <v>173.39999999999998</v>
+      <c r="O86" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="P86" s="61"/>
+      <c r="Q86" s="61">
+        <f t="array" ref="Q86">SUM($F2:$F84*(Q2:Q84&gt;=0.9)*($U2:$U84&gt;=$W$12))</f>
+        <v>126</v>
+      </c>
+      <c r="R86" s="61">
+        <f t="array" ref="R86">SUM($F2:$F84*(R2:R84&gt;=0.9)*($U2:$U84&gt;=$W$12))</f>
+        <v>168</v>
+      </c>
+      <c r="S86" s="61">
+        <f t="array" ref="S86">SUM($F2:$F84*(S2:S84&gt;=0.9)*($U2:$U84&gt;=$W$12))</f>
+        <v>152</v>
       </c>
       <c r="T86" s="63"/>
+      <c r="AA86" s="6"/>
+      <c r="AB86" s="6"/>
+      <c r="AC86" s="6"/>
+      <c r="AD86" s="6"/>
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.3">
       <c r="K87" s="82"/>
       <c r="L87" s="63"/>
       <c r="M87" s="63"/>
       <c r="N87" s="63"/>
-      <c r="O87" s="63"/>
-      <c r="P87" s="62" t="s">
+      <c r="O87" s="62" t="s">
         <v>163</v>
       </c>
+      <c r="P87" s="63"/>
       <c r="Q87" s="63">
-        <f t="array" ref="Q87">SUM($F$2:$F$83*(Q$2:Q$83&gt;=0.1)*($U$2:$U$83&gt;=$W$12))</f>
-        <v>172</v>
+        <f t="array" ref="Q87">SUM($F2:$F84*Q2:Q84*($U2:$U84&gt;=$W$12))</f>
+        <v>128</v>
       </c>
       <c r="R87" s="63">
-        <f t="array" ref="R87">SUM($F$2:$F$83*(R$2:R$83&gt;=0.1)*($U$2:$U$83&gt;=$W$12))</f>
-        <v>156</v>
+        <f t="array" ref="R87">SUM($F2:$F84*R2:R84*($U2:$U84&gt;=$W$12))</f>
+        <v>170</v>
       </c>
       <c r="S87" s="63">
-        <f t="array" ref="S87">SUM($F$2:$F$83*(S$2:S$83&gt;=0.1)*($U$2:$U$83&gt;=$W$12))</f>
-        <v>188</v>
+        <f t="array" ref="S87">SUM($F2:$F84*S2:S84*($U2:$U84&gt;=$W$12))</f>
+        <v>152.4</v>
       </c>
       <c r="T87" s="63"/>
     </row>
@@ -7515,170 +7465,165 @@
       <c r="L88" s="63"/>
       <c r="M88" s="63"/>
       <c r="N88" s="63"/>
-      <c r="O88" s="63"/>
-      <c r="P88" s="62" t="s">
-        <v>165</v>
-      </c>
+      <c r="O88" s="62" t="s">
+        <v>162</v>
+      </c>
+      <c r="P88" s="63"/>
       <c r="Q88" s="63">
-        <f>LOOKUP($W$12,$W26:$W34,$X26:$X34)</f>
-        <v>268</v>
+        <f t="array" ref="Q88">SUM($F$2:$F$84*(Q$2:Q$84&gt;=0.1)*($U$2:$U$84&gt;=$W$12))</f>
+        <v>130</v>
       </c>
       <c r="R88" s="63">
-        <f>LOOKUP($W$12,$W26:$W34,$X26:$X34)</f>
-        <v>268</v>
+        <f t="array" ref="R88">SUM($F$2:$F$84*(R$2:R$84&gt;=0.1)*($U$2:$U$84&gt;=$W$12))</f>
+        <v>172</v>
       </c>
       <c r="S88" s="63">
-        <f>LOOKUP($W$12,$W26:$W34,$X26:$X34)</f>
-        <v>268</v>
+        <f t="array" ref="S88">SUM($F$2:$F$84*(S$2:S$84&gt;=0.1)*($U$2:$U$84&gt;=$W$12))</f>
+        <v>156</v>
       </c>
       <c r="T88" s="63"/>
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.3">
       <c r="K89" s="82"/>
-      <c r="L89" s="64"/>
-      <c r="M89" s="64"/>
-      <c r="N89" s="64"/>
-      <c r="O89" s="64"/>
-      <c r="P89" s="62" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q89" s="64">
-        <f t="shared" ref="Q89:S89" si="6">Q86/Q88</f>
-        <v>0.63432835820895528</v>
-      </c>
-      <c r="R89" s="64">
-        <f t="shared" si="6"/>
-        <v>0.56865671641791049</v>
-      </c>
-      <c r="S89" s="64">
-        <f t="shared" si="6"/>
-        <v>0.64701492537313421</v>
-      </c>
-      <c r="T89" s="64"/>
-      <c r="Z89" s="31"/>
-    </row>
-    <row r="90" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D90" s="31"/>
+      <c r="L89" s="63"/>
+      <c r="M89" s="63"/>
+      <c r="N89" s="63"/>
+      <c r="O89" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="P89" s="63"/>
+      <c r="Q89" s="63">
+        <f>LOOKUP($W$12,$W26:$W34,$X26:$X34)</f>
+        <v>222</v>
+      </c>
+      <c r="R89" s="63">
+        <f>LOOKUP($W$12,$W26:$W34,$X26:$X34)</f>
+        <v>222</v>
+      </c>
+      <c r="S89" s="63">
+        <f>LOOKUP($W$12,$W26:$W34,$X26:$X34)</f>
+        <v>222</v>
+      </c>
+      <c r="T89" s="63"/>
+    </row>
+    <row r="90" spans="1:30" x14ac:dyDescent="0.3">
       <c r="K90" s="82"/>
-      <c r="L90" s="63"/>
-      <c r="M90" s="63"/>
-      <c r="N90" s="63"/>
-      <c r="O90" s="63"/>
-      <c r="P90" s="65" t="s">
+      <c r="L90" s="64"/>
+      <c r="M90" s="64"/>
+      <c r="N90" s="64"/>
+      <c r="O90" s="62" t="s">
+        <v>165</v>
+      </c>
+      <c r="P90" s="64"/>
+      <c r="Q90" s="64">
+        <f>Q87/Q89</f>
+        <v>0.57657657657657657</v>
+      </c>
+      <c r="R90" s="64">
+        <f t="shared" ref="R90:S90" si="1">R87/R89</f>
+        <v>0.76576576576576572</v>
+      </c>
+      <c r="S90" s="64">
+        <f t="shared" si="1"/>
+        <v>0.68648648648648647</v>
+      </c>
+      <c r="T90" s="64"/>
+      <c r="Z90" s="31"/>
+    </row>
+    <row r="91" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D91" s="31"/>
+      <c r="K91" s="82"/>
+      <c r="L91" s="63"/>
+      <c r="M91" s="63"/>
+      <c r="N91" s="63"/>
+      <c r="O91" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="Q90" s="66">
-        <f t="array" ref="Q90">SUM($F2:$F83*Q2:Q83*($U2:$U83&lt;$W$12))</f>
+      <c r="P91" s="66"/>
+      <c r="Q91" s="66">
+        <f t="array" ref="Q91">SUM($F2:$F84*Q2:Q84*($U2:$U84&lt;$W$12))</f>
+        <v>37</v>
+      </c>
+      <c r="R91" s="66">
+        <f t="array" ref="R91">SUM($F2:$F84*R2:R84*($U2:$U84&lt;$W$12))</f>
         <v>3</v>
       </c>
-      <c r="R90" s="66">
-        <f t="array" ref="R90">SUM($F2:$F83*R2:R83*($U2:$U83&lt;$W$12))</f>
-        <v>0</v>
-      </c>
-      <c r="S90" s="66">
-        <f t="array" ref="S90">SUM($F2:$F83*S2:S83*($U2:$U83&lt;$W$12))</f>
-        <v>7.8000000000000007</v>
-      </c>
-      <c r="T90" s="63"/>
-    </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="D91" s="31"/>
-    </row>
-    <row r="92" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="10"/>
-      <c r="B92" s="22"/>
-      <c r="C92" s="22"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13"/>
-      <c r="I92" s="13"/>
-      <c r="J92" s="13"/>
-      <c r="K92" s="19"/>
-      <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
-      <c r="N92" s="75"/>
-      <c r="O92" s="75"/>
-      <c r="P92" s="75"/>
-      <c r="Q92" s="75"/>
-      <c r="R92" s="75"/>
-      <c r="S92" s="75"/>
-      <c r="T92" s="75"/>
-      <c r="U92" s="3"/>
-      <c r="V92" s="3"/>
-      <c r="W92" s="3"/>
-      <c r="X92"/>
-      <c r="Y92"/>
-      <c r="Z92"/>
-      <c r="AA92"/>
-      <c r="AB92"/>
-      <c r="AC92"/>
-      <c r="AD92"/>
-    </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="D93" s="31"/>
+      <c r="S91" s="66">
+        <f t="array" ref="S91">SUM($F2:$F84*S2:S84*($U2:$U84&lt;$W$12))</f>
+        <v>0</v>
+      </c>
+      <c r="T91" s="63"/>
+    </row>
+    <row r="92" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="D92" s="31"/>
+    </row>
+    <row r="93" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="10"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="13"/>
+      <c r="K93" s="19"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="75"/>
+      <c r="N93" s="75"/>
+      <c r="O93" s="75"/>
+      <c r="P93" s="75"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="75"/>
+      <c r="S93" s="75"/>
+      <c r="T93" s="75"/>
+      <c r="U93" s="3"/>
+      <c r="V93" s="3"/>
+      <c r="W93" s="3"/>
+      <c r="X93"/>
+      <c r="Y93"/>
+      <c r="Z93"/>
+      <c r="AA93"/>
+      <c r="AB93"/>
+      <c r="AC93"/>
+      <c r="AD93"/>
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="N94" s="75" t="s">
-        <v>230</v>
-      </c>
-      <c r="P94" s="75" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q94" s="75" t="s">
-        <v>232</v>
-      </c>
-      <c r="R94" s="75" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="P95" s="75">
-        <f>SUMPRODUCT(R4:R83,Q4:Q83,$F4:$F83)</f>
-        <v>94.4</v>
-      </c>
-      <c r="Q95" s="75">
-        <f>SUMPRODUCT(S4:S83,R4:R83,$F4:$F83)</f>
-        <v>96.800000000000011</v>
-      </c>
-      <c r="R95" s="75">
-        <f>SUMPRODUCT(S4:S83,Q4:Q83,$F4:$F83)</f>
-        <v>85.199999999999989</v>
-      </c>
-    </row>
-    <row r="98" spans="27:30" x14ac:dyDescent="0.3">
-      <c r="AA98" s="6"/>
-      <c r="AB98" s="6"/>
-      <c r="AC98" s="6"/>
-      <c r="AD98" s="6"/>
-    </row>
-    <row r="102" spans="27:30" x14ac:dyDescent="0.3">
-      <c r="AA102" s="6"/>
-      <c r="AB102" s="6"/>
-      <c r="AC102" s="6"/>
-      <c r="AD102" s="6"/>
-    </row>
-    <row r="107" spans="27:30" x14ac:dyDescent="0.3">
-      <c r="AA107" s="6"/>
-      <c r="AB107" s="6"/>
-      <c r="AC107" s="6"/>
-      <c r="AD107" s="6"/>
-    </row>
-    <row r="120" spans="27:30" x14ac:dyDescent="0.3">
-      <c r="AA120" s="31"/>
-      <c r="AB120" s="31"/>
-      <c r="AC120" s="31"/>
-      <c r="AD120" s="31"/>
+      <c r="D94" s="31"/>
+    </row>
+    <row r="99" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AA99" s="6"/>
+      <c r="AB99" s="6"/>
+      <c r="AC99" s="6"/>
+      <c r="AD99" s="6"/>
+    </row>
+    <row r="103" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AA103" s="6"/>
+      <c r="AB103" s="6"/>
+      <c r="AC103" s="6"/>
+      <c r="AD103" s="6"/>
+    </row>
+    <row r="108" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AA108" s="6"/>
+      <c r="AB108" s="6"/>
+      <c r="AC108" s="6"/>
+      <c r="AD108" s="6"/>
+    </row>
+    <row r="121" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AA121" s="31"/>
+      <c r="AB121" s="31"/>
+      <c r="AC121" s="31"/>
+      <c r="AD121" s="31"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:U83">
-    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="B2:U84">
+    <cfRule type="expression" dxfId="2" priority="7" stopIfTrue="1">
       <formula>$U2&gt;=(0.5+$W$12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
       <formula>$U2&gt;=$W$12</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="9">
+    <cfRule type="expression" dxfId="0" priority="9">
       <formula>$U2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/StudentGuideModule2/what_labs_to_include/132 lab list for 2021spring.xlsx
+++ b/StudentGuideModule2/what_labs_to_include/132 lab list for 2021spring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtrawick\Desktop\github\132\StudentGuideModule2\what_labs_to_include\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D0F31E-C682-4224-955E-AD32C4C4C8F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747CCA84-CDAC-4184-B909-705275FD06F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18780" yWindow="5136" windowWidth="26616" windowHeight="15936" tabRatio="541" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -884,7 +884,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P62" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
+    <comment ref="P63" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
       <text>
         <r>
           <rPr>
@@ -909,7 +909,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P65" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
+    <comment ref="P66" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
       <text>
         <r>
           <rPr>
@@ -933,7 +933,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P68" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
+    <comment ref="P69" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
       <text>
         <r>
           <rPr>
@@ -958,7 +958,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P75" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
+    <comment ref="P76" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
       <text>
         <r>
           <rPr>
@@ -987,7 +987,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="242">
   <si>
     <t>1 Music to Our Ears: Standing Waves in Strings 7</t>
   </si>
@@ -1573,9 +1573,6 @@
     <t>Not updated for Capstone</t>
   </si>
   <si>
-    <t>2018 spr Ovidiu</t>
-  </si>
-  <si>
     <t>Using 32-bit applications in Windows</t>
   </si>
   <si>
@@ -1648,9 +1645,6 @@
     <t>Force by Editor</t>
   </si>
   <si>
-    <t>2020 spr Jerry</t>
-  </si>
-  <si>
     <t>2019 fall Christine</t>
   </si>
   <si>
@@ -1676,9 +1670,6 @@
   </si>
   <si>
     <t>Needed for kinetic theory labs?</t>
-  </si>
-  <si>
-    <t>2020 fall Jack</t>
   </si>
   <si>
     <t>2020 fall Matt</t>
@@ -1710,6 +1701,21 @@
   </si>
   <si>
     <t>Heat of Vaporization of Nitrogen [prescriptive version]</t>
+  </si>
+  <si>
+    <t>Kinetic Theory of Ideal Gases, and Equipartition of Energy</t>
+  </si>
+  <si>
+    <t>2021 spr Ovidiu</t>
+  </si>
+  <si>
+    <t>2021 spr Jerry</t>
+  </si>
+  <si>
+    <t>2021 spr Jack</t>
+  </si>
+  <si>
+    <t>no-software version by MT, 2020</t>
   </si>
 </sst>
 </file>
@@ -2913,11 +2919,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD121"/>
+  <dimension ref="A1:AD122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2948,7 +2954,7 @@
         <v>107</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D1" s="48" t="s">
         <v>85</v>
@@ -2957,7 +2963,7 @@
         <v>86</v>
       </c>
       <c r="F1" s="48" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G1" s="48" t="s">
         <v>175</v>
@@ -2978,31 +2984,31 @@
         <v>100</v>
       </c>
       <c r="M1" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="N1" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="N1" s="47" t="s">
-        <v>211</v>
-      </c>
       <c r="O1" s="47" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P1" s="47" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="Q1" s="47" t="s">
-        <v>194</v>
+        <v>238</v>
       </c>
       <c r="R1" s="47" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="S1" s="47" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="T1" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U1" s="50" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="V1" s="30"/>
       <c r="W1" s="31"/>
@@ -3029,7 +3035,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="54">
-        <f>CEILING(D2,W$22+1)</f>
+        <f t="shared" ref="F2:F33" si="0">CEILING(D2,W$22+1)</f>
         <v>4</v>
       </c>
       <c r="G2" s="54"/>
@@ -3055,7 +3061,7 @@
         <v>2</v>
       </c>
       <c r="U2" s="67">
-        <f>SUM(R2:T2)</f>
+        <f>SUM(Q2:T2)</f>
         <v>4</v>
       </c>
       <c r="V2" s="31"/>
@@ -3081,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="58">
-        <f>CEILING(D3,W$22+1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G3" s="58"/>
@@ -3107,7 +3113,7 @@
         <v>2</v>
       </c>
       <c r="U3" s="81">
-        <f>SUM(R3:T3)</f>
+        <f t="shared" ref="U3:U66" si="1">SUM(Q3:T3)</f>
         <v>4</v>
       </c>
       <c r="V3" s="31"/>
@@ -3128,7 +3134,7 @@
         <v>110</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D4" s="13">
         <v>5</v>
@@ -3137,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="13">
-        <f>CEILING(D4,W$22+1)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G4" s="13">
@@ -3179,8 +3185,8 @@
       </c>
       <c r="T4" s="77"/>
       <c r="U4" s="67">
-        <f>SUM(R4:T4)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="V4" s="31"/>
       <c r="W4" s="5"/>
@@ -3197,7 +3203,7 @@
         <v>155</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D5" s="13">
         <v>2</v>
@@ -3206,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="13">
-        <f>CEILING(D5,W$22+1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G5" s="13">
@@ -3244,8 +3250,8 @@
         <v>1</v>
       </c>
       <c r="U5" s="67">
-        <f>SUM(R5:T5)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="V5" s="31"/>
       <c r="W5" s="5"/>
@@ -3263,7 +3269,7 @@
         <v>156</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D6" s="13">
         <v>2</v>
@@ -3272,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="13">
-        <f>CEILING(D6,W$22+1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H6" s="13">
@@ -3300,7 +3306,7 @@
       <c r="S6" s="77"/>
       <c r="T6" s="77"/>
       <c r="U6" s="67">
-        <f>SUM(R6:T6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V6" s="31"/>
@@ -3319,7 +3325,7 @@
         <v>179</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D7" s="26">
         <v>1</v>
@@ -3328,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="26">
-        <f>CEILING(D7,W$22+1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G7" s="26"/>
@@ -3350,7 +3356,7 @@
       <c r="S7" s="78"/>
       <c r="T7" s="78"/>
       <c r="U7" s="81">
-        <f>SUM(R7:T7)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W7" s="5"/>
@@ -3366,7 +3372,7 @@
         <v>171</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D8" s="13">
         <v>4</v>
@@ -3375,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="13">
-        <f>CEILING(D8,W$22+1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I8" s="13">
@@ -3409,8 +3415,8 @@
         <v>1</v>
       </c>
       <c r="U8" s="67">
-        <f>SUM(R8:T8)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="V8" s="31"/>
       <c r="W8" s="5"/>
@@ -3427,7 +3433,7 @@
         <v>111</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D9" s="13">
         <v>2</v>
@@ -3436,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="13">
-        <f>CEILING(D9,W$22+1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H9" s="13">
@@ -3470,8 +3476,8 @@
         <v>1</v>
       </c>
       <c r="U9" s="67">
-        <f>SUM(R9:T9)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="V9" s="31"/>
       <c r="W9" s="5"/>
@@ -3488,7 +3494,7 @@
         <v>112</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D10" s="13">
         <v>5</v>
@@ -3497,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="13">
-        <f>CEILING(D10,W$22+1)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G10" s="13">
@@ -3519,7 +3525,7 @@
         <v>0.5</v>
       </c>
       <c r="U10" s="67">
-        <f>SUM(R10:T10)</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="V10" s="31"/>
@@ -3537,7 +3543,7 @@
         <v>113</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D11" s="13">
         <v>2</v>
@@ -3546,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="13">
-        <f>CEILING(D11,W$22+1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H11" s="13">
@@ -3580,8 +3586,8 @@
         <v>1</v>
       </c>
       <c r="U11" s="67">
-        <f>SUM(R11:T11)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="V11" s="31"/>
       <c r="W11" s="40" t="s">
@@ -3597,10 +3603,10 @@
     </row>
     <row r="12" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="22" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D12" s="13">
         <v>4</v>
@@ -3609,11 +3615,11 @@
         <v>1</v>
       </c>
       <c r="F12" s="13">
-        <f>CEILING(D12,W$22+1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L12" s="75"/>
       <c r="P12" s="77">
@@ -3627,7 +3633,7 @@
         <v>1</v>
       </c>
       <c r="U12" s="67">
-        <f>SUM(R12:T12)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="V12" s="31"/>
@@ -3644,10 +3650,10 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B13" s="22" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D13" s="13">
         <v>3</v>
@@ -3656,11 +3662,11 @@
         <v>0</v>
       </c>
       <c r="F13" s="13">
-        <f>CEILING(D13,W$22+1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L13" s="75"/>
       <c r="P13" s="77">
@@ -3674,7 +3680,7 @@
         <v>1</v>
       </c>
       <c r="U13" s="67">
-        <f>SUM(R13:T13)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="V13" s="31"/>
@@ -3689,10 +3695,10 @@
     </row>
     <row r="14" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D14" s="13">
         <v>3</v>
@@ -3701,17 +3707,17 @@
         <v>0</v>
       </c>
       <c r="F14" s="13">
-        <f>CEILING(D14,W$22+1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L14" s="75"/>
       <c r="P14" s="77"/>
       <c r="Q14" s="75"/>
       <c r="U14" s="67">
-        <f>SUM(R14:T14)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V14" s="31"/>
@@ -3727,10 +3733,10 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B15" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D15" s="13">
         <v>3</v>
@@ -3739,17 +3745,17 @@
         <v>0</v>
       </c>
       <c r="F15" s="13">
-        <f>CEILING(D15,W$22+1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L15" s="75"/>
       <c r="P15" s="77"/>
       <c r="Q15" s="75"/>
       <c r="U15" s="67">
-        <f>SUM(R15:T15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V15" s="31"/>
@@ -3771,7 +3777,7 @@
         <v>181</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D16" s="13">
         <v>9</v>
@@ -3780,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="13">
-        <f>CEILING(D16,W$22+1)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K16" s="21" t="s">
@@ -3811,8 +3817,8 @@
         <v>1</v>
       </c>
       <c r="U16" s="67">
-        <f>SUM(R16:T16)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="V16" s="31"/>
       <c r="W16" s="17" t="s">
@@ -3833,7 +3839,7 @@
         <v>184</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D17" s="13">
         <v>3</v>
@@ -3842,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="13">
-        <f>CEILING(D17,W$22+1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G17" s="13">
@@ -3883,8 +3889,8 @@
         <v>1</v>
       </c>
       <c r="U17" s="67">
-        <f>SUM(R17:T17)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="V17" s="31"/>
       <c r="W17" s="17" t="s">
@@ -3905,7 +3911,7 @@
         <v>182</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D18" s="13">
         <v>5</v>
@@ -3914,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="13">
-        <f>CEILING(D18,W$22+1)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K18" s="21" t="s">
@@ -3939,8 +3945,8 @@
         <v>1</v>
       </c>
       <c r="U18" s="67">
-        <f>SUM(R18:T18)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="V18" s="31"/>
       <c r="W18" s="17" t="s">
@@ -3961,7 +3967,7 @@
         <v>183</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D19" s="13">
         <v>4</v>
@@ -3970,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="13">
-        <f>CEILING(D19,W$22+1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K19" s="21" t="s">
@@ -4001,8 +4007,8 @@
         <v>0.1</v>
       </c>
       <c r="U19" s="67">
-        <f>SUM(R19:T19)</f>
-        <v>1.1000000000000001</v>
+        <f t="shared" si="1"/>
+        <v>2.1</v>
       </c>
       <c r="V19" s="31"/>
       <c r="W19" s="18" t="s">
@@ -4023,7 +4029,7 @@
         <v>114</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D20" s="13">
         <v>5</v>
@@ -4032,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="13">
-        <f>CEILING(D20,W$22+1)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H20" s="13">
@@ -4066,8 +4072,8 @@
         <v>1</v>
       </c>
       <c r="U20" s="67">
-        <f>SUM(R20:T20)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="V20" s="31"/>
       <c r="Z20" s="31"/>
@@ -4081,7 +4087,7 @@
         <v>115</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D21" s="13">
         <v>3</v>
@@ -4090,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="13">
-        <f>CEILING(D21,W$22+1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G21" s="13">
@@ -4101,12 +4107,12 @@
       <c r="P21" s="77"/>
       <c r="Q21" s="31"/>
       <c r="U21" s="67">
-        <f>SUM(R21:T21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V21" s="31"/>
       <c r="W21" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X21" s="41"/>
       <c r="Y21" s="31"/>
@@ -4121,7 +4127,7 @@
         <v>116</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D22" s="13">
         <v>4</v>
@@ -4130,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="13">
-        <f>CEILING(D22,W$22+1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G22" s="13">
@@ -4145,8 +4151,8 @@
         <v>1</v>
       </c>
       <c r="U22" s="67">
-        <f>SUM(R22:T22)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="V22" s="31"/>
       <c r="W22" s="42">
@@ -4165,7 +4171,7 @@
         <v>117</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D23" s="13">
         <v>2</v>
@@ -4174,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="13">
-        <f>CEILING(D23,W$22+1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G23" s="13">
@@ -4202,7 +4208,7 @@
       </c>
       <c r="T23" s="78"/>
       <c r="U23" s="81">
-        <f>SUM(R23:T23)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V23" s="31"/>
@@ -4222,7 +4228,7 @@
         <v>118</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D24" s="12">
         <v>10</v>
@@ -4231,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="12">
-        <f>CEILING(D24,W$22+1)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="G24" s="12"/>
@@ -4273,8 +4279,8 @@
       </c>
       <c r="T24" s="77"/>
       <c r="U24" s="67">
-        <f>SUM(R24:T24)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="V24" s="31"/>
       <c r="W24" s="14"/>
@@ -4289,7 +4295,7 @@
         <v>119</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D25" s="13">
         <v>8</v>
@@ -4298,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="13">
-        <f>CEILING(D25,W$22+1)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H25" s="13">
@@ -4338,8 +4344,8 @@
         <v>1</v>
       </c>
       <c r="U25" s="67">
-        <f>SUM(R25:T25)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="V25" s="31"/>
       <c r="W25" s="44" t="s">
@@ -4361,10 +4367,10 @@
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D26" s="13">
         <v>3</v>
@@ -4373,11 +4379,11 @@
         <v>0</v>
       </c>
       <c r="F26" s="13">
-        <f>CEILING(D26,W$22+1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K26" s="21" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L26" s="75"/>
       <c r="P26" s="77">
@@ -4385,7 +4391,7 @@
       </c>
       <c r="Q26" s="75"/>
       <c r="U26" s="67">
-        <f>SUM(R26:T26)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V26" s="31"/>
@@ -4393,16 +4399,16 @@
         <v>0</v>
       </c>
       <c r="X26" s="6">
-        <f>SUMIF(U$2:U$85,"&gt;=" &amp; W26,F$2:F$85)</f>
-        <v>366</v>
+        <f>SUMIF(U$2:U$86,"&gt;=" &amp; W26,F$2:F$86)</f>
+        <v>370</v>
       </c>
       <c r="Y26" s="6">
-        <f>SUMIF(U$2:U$85,"&gt;=" &amp; W26,E$2:E$85)</f>
+        <f>SUMIF(U$2:U$86,"&gt;=" &amp; W26,E$2:E$86)</f>
         <v>29</v>
       </c>
       <c r="Z26" s="8">
-        <f t="shared" ref="Z26:Z34" si="0">($Y$17 + $Y$15*X26+$Y$16*Y26)*(1+Y$18+Y$19)</f>
-        <v>39</v>
+        <f t="shared" ref="Z26:Z34" si="2">($Y$17 + $Y$15*X26+$Y$16*Y26)*(1+Y$18+Y$19)</f>
+        <v>39.26</v>
       </c>
       <c r="AA26" s="31"/>
       <c r="AB26" s="31"/>
@@ -4411,10 +4417,10 @@
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B27" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D27" s="13">
         <v>3</v>
@@ -4423,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="13">
-        <f>CEILING(D27,W$22+1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K27" s="21"/>
@@ -4438,24 +4444,24 @@
         <v>0.2</v>
       </c>
       <c r="U27" s="67">
-        <f>SUM(R27:T27)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.2</v>
       </c>
       <c r="V27" s="31"/>
       <c r="W27" s="69">
         <v>0.5</v>
       </c>
       <c r="X27" s="6">
-        <f>SUMIF(U$2:U$85,"&gt;=" &amp; W27,F$2:F$85)</f>
-        <v>228</v>
+        <f>SUMIF(U$2:U$86,"&gt;=" &amp; W27,F$2:F$86)</f>
+        <v>270</v>
       </c>
       <c r="Y27" s="6">
-        <f>SUMIF(U$2:U$85,"&gt;=" &amp; W27,E$2:E$85)</f>
-        <v>22</v>
+        <f>SUMIF(U$2:U$86,"&gt;=" &amp; W27,E$2:E$86)</f>
+        <v>26</v>
       </c>
       <c r="Z27" s="8">
         <f>($Y$17 + $Y$15*X27+$Y$16*Y27)*(1+Y$18+Y$19)</f>
-        <v>27.3</v>
+        <v>31.590000000000003</v>
       </c>
       <c r="AA27" s="31"/>
       <c r="AB27" s="31"/>
@@ -4468,7 +4474,7 @@
         <v>120</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D28" s="13">
         <v>3</v>
@@ -4477,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="13">
-        <f>CEILING(D28,W$22+1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G28" s="13"/>
@@ -4515,23 +4521,23 @@
       <c r="S28" s="75"/>
       <c r="T28" s="75"/>
       <c r="U28" s="67">
-        <f>SUM(R28:T28)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="W28" s="69">
         <v>1</v>
       </c>
       <c r="X28" s="6">
-        <f>SUMIF(U$2:U$85,"&gt;=" &amp; W28,F$2:F$85)</f>
-        <v>222</v>
+        <f>SUMIF(U$2:U$86,"&gt;=" &amp; W28,F$2:F$86)</f>
+        <v>244</v>
       </c>
       <c r="Y28" s="6">
-        <f>SUMIF(U$2:U$85,"&gt;=" &amp; W28,E$2:E$85)</f>
+        <f>SUMIF(U$2:U$86,"&gt;=" &amp; W28,E$2:E$86)</f>
         <v>22</v>
       </c>
       <c r="Z28" s="8">
-        <f t="shared" si="0"/>
-        <v>26.910000000000004</v>
+        <f t="shared" si="2"/>
+        <v>28.340000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.3">
@@ -4539,7 +4545,7 @@
         <v>121</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D29" s="13">
         <v>3</v>
@@ -4548,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="13">
-        <f>CEILING(D29,W$22+1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H29" s="13">
@@ -4585,24 +4591,24 @@
         <v>1</v>
       </c>
       <c r="U29" s="67">
-        <f>SUM(R29:T29)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="V29" s="31"/>
       <c r="W29" s="70">
         <v>1.5</v>
       </c>
       <c r="X29" s="29">
-        <f>SUMIF(U$2:U$85,"&gt;=" &amp; W29,F$2:F$85)</f>
-        <v>102</v>
+        <f>SUMIF(U$2:U$86,"&gt;=" &amp; W29,F$2:F$86)</f>
+        <v>172</v>
       </c>
       <c r="Y29" s="29">
-        <f>SUMIF(U$2:U$85,"&gt;=" &amp; W29,E$2:E$85)</f>
-        <v>13</v>
+        <f>SUMIF(U$2:U$86,"&gt;=" &amp; W29,E$2:E$86)</f>
+        <v>16</v>
       </c>
       <c r="Z29" s="8">
-        <f t="shared" si="0"/>
-        <v>15.600000000000003</v>
+        <f t="shared" si="2"/>
+        <v>21.32</v>
       </c>
       <c r="AA29" s="31"/>
       <c r="AB29" s="31"/>
@@ -4614,7 +4620,7 @@
         <v>122</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D30" s="13">
         <v>5</v>
@@ -4623,7 +4629,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="13">
-        <f>CEILING(D30,W$22+1)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G30" s="13">
@@ -4641,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="U30" s="67">
-        <f>SUM(R30:T30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V30" s="31"/>
@@ -4649,16 +4655,16 @@
         <v>2</v>
       </c>
       <c r="X30" s="6">
-        <f>SUMIF(U$2:U$85,"&gt;=" &amp; W30,F$2:F$85)</f>
-        <v>98</v>
+        <f>SUMIF(U$2:U$86,"&gt;=" &amp; W30,F$2:F$86)</f>
+        <v>166</v>
       </c>
       <c r="Y30" s="6">
-        <f>SUMIF(U$2:U$85,"&gt;=" &amp; W30,E$2:E$85)</f>
-        <v>13</v>
+        <f>SUMIF(U$2:U$86,"&gt;=" &amp; W30,E$2:E$86)</f>
+        <v>16</v>
       </c>
       <c r="Z30" s="8">
-        <f t="shared" si="0"/>
-        <v>15.340000000000002</v>
+        <f t="shared" si="2"/>
+        <v>20.930000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.3">
@@ -4666,7 +4672,7 @@
         <v>123</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D31" s="13">
         <v>5</v>
@@ -4675,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="13">
-        <f>CEILING(D31,W$22+1)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K31" s="55" t="s">
@@ -4691,7 +4697,7 @@
       </c>
       <c r="T31" s="78"/>
       <c r="U31" s="81">
-        <f>SUM(R31:T31)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V31" s="31"/>
@@ -4699,16 +4705,16 @@
         <v>2.5</v>
       </c>
       <c r="X31" s="6">
-        <f>SUMIF(U$2:U$85,"&gt;=" &amp; W31,F$2:F$85)</f>
-        <v>8</v>
+        <f>SUMIF(U$2:U$86,"&gt;=" &amp; W31,F$2:F$86)</f>
+        <v>66</v>
       </c>
       <c r="Y31" s="6">
-        <f>SUMIF(U$2:U$85,"&gt;=" &amp; W31,E$2:E$85)</f>
-        <v>2</v>
+        <f>SUMIF(U$2:U$86,"&gt;=" &amp; W31,E$2:E$86)</f>
+        <v>6</v>
       </c>
       <c r="Z31" s="8">
-        <f t="shared" si="0"/>
-        <v>5.2</v>
+        <f t="shared" si="2"/>
+        <v>10.530000000000003</v>
       </c>
       <c r="AA31" s="31"/>
       <c r="AB31" s="31"/>
@@ -4723,7 +4729,7 @@
         <v>124</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D32" s="12">
         <v>3</v>
@@ -4732,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="12">
-        <f>CEILING(D32,W$22+1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G32" s="12">
@@ -4756,7 +4762,7 @@
       <c r="S32" s="76"/>
       <c r="T32" s="77"/>
       <c r="U32" s="67">
-        <f>SUM(R32:T32)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V32" s="31"/>
@@ -4764,16 +4770,16 @@
         <v>3</v>
       </c>
       <c r="X32" s="6">
-        <f>SUMIF(U$2:U$85,"&gt;=" &amp; W32,F$2:F$85)</f>
-        <v>8</v>
+        <f>SUMIF(U$2:U$86,"&gt;=" &amp; W32,F$2:F$86)</f>
+        <v>66</v>
       </c>
       <c r="Y32" s="6">
-        <f>SUMIF(U$2:U$85,"&gt;=" &amp; W32,E$2:E$85)</f>
-        <v>2</v>
+        <f>SUMIF(U$2:U$86,"&gt;=" &amp; W32,E$2:E$86)</f>
+        <v>6</v>
       </c>
       <c r="Z32" s="8">
-        <f t="shared" si="0"/>
-        <v>5.2</v>
+        <f t="shared" si="2"/>
+        <v>10.530000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4782,7 +4788,7 @@
         <v>125</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D33" s="13">
         <v>2</v>
@@ -4791,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="13">
-        <f>CEILING(D33,W$22+1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G33" s="13">
@@ -4835,23 +4841,23 @@
       </c>
       <c r="T33" s="75"/>
       <c r="U33" s="67">
-        <f>SUM(R33:T33)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="V33" s="31"/>
       <c r="W33" s="69">
         <v>3.5</v>
       </c>
       <c r="X33" s="6">
-        <f>SUMIF(U$2:U$85,"&gt;=" &amp; W33,F$2:F$85)</f>
+        <f>SUMIF(U$2:U$86,"&gt;=" &amp; W33,F$2:F$86)</f>
         <v>8</v>
       </c>
       <c r="Y33" s="6">
-        <f>SUMIF(U$2:U$85,"&gt;=" &amp; W33,E$2:E$85)</f>
+        <f>SUMIF(U$2:U$86,"&gt;=" &amp; W33,E$2:E$86)</f>
         <v>2</v>
       </c>
       <c r="Z33" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.2</v>
       </c>
       <c r="AA33"/>
@@ -4864,7 +4870,7 @@
         <v>185</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D34" s="13">
         <v>1</v>
@@ -4873,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="13">
-        <f>CEILING(D34,W$22+1)</f>
+        <f t="shared" ref="F34:F66" si="3">CEILING(D34,W$22+1)</f>
         <v>2</v>
       </c>
       <c r="J34" s="13">
@@ -4907,23 +4913,23 @@
         <v>1</v>
       </c>
       <c r="U34" s="67">
-        <f>SUM(R34:T34)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="V34" s="31"/>
       <c r="W34" s="71">
         <v>4</v>
       </c>
       <c r="X34" s="45">
-        <f>SUMIF(U$2:U$85,"&gt;=" &amp; W34,F$2:F$85)</f>
+        <f>SUMIF(U$2:U$86,"&gt;=" &amp; W34,F$2:F$86)</f>
         <v>8</v>
       </c>
       <c r="Y34" s="45">
-        <f>SUMIF(U$2:U$85,"&gt;=" &amp; W34,E$2:E$85)</f>
+        <f>SUMIF(U$2:U$86,"&gt;=" &amp; W34,E$2:E$86)</f>
         <v>2</v>
       </c>
       <c r="Z34" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.2</v>
       </c>
     </row>
@@ -4933,7 +4939,7 @@
         <v>186</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D35" s="13">
         <v>3</v>
@@ -4942,7 +4948,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="13">
-        <f>CEILING(D35,W$22+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G35" s="13">
@@ -4986,8 +4992,8 @@
       </c>
       <c r="T35" s="75"/>
       <c r="U35" s="67">
-        <f>SUM(R35:T35)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="W35" s="3"/>
       <c r="X35"/>
@@ -5003,7 +5009,7 @@
         <v>126</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D36" s="13">
         <v>3</v>
@@ -5012,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="13">
-        <f>CEILING(D36,W$22+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G36" s="13">
@@ -5035,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="U36" s="67">
-        <f>SUM(R36:T36)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V36" s="31"/>
@@ -5049,7 +5055,7 @@
         <v>97</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D37" s="13">
         <v>2</v>
@@ -5058,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="13">
-        <f>CEILING(D37,W$22+1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H37" s="13">
@@ -5089,8 +5095,8 @@
         <v>1</v>
       </c>
       <c r="U37" s="67">
-        <f>SUM(R37:T37)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="V37" s="31"/>
       <c r="X37" s="31"/>
@@ -5102,7 +5108,7 @@
         <v>98</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D38" s="13">
         <v>4</v>
@@ -5111,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="13">
-        <f>CEILING(D38,W$22+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J38" s="13">
@@ -5136,8 +5142,8 @@
         <v>1</v>
       </c>
       <c r="U38" s="67">
-        <f>SUM(R38:T38)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="V38" s="31"/>
       <c r="AA38" s="31"/>
@@ -5150,7 +5156,7 @@
         <v>95</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D39" s="13">
         <v>3</v>
@@ -5159,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="13">
-        <f>CEILING(D39,W$22+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J39" s="13">
@@ -5187,8 +5193,8 @@
         <v>1</v>
       </c>
       <c r="U39" s="67">
-        <f>SUM(R39:T39)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="V39" s="31"/>
       <c r="W39" s="72"/>
@@ -5198,7 +5204,7 @@
         <v>127</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D40" s="13">
         <v>7</v>
@@ -5207,7 +5213,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="13">
-        <f>CEILING(D40,W$22+1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G40" s="13">
@@ -5223,7 +5229,7 @@
         <v>21</v>
       </c>
       <c r="K40" s="21" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L40" s="32">
         <v>1</v>
@@ -5251,8 +5257,8 @@
       </c>
       <c r="T40" s="78"/>
       <c r="U40" s="81">
-        <f>SUM(R40:T40)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="V40" s="31"/>
       <c r="W40" s="72"/>
@@ -5265,7 +5271,7 @@
         <v>128</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D41" s="12">
         <v>2</v>
@@ -5274,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="12">
-        <f>CEILING(D41,W$22+1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G41" s="12" t="s">
@@ -5318,8 +5324,8 @@
       </c>
       <c r="T41" s="77"/>
       <c r="U41" s="67">
-        <f>SUM(R41:T41)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="V41" s="31"/>
       <c r="W41" s="72"/>
@@ -5331,7 +5337,7 @@
         <v>170</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D42" s="13">
         <v>5</v>
@@ -5340,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="13">
-        <f>CEILING(D42,W$22+1)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="G42" s="13">
@@ -5380,8 +5386,8 @@
       </c>
       <c r="T42" s="75"/>
       <c r="U42" s="67">
-        <f>SUM(R42:T42)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="V42" s="31"/>
       <c r="W42" s="3"/>
@@ -5398,7 +5404,7 @@
         <v>188</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D43" s="13">
         <v>4</v>
@@ -5407,7 +5413,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="13">
-        <f>CEILING(D43,W$22+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="K43" s="21" t="s">
@@ -5417,7 +5423,7 @@
       <c r="P43" s="77"/>
       <c r="Q43" s="31"/>
       <c r="U43" s="67">
-        <f>SUM(R43:T43)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V43" s="31"/>
@@ -5429,7 +5435,7 @@
         <v>129</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D44" s="13">
         <v>6</v>
@@ -5438,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="13">
-        <f>CEILING(D44,W$22+1)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="H44" s="13">
@@ -5470,18 +5476,18 @@
         <v>1</v>
       </c>
       <c r="U44" s="67">
-        <f>SUM(R44:T44)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="V44" s="31"/>
       <c r="Z44" s="6"/>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B45" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D45" s="13">
         <v>5</v>
@@ -5490,7 +5496,7 @@
         <v>2</v>
       </c>
       <c r="F45" s="13">
-        <f>CEILING(D45,W$22+1)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="G45" s="13" t="s">
@@ -5528,8 +5534,8 @@
       </c>
       <c r="T45" s="78"/>
       <c r="U45" s="81">
-        <f>SUM(R45:T45)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="V45" s="31"/>
     </row>
@@ -5538,10 +5544,10 @@
         <v>79</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D46" s="12">
         <v>7</v>
@@ -5550,7 +5556,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="12">
-        <f>CEILING(D46,W$22+1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G46" s="12" t="s">
@@ -5566,7 +5572,7 @@
         <v>26</v>
       </c>
       <c r="K46" s="20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L46" s="33">
         <v>1</v>
@@ -5590,18 +5596,18 @@
       <c r="S46" s="76"/>
       <c r="T46" s="77"/>
       <c r="U46" s="67">
-        <f>SUM(R46:T46)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.8</v>
       </c>
       <c r="W46" s="3"/>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" s="28"/>
       <c r="B47" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D47" s="13">
         <v>4</v>
@@ -5610,11 +5616,11 @@
         <v>2</v>
       </c>
       <c r="F47" s="13">
-        <f>CEILING(D47,W$22+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="K47" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L47" s="77"/>
       <c r="M47" s="77"/>
@@ -5630,7 +5636,7 @@
       </c>
       <c r="T47" s="77"/>
       <c r="U47" s="67">
-        <f>SUM(R47:T47)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="V47" s="31"/>
@@ -5646,7 +5652,7 @@
         <v>93</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D48" s="13">
         <v>6</v>
@@ -5655,7 +5661,7 @@
         <v>3</v>
       </c>
       <c r="F48" s="13">
-        <f>CEILING(D48,W$22+1)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="G48" s="13" t="s">
@@ -5671,7 +5677,7 @@
         <v>27</v>
       </c>
       <c r="K48" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L48" s="32">
         <v>1</v>
@@ -5695,8 +5701,8 @@
       <c r="S48" s="75"/>
       <c r="T48" s="75"/>
       <c r="U48" s="67">
-        <f>SUM(R48:T48)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.8</v>
       </c>
       <c r="W48" s="3"/>
       <c r="Z48" s="6"/>
@@ -5708,10 +5714,10 @@
     <row r="49" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D49" s="13">
         <v>8</v>
@@ -5720,7 +5726,7 @@
         <v>4</v>
       </c>
       <c r="F49" s="13">
-        <f>CEILING(D49,W$22+1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G49" s="13"/>
@@ -5728,7 +5734,7 @@
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
       <c r="K49" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L49" s="75"/>
       <c r="M49" s="75"/>
@@ -5744,7 +5750,7 @@
       </c>
       <c r="T49" s="75"/>
       <c r="U49" s="67">
-        <f>SUM(R49:T49)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="V49" s="31"/>
@@ -5761,7 +5767,7 @@
         <v>130</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D50" s="13">
         <v>2</v>
@@ -5770,7 +5776,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="13">
-        <f>CEILING(D50,W$22+1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G50" s="13">
@@ -5808,18 +5814,18 @@
         <v>1</v>
       </c>
       <c r="U50" s="67">
-        <f>SUM(R50:T50)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>1.8</v>
       </c>
       <c r="V50" s="31"/>
       <c r="Y50" s="6"/>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B51" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D51" s="13">
         <v>4</v>
@@ -5828,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="13">
-        <f>CEILING(D51,W$22+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G51" s="13">
@@ -5844,7 +5850,7 @@
         <v>28</v>
       </c>
       <c r="K51" s="21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L51" s="32"/>
       <c r="N51" s="75">
@@ -5859,7 +5865,7 @@
       <c r="Q51" s="32"/>
       <c r="T51" s="78"/>
       <c r="U51" s="81">
-        <f>SUM(R51:T51)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V51" s="31"/>
@@ -5869,10 +5875,10 @@
         <v>80</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D52" s="12">
         <v>2</v>
@@ -5881,7 +5887,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="12">
-        <f>CEILING(D52,W$22+1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G52" s="12">
@@ -5913,7 +5919,7 @@
       </c>
       <c r="T52" s="77"/>
       <c r="U52" s="67">
-        <f>SUM(R52:T52)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V52" s="31"/>
@@ -5931,7 +5937,7 @@
         <v>131</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D53" s="13">
         <v>3</v>
@@ -5940,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="13">
-        <f>CEILING(D53,W$22+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G53" s="13">
@@ -5970,7 +5976,7 @@
       </c>
       <c r="T53" s="78"/>
       <c r="U53" s="81">
-        <f>SUM(R53:T53)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V53" s="31"/>
@@ -5983,7 +5989,7 @@
         <v>132</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D54" s="12">
         <v>2</v>
@@ -5992,7 +5998,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="12">
-        <f>CEILING(D54,W$22+1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G54" s="12"/>
@@ -6026,7 +6032,7 @@
       </c>
       <c r="T54" s="77"/>
       <c r="U54" s="67">
-        <f>SUM(R54:T54)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="V54" s="31"/>
@@ -6042,7 +6048,7 @@
         <v>133</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D55" s="13">
         <v>3</v>
@@ -6051,7 +6057,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="13">
-        <f>CEILING(D55,W$22+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G55" s="13">
@@ -6089,7 +6095,7 @@
         <v>1</v>
       </c>
       <c r="U55" s="67">
-        <f>SUM(R55:T55)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="V55" s="31"/>
@@ -6099,7 +6105,7 @@
         <v>134</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D56" s="13">
         <v>3</v>
@@ -6108,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="13">
-        <f>CEILING(D56,W$22+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G56" s="13">
@@ -6137,7 +6143,7 @@
         <v>1</v>
       </c>
       <c r="U56" s="67">
-        <f>SUM(R56:T56)</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="V56" s="31"/>
@@ -6151,7 +6157,7 @@
         <v>135</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D57" s="13">
         <v>3</v>
@@ -6160,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="13">
-        <f>CEILING(D57,W$22+1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G57" s="13">
@@ -6178,7 +6184,7 @@
         <v>1</v>
       </c>
       <c r="U57" s="67">
-        <f>SUM(R57:T57)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V57" s="31"/>
@@ -6189,7 +6195,7 @@
         <v>136</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D58" s="13">
         <v>2</v>
@@ -6198,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="13">
-        <f>CEILING(D58,W$22+1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G58" s="13">
@@ -6236,8 +6242,8 @@
         <v>1</v>
       </c>
       <c r="U58" s="67">
-        <f>SUM(R58:T58)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>2.2000000000000002</v>
       </c>
       <c r="V58" s="31"/>
       <c r="AA58" s="31"/>
@@ -6247,7 +6253,7 @@
         <v>137</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D59" s="13">
         <v>5</v>
@@ -6256,7 +6262,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="13">
-        <f>CEILING(D59,W$22+1)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="G59" s="13">
@@ -6285,7 +6291,7 @@
         <v>1</v>
       </c>
       <c r="P59" s="77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="73">
         <v>1</v>
@@ -6294,228 +6300,231 @@
         <v>1</v>
       </c>
       <c r="U59" s="67">
-        <f>SUM(R59:T59)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="V59" s="31"/>
       <c r="Y59" s="6"/>
       <c r="AA59" s="31"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="B60" s="22" t="s">
+    <row r="60" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="10"/>
+      <c r="B60" t="s">
+        <v>237</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="D60" s="13">
+        <v>4</v>
+      </c>
+      <c r="E60" s="13">
+        <v>0</v>
+      </c>
+      <c r="F60" s="13">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="L60" s="75"/>
+      <c r="M60" s="75"/>
+      <c r="N60" s="75"/>
+      <c r="O60" s="75"/>
+      <c r="P60" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="73"/>
+      <c r="R60" s="75"/>
+      <c r="S60" s="75"/>
+      <c r="T60" s="75"/>
+      <c r="U60" s="67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W60" s="3"/>
+      <c r="Y60" s="6"/>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B61" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="C60" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="D60" s="13">
+      <c r="C61" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="D61" s="13">
         <v>5</v>
       </c>
-      <c r="E60" s="13">
-        <v>0</v>
-      </c>
-      <c r="F60" s="13">
-        <f>CEILING(D60,W$22+1)</f>
+      <c r="E61" s="13">
+        <v>0</v>
+      </c>
+      <c r="F61" s="13">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="G60" s="13">
+      <c r="G61" s="13">
         <v>9</v>
       </c>
-      <c r="H60" s="13">
+      <c r="H61" s="13">
         <v>36</v>
       </c>
-      <c r="I60" s="13">
+      <c r="I61" s="13">
         <v>5</v>
       </c>
-      <c r="J60" s="13">
+      <c r="J61" s="13">
         <v>34</v>
       </c>
-      <c r="K60" s="21"/>
-      <c r="L60" s="32">
-        <v>1</v>
-      </c>
-      <c r="M60" s="75">
-        <v>1</v>
-      </c>
-      <c r="N60" s="75">
+      <c r="K61" s="21"/>
+      <c r="L61" s="32">
+        <v>1</v>
+      </c>
+      <c r="M61" s="75">
+        <v>1</v>
+      </c>
+      <c r="N61" s="75">
         <v>0.5</v>
       </c>
-      <c r="P60" s="77">
+      <c r="P61" s="77">
         <v>0.1</v>
       </c>
-      <c r="Q60" s="73">
-        <v>1</v>
-      </c>
-      <c r="R60" s="75">
-        <v>1</v>
-      </c>
-      <c r="U60" s="67">
-        <f>SUM(R60:T60)</f>
-        <v>1</v>
-      </c>
-      <c r="V60" s="31"/>
-      <c r="AA60" s="31"/>
-    </row>
-    <row r="61" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="10"/>
-      <c r="B61" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="C61" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="D61" s="13">
+      <c r="Q61" s="73">
+        <v>1</v>
+      </c>
+      <c r="R61" s="75">
+        <v>1</v>
+      </c>
+      <c r="U61" s="67">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="V61" s="31"/>
+      <c r="AA61" s="31"/>
+    </row>
+    <row r="62" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="10"/>
+      <c r="B62" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="D62" s="13">
         <v>3</v>
       </c>
-      <c r="E61" s="13">
-        <v>0</v>
-      </c>
-      <c r="F61" s="13">
-        <f>CEILING(D61,W$22+1)</f>
+      <c r="E62" s="13">
+        <v>0</v>
+      </c>
+      <c r="F62" s="13">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="L61" s="75"/>
-      <c r="M61" s="75"/>
-      <c r="N61" s="75"/>
-      <c r="O61" s="75"/>
-      <c r="P61" s="77"/>
-      <c r="Q61" s="73"/>
-      <c r="R61" s="75"/>
-      <c r="S61" s="75"/>
-      <c r="T61" s="75"/>
-      <c r="U61" s="67">
-        <f>SUM(R61:T61)</f>
-        <v>0</v>
-      </c>
-      <c r="W61" s="3"/>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="B62" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="C62" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="D62" s="13">
-        <v>1</v>
-      </c>
-      <c r="E62" s="13">
-        <v>0</v>
-      </c>
-      <c r="F62" s="13">
-        <f>CEILING(D62,W$22+1)</f>
-        <v>2</v>
-      </c>
-      <c r="H62" s="13">
-        <v>37</v>
-      </c>
-      <c r="J62" s="13">
-        <v>35</v>
-      </c>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
       <c r="K62" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="L62" s="32">
-        <v>1</v>
-      </c>
-      <c r="M62" s="75">
-        <v>1</v>
-      </c>
-      <c r="N62" s="75">
-        <v>1</v>
-      </c>
-      <c r="O62" s="75">
-        <v>1</v>
-      </c>
-      <c r="P62" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q62" s="73">
-        <v>1</v>
-      </c>
-      <c r="R62" s="75">
-        <v>1</v>
-      </c>
-      <c r="S62" s="75">
-        <v>1</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="L62" s="75"/>
+      <c r="M62" s="75"/>
+      <c r="N62" s="75"/>
+      <c r="O62" s="75"/>
+      <c r="P62" s="77"/>
+      <c r="Q62" s="73"/>
+      <c r="R62" s="75"/>
+      <c r="S62" s="75"/>
+      <c r="T62" s="75"/>
       <c r="U62" s="67">
-        <f>SUM(R62:T62)</f>
-        <v>2</v>
-      </c>
-      <c r="V62" s="31"/>
-      <c r="Z62" s="6"/>
-      <c r="AA62" s="31"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W62" s="3"/>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B63" s="22" t="s">
-        <v>96</v>
+        <v>235</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D63" s="13">
+        <v>1</v>
+      </c>
+      <c r="E63" s="13">
+        <v>0</v>
+      </c>
+      <c r="F63" s="13">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H63" s="13">
+        <v>37</v>
+      </c>
+      <c r="J63" s="13">
+        <v>35</v>
+      </c>
+      <c r="K63" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="L63" s="32">
+        <v>1</v>
+      </c>
+      <c r="M63" s="75">
+        <v>1</v>
+      </c>
+      <c r="N63" s="75">
+        <v>1</v>
+      </c>
+      <c r="O63" s="75">
+        <v>1</v>
+      </c>
+      <c r="P63" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="73">
+        <v>1</v>
+      </c>
+      <c r="R63" s="75">
+        <v>1</v>
+      </c>
+      <c r="S63" s="75">
+        <v>1</v>
+      </c>
+      <c r="U63" s="67">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E63" s="13">
-        <v>0</v>
-      </c>
-      <c r="F63" s="13">
-        <f>CEILING(D63,W$22+1)</f>
-        <v>4</v>
-      </c>
-      <c r="J63" s="13">
-        <v>36</v>
-      </c>
-      <c r="K63" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="L63" s="32">
-        <v>1</v>
-      </c>
-      <c r="N63" s="75">
-        <v>0.5</v>
-      </c>
-      <c r="P63" s="77">
-        <v>0.5</v>
-      </c>
-      <c r="Q63" s="31"/>
-      <c r="U63" s="67">
-        <f>SUM(R63:T63)</f>
-        <v>0</v>
-      </c>
       <c r="V63" s="31"/>
+      <c r="Z63" s="6"/>
       <c r="AA63" s="31"/>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B64" s="22" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="C64" s="29" t="s">
         <v>203</v>
       </c>
       <c r="D64" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E64" s="13">
         <v>0</v>
       </c>
       <c r="F64" s="13">
-        <f>CEILING(D64,W$22+1)</f>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="J64" s="13">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K64" s="21" t="s">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="L64" s="32">
         <v>1</v>
@@ -6523,17 +6532,12 @@
       <c r="N64" s="75">
         <v>0.5</v>
       </c>
-      <c r="O64" s="75">
-        <v>1</v>
-      </c>
       <c r="P64" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q64" s="32">
         <v>0.5</v>
       </c>
+      <c r="Q64" s="31"/>
       <c r="U64" s="67">
-        <f>SUM(R64:T64)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V64" s="31"/>
@@ -6541,230 +6545,242 @@
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B65" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D65" s="13">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E65" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F65" s="13">
-        <f>CEILING(D65,W$22+1)</f>
-        <v>10</v>
-      </c>
-      <c r="G65" s="13">
-        <v>10</v>
-      </c>
-      <c r="K65" s="21"/>
-      <c r="L65" s="32"/>
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="J65" s="13">
+        <v>37</v>
+      </c>
+      <c r="K65" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="L65" s="32">
+        <v>1</v>
+      </c>
+      <c r="N65" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="O65" s="75">
+        <v>1</v>
+      </c>
       <c r="P65" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="31"/>
-      <c r="R65" s="75">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Q65" s="32">
+        <v>0.5</v>
       </c>
       <c r="U65" s="67">
-        <f>SUM(R65:T65)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="V65" s="31"/>
       <c r="AA65" s="31"/>
-      <c r="AB65" s="6"/>
-      <c r="AC65" s="6"/>
-      <c r="AD65" s="6"/>
     </row>
     <row r="66" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B66" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D66" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E66" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" s="13">
-        <f>CEILING(D66,W$22+1)</f>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="G66" s="13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K66" s="21"/>
       <c r="L66" s="32"/>
-      <c r="N66" s="75">
-        <v>0</v>
-      </c>
-      <c r="P66" s="77"/>
+      <c r="P66" s="77">
+        <v>0</v>
+      </c>
       <c r="Q66" s="31"/>
       <c r="R66" s="75">
         <v>1</v>
       </c>
       <c r="U66" s="67">
-        <f>SUM(R66:T66)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V66" s="31"/>
-      <c r="Z66" s="6"/>
       <c r="AA66" s="31"/>
+      <c r="AB66" s="6"/>
+      <c r="AC66" s="6"/>
+      <c r="AD66" s="6"/>
     </row>
     <row r="67" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B67" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="D67" s="13">
+        <v>7</v>
+      </c>
+      <c r="E67" s="13">
+        <v>1</v>
+      </c>
+      <c r="F67" s="13">
+        <f t="shared" ref="F67:F85" si="4">CEILING(D67,W$22+1)</f>
+        <v>8</v>
+      </c>
+      <c r="G67" s="13">
+        <v>11</v>
+      </c>
+      <c r="K67" s="21"/>
+      <c r="L67" s="32"/>
+      <c r="N67" s="75">
+        <v>0</v>
+      </c>
+      <c r="P67" s="77"/>
+      <c r="Q67" s="31"/>
+      <c r="R67" s="75">
+        <v>1</v>
+      </c>
+      <c r="U67" s="67">
+        <f t="shared" ref="U67:U85" si="5">SUM(Q67:T67)</f>
+        <v>1</v>
+      </c>
+      <c r="V67" s="31"/>
+      <c r="Z67" s="6"/>
+      <c r="AA67" s="31"/>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B68" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="C67" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="D67" s="13">
+      <c r="C68" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="D68" s="13">
         <v>5</v>
       </c>
-      <c r="E67" s="13">
-        <v>0</v>
-      </c>
-      <c r="F67" s="13">
-        <f>CEILING(D67,W$22+1)</f>
+      <c r="E68" s="13">
+        <v>0</v>
+      </c>
+      <c r="F68" s="13">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="J67" s="13">
+      <c r="J68" s="13">
         <v>38</v>
       </c>
-      <c r="K67" s="21" t="s">
+      <c r="K68" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="L67" s="32">
-        <v>1</v>
-      </c>
-      <c r="N67" s="75">
+      <c r="L68" s="32">
+        <v>1</v>
+      </c>
+      <c r="N68" s="75">
         <v>0.5</v>
       </c>
-      <c r="O67" s="75">
-        <v>1</v>
-      </c>
-      <c r="P67" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q67" s="32"/>
-      <c r="T67" s="78"/>
-      <c r="U67" s="81">
-        <f>SUM(R67:T67)</f>
-        <v>0</v>
-      </c>
-      <c r="V67" s="31"/>
-      <c r="AA67" s="31"/>
-    </row>
-    <row r="68" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="11" t="s">
+      <c r="O68" s="75">
+        <v>1</v>
+      </c>
+      <c r="P68" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="32"/>
+      <c r="T68" s="78"/>
+      <c r="U68" s="81">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V68" s="31"/>
+      <c r="AA68" s="31"/>
+    </row>
+    <row r="69" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B68" s="25" t="s">
+      <c r="B69" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="C68" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="D68" s="12">
+      <c r="C69" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="D69" s="12">
         <v>3</v>
       </c>
-      <c r="E68" s="12">
-        <v>0</v>
-      </c>
-      <c r="F68" s="12">
-        <f>CEILING(D68,W$22+1)</f>
+      <c r="E69" s="12">
+        <v>0</v>
+      </c>
+      <c r="F69" s="12">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="G68" s="12">
+      <c r="G69" s="12">
         <v>45</v>
       </c>
-      <c r="H68" s="12">
+      <c r="H69" s="12">
         <v>27</v>
       </c>
-      <c r="I68" s="12">
+      <c r="I69" s="12">
         <v>36</v>
       </c>
-      <c r="J68" s="12">
+      <c r="J69" s="12">
         <v>29</v>
       </c>
-      <c r="K68" s="20"/>
-      <c r="L68" s="33"/>
-      <c r="M68" s="76"/>
-      <c r="N68" s="76">
+      <c r="K69" s="20"/>
+      <c r="L69" s="33"/>
+      <c r="M69" s="76"/>
+      <c r="N69" s="76">
         <v>0.5</v>
       </c>
-      <c r="O68" s="76">
-        <v>1</v>
-      </c>
-      <c r="P68" s="76">
+      <c r="O69" s="76">
+        <v>1</v>
+      </c>
+      <c r="P69" s="76">
         <v>0.5</v>
       </c>
-      <c r="Q68" s="33"/>
-      <c r="R68" s="76">
-        <v>1</v>
-      </c>
-      <c r="S68" s="76">
-        <v>1</v>
-      </c>
-      <c r="T68" s="77"/>
-      <c r="U68" s="67">
-        <f>SUM(R68:T68)</f>
+      <c r="Q69" s="33"/>
+      <c r="R69" s="76">
+        <v>1</v>
+      </c>
+      <c r="S69" s="76">
+        <v>1</v>
+      </c>
+      <c r="T69" s="77"/>
+      <c r="U69" s="67">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="V68" s="31"/>
-      <c r="W68" s="3"/>
-      <c r="X68"/>
-      <c r="Y68"/>
-      <c r="Z68"/>
-      <c r="AA68" s="31"/>
-      <c r="AB68"/>
-      <c r="AC68"/>
-      <c r="AD68"/>
-    </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="B69" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="D69" s="13">
-        <v>7</v>
-      </c>
-      <c r="E69" s="13">
-        <v>2</v>
-      </c>
-      <c r="F69" s="13">
-        <f>CEILING(D69,W$22+1)</f>
-        <v>8</v>
-      </c>
-      <c r="G69" s="13">
-        <v>46</v>
-      </c>
-      <c r="K69" s="21"/>
-      <c r="L69" s="32"/>
-      <c r="P69" s="77"/>
-      <c r="Q69" s="31"/>
-      <c r="R69" s="75">
-        <v>1</v>
-      </c>
-      <c r="U69" s="67">
-        <f>SUM(R69:T69)</f>
-        <v>1</v>
-      </c>
       <c r="V69" s="31"/>
+      <c r="W69" s="3"/>
+      <c r="X69"/>
+      <c r="Y69"/>
+      <c r="Z69"/>
+      <c r="AA69" s="31"/>
+      <c r="AB69"/>
+      <c r="AC69"/>
+      <c r="AD69"/>
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B70" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="13">
         <v>7</v>
@@ -6773,427 +6789,400 @@
         <v>2</v>
       </c>
       <c r="F70" s="13">
-        <f>CEILING(D70,W$22+1)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="G70" s="13">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K70" s="21"/>
       <c r="L70" s="32"/>
       <c r="P70" s="77"/>
       <c r="Q70" s="31"/>
+      <c r="R70" s="75">
+        <v>1</v>
+      </c>
       <c r="U70" s="67">
-        <f>SUM(R70:T70)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="V70" s="31"/>
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A71" s="46"/>
-      <c r="B71" s="23" t="s">
+      <c r="B71" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="D71" s="13">
+        <v>7</v>
+      </c>
+      <c r="E71" s="13">
+        <v>2</v>
+      </c>
+      <c r="F71" s="13">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G71" s="13">
+        <v>47</v>
+      </c>
+      <c r="K71" s="21"/>
+      <c r="L71" s="32"/>
+      <c r="P71" s="77"/>
+      <c r="Q71" s="31"/>
+      <c r="U71" s="67">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V71" s="31"/>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A72" s="46"/>
+      <c r="B72" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="C71" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="D71" s="26">
+      <c r="C72" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D72" s="26">
         <v>10</v>
       </c>
-      <c r="E71" s="26">
-        <v>0</v>
-      </c>
-      <c r="F71" s="26">
-        <f>CEILING(D71,W$22+1)</f>
+      <c r="E72" s="26">
+        <v>0</v>
+      </c>
+      <c r="F72" s="26">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="G71" s="26">
+      <c r="G72" s="26">
         <v>34</v>
       </c>
-      <c r="H71" s="26"/>
-      <c r="I71" s="26"/>
-      <c r="J71" s="26"/>
-      <c r="K71" s="27"/>
-      <c r="L71" s="35"/>
-      <c r="M71" s="78"/>
-      <c r="N71" s="78"/>
-      <c r="O71" s="78">
-        <v>1</v>
-      </c>
-      <c r="P71" s="78"/>
-      <c r="Q71" s="35"/>
-      <c r="R71" s="78">
-        <v>1</v>
-      </c>
-      <c r="S71" s="78"/>
-      <c r="T71" s="78"/>
-      <c r="U71" s="81">
-        <f>SUM(R71:T71)</f>
-        <v>1</v>
-      </c>
-      <c r="V71" s="31"/>
-      <c r="X71" s="31"/>
-      <c r="Z71" s="6"/>
-    </row>
-    <row r="72" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="10" t="s">
+      <c r="H72" s="26"/>
+      <c r="I72" s="26"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="27"/>
+      <c r="L72" s="35"/>
+      <c r="M72" s="78"/>
+      <c r="N72" s="78"/>
+      <c r="O72" s="78">
+        <v>1</v>
+      </c>
+      <c r="P72" s="78"/>
+      <c r="Q72" s="35"/>
+      <c r="R72" s="78">
+        <v>1</v>
+      </c>
+      <c r="S72" s="78"/>
+      <c r="T72" s="78"/>
+      <c r="U72" s="81">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V72" s="31"/>
+      <c r="X72" s="31"/>
+      <c r="Z72" s="6"/>
+    </row>
+    <row r="73" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="B73" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C72" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="D72" s="13">
+      <c r="C73" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="D73" s="13">
         <v>4</v>
       </c>
-      <c r="E72" s="13">
-        <v>0</v>
-      </c>
-      <c r="F72" s="13">
-        <f>CEILING(D72,W$22+1)</f>
+      <c r="E73" s="13">
+        <v>0</v>
+      </c>
+      <c r="F73" s="13">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="G72" s="13">
+      <c r="G73" s="13">
         <v>48</v>
       </c>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="21"/>
-      <c r="L72" s="32"/>
-      <c r="M72" s="75"/>
-      <c r="N72" s="75"/>
-      <c r="O72" s="75"/>
-      <c r="P72" s="77"/>
-      <c r="Q72" s="31"/>
-      <c r="R72" s="75"/>
-      <c r="S72" s="75"/>
-      <c r="T72" s="75"/>
-      <c r="U72" s="67">
-        <f>SUM(R72:T72)</f>
-        <v>0</v>
-      </c>
-      <c r="V72" s="31"/>
-      <c r="W72" s="3"/>
-      <c r="X72"/>
-      <c r="Y72"/>
-      <c r="Z72"/>
-      <c r="AA72"/>
-      <c r="AB72"/>
-      <c r="AC72"/>
-      <c r="AD72"/>
-    </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="B73" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="C73" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="D73" s="13">
-        <v>3</v>
-      </c>
-      <c r="E73" s="13">
-        <v>0</v>
-      </c>
-      <c r="F73" s="13">
-        <f>CEILING(D73,W$22+1)</f>
-        <v>4</v>
-      </c>
-      <c r="G73" s="13">
-        <v>49</v>
-      </c>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
       <c r="K73" s="21"/>
       <c r="L73" s="32"/>
+      <c r="M73" s="75"/>
+      <c r="N73" s="75"/>
+      <c r="O73" s="75"/>
       <c r="P73" s="77"/>
-      <c r="Q73" s="32"/>
+      <c r="Q73" s="31"/>
+      <c r="R73" s="75"/>
+      <c r="S73" s="75"/>
+      <c r="T73" s="75"/>
       <c r="U73" s="67">
-        <f>SUM(R73:T73)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V73" s="31"/>
-      <c r="AA73" s="6"/>
-      <c r="AB73" s="6"/>
-      <c r="AC73" s="6"/>
-      <c r="AD73" s="6"/>
-    </row>
-    <row r="74" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="10"/>
+      <c r="W73" s="3"/>
+      <c r="X73"/>
+      <c r="Y73"/>
+      <c r="Z73"/>
+      <c r="AA73"/>
+      <c r="AB73"/>
+      <c r="AC73"/>
+      <c r="AD73"/>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B74" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="D74" s="13">
+        <v>3</v>
+      </c>
+      <c r="E74" s="13">
+        <v>0</v>
+      </c>
+      <c r="F74" s="13">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G74" s="13">
+        <v>49</v>
+      </c>
+      <c r="K74" s="21"/>
+      <c r="L74" s="32"/>
+      <c r="P74" s="77"/>
+      <c r="Q74" s="32"/>
+      <c r="U74" s="67">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V74" s="31"/>
+      <c r="AA74" s="6"/>
+      <c r="AB74" s="6"/>
+      <c r="AC74" s="6"/>
+      <c r="AD74" s="6"/>
+    </row>
+    <row r="75" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="10"/>
+      <c r="B75" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D75" s="13">
+        <v>4</v>
+      </c>
+      <c r="E75" s="13">
+        <v>0</v>
+      </c>
+      <c r="F75" s="13">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="C74" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="D74" s="13">
-        <v>4</v>
-      </c>
-      <c r="E74" s="13">
-        <v>0</v>
-      </c>
-      <c r="F74" s="13">
-        <f>CEILING(D74,W$22+1)</f>
-        <v>4</v>
-      </c>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="L74" s="75"/>
-      <c r="M74" s="75"/>
-      <c r="N74" s="75"/>
-      <c r="O74" s="75"/>
-      <c r="P74" s="77"/>
-      <c r="Q74" s="75"/>
-      <c r="R74" s="75"/>
-      <c r="S74" s="75"/>
-      <c r="T74" s="78"/>
-      <c r="U74" s="81">
-        <f>SUM(R74:T74)</f>
-        <v>0</v>
-      </c>
-      <c r="W74" s="3"/>
-      <c r="X74"/>
-      <c r="Y74"/>
-      <c r="Z74"/>
-      <c r="AA74"/>
-      <c r="AB74"/>
-      <c r="AC74"/>
-      <c r="AD74"/>
-    </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A75" s="11" t="s">
+      <c r="L75" s="75"/>
+      <c r="M75" s="75"/>
+      <c r="N75" s="75"/>
+      <c r="O75" s="75"/>
+      <c r="P75" s="77"/>
+      <c r="Q75" s="75"/>
+      <c r="R75" s="75"/>
+      <c r="S75" s="75"/>
+      <c r="T75" s="78"/>
+      <c r="U75" s="81">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W75" s="3"/>
+      <c r="X75"/>
+      <c r="Y75"/>
+      <c r="Z75"/>
+      <c r="AA75"/>
+      <c r="AB75"/>
+      <c r="AC75"/>
+      <c r="AD75"/>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A76" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B75" s="25" t="s">
+      <c r="B76" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="C75" s="25"/>
-      <c r="D75" s="12">
+      <c r="C76" s="25"/>
+      <c r="D76" s="12">
         <v>2</v>
       </c>
-      <c r="E75" s="12">
-        <v>0</v>
-      </c>
-      <c r="F75" s="12">
-        <f>CEILING(D75,W$22+1)</f>
+      <c r="E76" s="12">
+        <v>0</v>
+      </c>
+      <c r="F76" s="12">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="20"/>
-      <c r="L75" s="33">
-        <v>1</v>
-      </c>
-      <c r="M75" s="76">
-        <v>1</v>
-      </c>
-      <c r="N75" s="76">
-        <v>1</v>
-      </c>
-      <c r="O75" s="76">
-        <v>1</v>
-      </c>
-      <c r="P75" s="76">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="33">
-        <v>1</v>
-      </c>
-      <c r="R75" s="76"/>
-      <c r="S75" s="76"/>
-      <c r="T75" s="77"/>
-      <c r="U75" s="67">
-        <f>SUM(R75:T75)</f>
-        <v>0</v>
-      </c>
-      <c r="V75" s="31"/>
-    </row>
-    <row r="76" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="28"/>
-      <c r="B76" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C76" s="29"/>
-      <c r="D76" s="13">
-        <v>2</v>
-      </c>
-      <c r="E76" s="13">
-        <v>1</v>
-      </c>
-      <c r="F76" s="13">
-        <f>CEILING(D76,W$22+1)</f>
-        <v>2</v>
-      </c>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="L76" s="34"/>
-      <c r="M76" s="77">
-        <v>1</v>
-      </c>
-      <c r="N76" s="77">
-        <v>1</v>
-      </c>
-      <c r="O76" s="77">
-        <v>1</v>
-      </c>
-      <c r="P76" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q76" s="34">
-        <v>1</v>
-      </c>
-      <c r="R76" s="77">
-        <v>1</v>
-      </c>
-      <c r="S76" s="77">
-        <v>1</v>
-      </c>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="20"/>
+      <c r="L76" s="33">
+        <v>1</v>
+      </c>
+      <c r="M76" s="76">
+        <v>1</v>
+      </c>
+      <c r="N76" s="76">
+        <v>1</v>
+      </c>
+      <c r="O76" s="76">
+        <v>1</v>
+      </c>
+      <c r="P76" s="76">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="33">
+        <v>1</v>
+      </c>
+      <c r="R76" s="76"/>
+      <c r="S76" s="76"/>
       <c r="T76" s="77"/>
       <c r="U76" s="67">
-        <f>SUM(R76:T76)</f>
-        <v>2</v>
-      </c>
-      <c r="W76" s="3"/>
-    </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V76" s="31"/>
+    </row>
+    <row r="77" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="28"/>
       <c r="B77" s="29" t="s">
-        <v>212</v>
+        <v>99</v>
       </c>
       <c r="C77" s="29"/>
       <c r="D77" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77" s="13">
         <v>1</v>
       </c>
       <c r="F77" s="13">
-        <f>CEILING(D77,W$22+1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
       <c r="K77" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="L77" s="77"/>
-      <c r="M77" s="77"/>
-      <c r="N77" s="77"/>
-      <c r="O77" s="77"/>
+        <v>204</v>
+      </c>
+      <c r="L77" s="34"/>
+      <c r="M77" s="77">
+        <v>1</v>
+      </c>
+      <c r="N77" s="77">
+        <v>1</v>
+      </c>
+      <c r="O77" s="77">
+        <v>1</v>
+      </c>
       <c r="P77" s="77">
         <v>1</v>
       </c>
-      <c r="Q77" s="77"/>
+      <c r="Q77" s="34">
+        <v>1</v>
+      </c>
       <c r="R77" s="77">
         <v>1</v>
       </c>
       <c r="S77" s="77">
         <v>1</v>
       </c>
-      <c r="T77" s="77">
+      <c r="T77" s="77"/>
+      <c r="U77" s="67">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="W77" s="3"/>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A78" s="28"/>
+      <c r="B78" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C78" s="29"/>
+      <c r="D78" s="13">
+        <v>1</v>
+      </c>
+      <c r="E78" s="13">
+        <v>1</v>
+      </c>
+      <c r="F78" s="13">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="U77" s="67">
-        <f>SUM(R77:T77)</f>
+      <c r="K78" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="L78" s="77"/>
+      <c r="M78" s="77"/>
+      <c r="N78" s="77"/>
+      <c r="O78" s="77"/>
+      <c r="P78" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="77"/>
+      <c r="R78" s="77">
+        <v>1</v>
+      </c>
+      <c r="S78" s="77">
+        <v>1</v>
+      </c>
+      <c r="T78" s="77">
+        <v>2</v>
+      </c>
+      <c r="U78" s="67">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="V77" s="31"/>
-      <c r="X77" s="31"/>
-      <c r="Y77" s="31"/>
-      <c r="Z77" s="31"/>
-    </row>
-    <row r="78" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="10"/>
-      <c r="B78" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="C78" s="22"/>
-      <c r="D78" s="13">
-        <v>4</v>
-      </c>
-      <c r="E78" s="13">
-        <v>3</v>
-      </c>
-      <c r="F78" s="13">
-        <f>CEILING(D78,W$22+1)</f>
-        <v>4</v>
-      </c>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="21"/>
-      <c r="L78" s="32">
-        <v>1</v>
-      </c>
-      <c r="M78" s="75">
-        <v>1</v>
-      </c>
-      <c r="N78" s="75">
-        <v>1</v>
-      </c>
-      <c r="O78" s="75"/>
-      <c r="P78" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q78" s="73">
-        <v>1</v>
-      </c>
-      <c r="R78" s="75">
-        <v>1</v>
-      </c>
-      <c r="S78" s="75">
-        <v>1</v>
-      </c>
-      <c r="T78" s="75"/>
-      <c r="U78" s="67">
-        <f>SUM(R78:T78)</f>
-        <v>2</v>
-      </c>
-      <c r="V78" s="14"/>
-      <c r="W78" s="3"/>
-      <c r="X78"/>
+      <c r="V78" s="31"/>
+      <c r="X78" s="31"/>
       <c r="Y78" s="31"/>
-      <c r="Z78"/>
-      <c r="AA78" s="31"/>
-      <c r="AB78" s="31"/>
-      <c r="AC78" s="31"/>
-      <c r="AD78" s="31"/>
+      <c r="Z78" s="31"/>
     </row>
     <row r="79" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
       <c r="B79" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C79" s="22"/>
       <c r="D79" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E79" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F79" s="13">
-        <f>CEILING(D79,W$22+1)</f>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="G79" s="13"/>
       <c r="H79" s="13"/>
       <c r="I79" s="13"/>
       <c r="J79" s="13"/>
-      <c r="K79" s="21" t="s">
-        <v>109</v>
-      </c>
+      <c r="K79" s="21"/>
       <c r="L79" s="32">
         <v>1</v>
       </c>
@@ -7203,9 +7192,7 @@
       <c r="N79" s="75">
         <v>1</v>
       </c>
-      <c r="O79" s="75">
-        <v>1</v>
-      </c>
+      <c r="O79" s="75"/>
       <c r="P79" s="77">
         <v>1</v>
       </c>
@@ -7215,223 +7202,258 @@
       <c r="R79" s="75">
         <v>1</v>
       </c>
-      <c r="S79" s="75"/>
+      <c r="S79" s="75">
+        <v>1</v>
+      </c>
       <c r="T79" s="75"/>
       <c r="U79" s="67">
-        <f>SUM(R79:T79)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="V79" s="14"/>
       <c r="W79" s="3"/>
-      <c r="X79" s="31"/>
+      <c r="X79"/>
       <c r="Y79" s="31"/>
-      <c r="Z79" s="31"/>
+      <c r="Z79"/>
       <c r="AA79" s="31"/>
       <c r="AB79" s="31"/>
       <c r="AC79" s="31"/>
       <c r="AD79" s="31"/>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="10"/>
       <c r="B80" s="22" t="s">
-        <v>232</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C80" s="22"/>
       <c r="D80" s="13">
         <v>1</v>
       </c>
       <c r="E80" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" s="13">
-        <f>CEILING(D80,W$22+1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
       <c r="K80" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="L80" s="75"/>
+        <v>109</v>
+      </c>
+      <c r="L80" s="32">
+        <v>1</v>
+      </c>
+      <c r="M80" s="75">
+        <v>1</v>
+      </c>
+      <c r="N80" s="75">
+        <v>1</v>
+      </c>
+      <c r="O80" s="75">
+        <v>1</v>
+      </c>
       <c r="P80" s="77">
         <v>1</v>
       </c>
-      <c r="Q80" s="73"/>
+      <c r="Q80" s="73">
+        <v>1</v>
+      </c>
       <c r="R80" s="75">
         <v>1</v>
       </c>
+      <c r="S80" s="75"/>
+      <c r="T80" s="75"/>
       <c r="U80" s="67">
-        <f>SUM(R80:T80)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="V80" s="14"/>
+      <c r="W80" s="3"/>
+      <c r="X80" s="31"/>
+      <c r="Y80" s="31"/>
+      <c r="Z80" s="31"/>
+      <c r="AA80" s="31"/>
+      <c r="AB80" s="31"/>
+      <c r="AC80" s="31"/>
+      <c r="AD80" s="31"/>
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B81" s="22" t="s">
-        <v>152</v>
+        <v>229</v>
       </c>
       <c r="D81" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E81" s="13">
         <v>1</v>
       </c>
       <c r="F81" s="13">
-        <f>CEILING(D81,W$22+1)</f>
-        <v>4</v>
-      </c>
-      <c r="K81" s="21"/>
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="K81" s="21" t="s">
+        <v>230</v>
+      </c>
       <c r="L81" s="75"/>
-      <c r="P81" s="77"/>
-      <c r="Q81" s="75"/>
+      <c r="P81" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="73"/>
+      <c r="R81" s="75">
+        <v>1</v>
+      </c>
       <c r="U81" s="67">
-        <f>SUM(R81:T81)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="V81" s="14"/>
-      <c r="AA81" s="6"/>
-      <c r="AB81" s="6"/>
-      <c r="AC81" s="6"/>
-      <c r="AD81" s="6"/>
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B82" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D82" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E82" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" s="13">
-        <f>CEILING(D82,W$22+1)</f>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="K82" s="21"/>
       <c r="L82" s="75"/>
       <c r="P82" s="77"/>
       <c r="Q82" s="75"/>
       <c r="U82" s="67">
-        <f>SUM(R82:T82)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V82" s="14"/>
-    </row>
-    <row r="83" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="10"/>
+      <c r="AA82" s="6"/>
+      <c r="AB82" s="6"/>
+      <c r="AC82" s="6"/>
+      <c r="AD82" s="6"/>
+    </row>
+    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B83" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C83" s="22"/>
+        <v>153</v>
+      </c>
       <c r="D83" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E83" s="13">
         <v>0</v>
       </c>
       <c r="F83" s="13">
-        <f>CEILING(D83,W$22+1)</f>
-        <v>4</v>
-      </c>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
-      <c r="J83" s="13"/>
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
       <c r="K83" s="21"/>
       <c r="L83" s="75"/>
-      <c r="M83" s="75"/>
-      <c r="N83" s="75"/>
-      <c r="O83" s="75"/>
       <c r="P83" s="77"/>
       <c r="Q83" s="75"/>
-      <c r="R83" s="75"/>
-      <c r="S83" s="75"/>
-      <c r="T83" s="75"/>
       <c r="U83" s="67">
-        <f>SUM(R83:T83)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V83" s="14"/>
-      <c r="W83" s="3"/>
-      <c r="X83"/>
-      <c r="Y83"/>
-      <c r="Z83"/>
-      <c r="AA83" s="6"/>
-      <c r="AB83" s="6"/>
-      <c r="AC83" s="6"/>
-      <c r="AD83" s="6"/>
-    </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="B84" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="C84" s="23"/>
-      <c r="D84" s="26">
-        <v>1</v>
-      </c>
-      <c r="E84" s="26">
-        <v>0</v>
-      </c>
-      <c r="F84" s="26">
-        <f>CEILING(D84,W$22+1)</f>
+    </row>
+    <row r="84" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="10"/>
+      <c r="B84" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C84" s="22"/>
+      <c r="D84" s="13">
+        <v>4</v>
+      </c>
+      <c r="E84" s="13">
+        <v>0</v>
+      </c>
+      <c r="F84" s="13">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="21"/>
+      <c r="L84" s="75"/>
+      <c r="M84" s="75"/>
+      <c r="N84" s="75"/>
+      <c r="O84" s="75"/>
+      <c r="P84" s="77"/>
+      <c r="Q84" s="75"/>
+      <c r="R84" s="75"/>
+      <c r="S84" s="75"/>
+      <c r="T84" s="75"/>
+      <c r="U84" s="67">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V84" s="14"/>
+      <c r="W84" s="3"/>
+      <c r="X84"/>
+      <c r="Y84"/>
+      <c r="Z84"/>
+      <c r="AA84" s="6"/>
+      <c r="AB84" s="6"/>
+      <c r="AC84" s="6"/>
+      <c r="AD84" s="6"/>
+    </row>
+    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B85" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C85" s="23"/>
+      <c r="D85" s="26">
+        <v>1</v>
+      </c>
+      <c r="E85" s="26">
+        <v>0</v>
+      </c>
+      <c r="F85" s="26">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="G84" s="26"/>
-      <c r="H84" s="26"/>
-      <c r="I84" s="26"/>
-      <c r="J84" s="26"/>
-      <c r="K84" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="L84" s="35"/>
-      <c r="M84" s="78"/>
-      <c r="N84" s="78">
-        <v>1</v>
-      </c>
-      <c r="O84" s="78">
-        <v>1</v>
-      </c>
-      <c r="P84" s="78"/>
-      <c r="Q84" s="35">
-        <v>1</v>
-      </c>
-      <c r="R84" s="78"/>
-      <c r="S84" s="78"/>
-      <c r="T84" s="78"/>
-      <c r="U84" s="81">
-        <f>SUM(R84:T84)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="11"/>
-      <c r="X85" s="31"/>
-      <c r="Y85" s="31"/>
-      <c r="Z85" s="31"/>
-      <c r="AA85" s="6"/>
-      <c r="AB85" s="6"/>
-      <c r="AC85" s="6"/>
-      <c r="AD85" s="6"/>
-    </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="K86" s="82"/>
-      <c r="L86" s="63"/>
-      <c r="M86" s="63"/>
-      <c r="N86" s="63"/>
-      <c r="O86" s="60" t="s">
-        <v>161</v>
-      </c>
-      <c r="P86" s="61"/>
-      <c r="Q86" s="61">
-        <f t="array" ref="Q86">SUM($F2:$F84*(Q2:Q84&gt;=0.9)*($U2:$U84&gt;=$W$12))</f>
-        <v>126</v>
-      </c>
-      <c r="R86" s="61">
-        <f t="array" ref="R86">SUM($F2:$F84*(R2:R84&gt;=0.9)*($U2:$U84&gt;=$W$12))</f>
-        <v>168</v>
-      </c>
-      <c r="S86" s="61">
-        <f t="array" ref="S86">SUM($F2:$F84*(S2:S84&gt;=0.9)*($U2:$U84&gt;=$W$12))</f>
-        <v>152</v>
-      </c>
-      <c r="T86" s="63"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="26"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="L85" s="35"/>
+      <c r="M85" s="78"/>
+      <c r="N85" s="78">
+        <v>1</v>
+      </c>
+      <c r="O85" s="78">
+        <v>1</v>
+      </c>
+      <c r="P85" s="78"/>
+      <c r="Q85" s="35">
+        <v>1</v>
+      </c>
+      <c r="R85" s="78"/>
+      <c r="S85" s="78"/>
+      <c r="T85" s="78"/>
+      <c r="U85" s="81">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="11"/>
+      <c r="X86" s="31"/>
+      <c r="Y86" s="31"/>
+      <c r="Z86" s="31"/>
       <c r="AA86" s="6"/>
       <c r="AB86" s="6"/>
       <c r="AC86" s="6"/>
@@ -7442,23 +7464,27 @@
       <c r="L87" s="63"/>
       <c r="M87" s="63"/>
       <c r="N87" s="63"/>
-      <c r="O87" s="62" t="s">
-        <v>163</v>
-      </c>
-      <c r="P87" s="63"/>
-      <c r="Q87" s="63">
-        <f t="array" ref="Q87">SUM($F2:$F84*Q2:Q84*($U2:$U84&gt;=$W$12))</f>
-        <v>128</v>
-      </c>
-      <c r="R87" s="63">
-        <f t="array" ref="R87">SUM($F2:$F84*R2:R84*($U2:$U84&gt;=$W$12))</f>
-        <v>170</v>
-      </c>
-      <c r="S87" s="63">
-        <f t="array" ref="S87">SUM($F2:$F84*S2:S84*($U2:$U84&gt;=$W$12))</f>
-        <v>152.4</v>
+      <c r="O87" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="P87" s="61"/>
+      <c r="Q87" s="61">
+        <f t="array" ref="Q87">SUM($F2:$F85*(Q2:Q85&gt;=0.9)*($U2:$U85&gt;=$W$12))</f>
+        <v>148</v>
+      </c>
+      <c r="R87" s="61">
+        <f t="array" ref="R87">SUM($F2:$F85*(R2:R85&gt;=0.9)*($U2:$U85&gt;=$W$12))</f>
+        <v>168</v>
+      </c>
+      <c r="S87" s="61">
+        <f t="array" ref="S87">SUM($F2:$F85*(S2:S85&gt;=0.9)*($U2:$U85&gt;=$W$12))</f>
+        <v>152</v>
       </c>
       <c r="T87" s="63"/>
+      <c r="AA87" s="6"/>
+      <c r="AB87" s="6"/>
+      <c r="AC87" s="6"/>
+      <c r="AD87" s="6"/>
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.3">
       <c r="K88" s="82"/>
@@ -7466,20 +7492,20 @@
       <c r="M88" s="63"/>
       <c r="N88" s="63"/>
       <c r="O88" s="62" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P88" s="63"/>
       <c r="Q88" s="63">
-        <f t="array" ref="Q88">SUM($F$2:$F$84*(Q$2:Q$84&gt;=0.1)*($U$2:$U$84&gt;=$W$12))</f>
-        <v>130</v>
+        <f t="array" ref="Q88">SUM($F2:$F85*Q2:Q85*($U2:$U85&gt;=$W$12))</f>
+        <v>150</v>
       </c>
       <c r="R88" s="63">
-        <f t="array" ref="R88">SUM($F$2:$F$84*(R$2:R$84&gt;=0.1)*($U$2:$U$84&gt;=$W$12))</f>
-        <v>172</v>
+        <f t="array" ref="R88">SUM($F2:$F85*R2:R85*($U2:$U85&gt;=$W$12))</f>
+        <v>170</v>
       </c>
       <c r="S88" s="63">
-        <f t="array" ref="S88">SUM($F$2:$F$84*(S$2:S$84&gt;=0.1)*($U$2:$U$84&gt;=$W$12))</f>
-        <v>156</v>
+        <f t="array" ref="S88">SUM($F2:$F85*S2:S85*($U2:$U85&gt;=$W$12))</f>
+        <v>152.4</v>
       </c>
       <c r="T88" s="63"/>
     </row>
@@ -7489,134 +7515,157 @@
       <c r="M89" s="63"/>
       <c r="N89" s="63"/>
       <c r="O89" s="62" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P89" s="63"/>
       <c r="Q89" s="63">
-        <f>LOOKUP($W$12,$W26:$W34,$X26:$X34)</f>
-        <v>222</v>
+        <f t="array" ref="Q89">SUM($F$2:$F$85*(Q$2:Q$85&gt;=0.1)*($U$2:$U$85&gt;=$W$12))</f>
+        <v>152</v>
       </c>
       <c r="R89" s="63">
-        <f>LOOKUP($W$12,$W26:$W34,$X26:$X34)</f>
-        <v>222</v>
+        <f t="array" ref="R89">SUM($F$2:$F$85*(R$2:R$85&gt;=0.1)*($U$2:$U$85&gt;=$W$12))</f>
+        <v>172</v>
       </c>
       <c r="S89" s="63">
-        <f>LOOKUP($W$12,$W26:$W34,$X26:$X34)</f>
-        <v>222</v>
+        <f t="array" ref="S89">SUM($F$2:$F$85*(S$2:S$85&gt;=0.1)*($U$2:$U$85&gt;=$W$12))</f>
+        <v>156</v>
       </c>
       <c r="T89" s="63"/>
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.3">
       <c r="K90" s="82"/>
-      <c r="L90" s="64"/>
-      <c r="M90" s="64"/>
-      <c r="N90" s="64"/>
+      <c r="L90" s="63"/>
+      <c r="M90" s="63"/>
+      <c r="N90" s="63"/>
       <c r="O90" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="P90" s="63"/>
+      <c r="Q90" s="63">
+        <f>LOOKUP($W$12,$W26:$W34,$X26:$X34)</f>
+        <v>244</v>
+      </c>
+      <c r="R90" s="63">
+        <f>LOOKUP($W$12,$W26:$W34,$X26:$X34)</f>
+        <v>244</v>
+      </c>
+      <c r="S90" s="63">
+        <f>LOOKUP($W$12,$W26:$W34,$X26:$X34)</f>
+        <v>244</v>
+      </c>
+      <c r="T90" s="63"/>
+    </row>
+    <row r="91" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="K91" s="82"/>
+      <c r="L91" s="64"/>
+      <c r="M91" s="64"/>
+      <c r="N91" s="64"/>
+      <c r="O91" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="P90" s="64"/>
-      <c r="Q90" s="64">
-        <f>Q87/Q89</f>
-        <v>0.57657657657657657</v>
-      </c>
-      <c r="R90" s="64">
-        <f t="shared" ref="R90:S90" si="1">R87/R89</f>
-        <v>0.76576576576576572</v>
-      </c>
-      <c r="S90" s="64">
-        <f t="shared" si="1"/>
-        <v>0.68648648648648647</v>
-      </c>
-      <c r="T90" s="64"/>
-      <c r="Z90" s="31"/>
-    </row>
-    <row r="91" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D91" s="31"/>
-      <c r="K91" s="82"/>
-      <c r="L91" s="63"/>
-      <c r="M91" s="63"/>
-      <c r="N91" s="63"/>
-      <c r="O91" s="65" t="s">
+      <c r="P91" s="64"/>
+      <c r="Q91" s="64">
+        <f>Q88/Q90</f>
+        <v>0.61475409836065575</v>
+      </c>
+      <c r="R91" s="64">
+        <f t="shared" ref="R91:S91" si="6">R88/R90</f>
+        <v>0.69672131147540983</v>
+      </c>
+      <c r="S91" s="64">
+        <f t="shared" si="6"/>
+        <v>0.62459016393442623</v>
+      </c>
+      <c r="T91" s="64"/>
+      <c r="Z91" s="31"/>
+    </row>
+    <row r="92" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D92" s="31"/>
+      <c r="K92" s="82"/>
+      <c r="L92" s="63"/>
+      <c r="M92" s="63"/>
+      <c r="N92" s="63"/>
+      <c r="O92" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="P91" s="66"/>
-      <c r="Q91" s="66">
-        <f t="array" ref="Q91">SUM($F2:$F84*Q2:Q84*($U2:$U84&lt;$W$12))</f>
-        <v>37</v>
-      </c>
-      <c r="R91" s="66">
-        <f t="array" ref="R91">SUM($F2:$F84*R2:R84*($U2:$U84&lt;$W$12))</f>
+      <c r="P92" s="66"/>
+      <c r="Q92" s="66">
+        <f t="array" ref="Q92">SUM($F2:$F85*Q2:Q85*($U2:$U85&lt;$W$12))</f>
+        <v>15</v>
+      </c>
+      <c r="R92" s="66">
+        <f t="array" ref="R92">SUM($F2:$F85*R2:R85*($U2:$U85&lt;$W$12))</f>
         <v>3</v>
       </c>
-      <c r="S91" s="66">
-        <f t="array" ref="S91">SUM($F2:$F84*S2:S84*($U2:$U84&lt;$W$12))</f>
-        <v>0</v>
-      </c>
-      <c r="T91" s="63"/>
-    </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="D92" s="31"/>
-    </row>
-    <row r="93" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="10"/>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="13"/>
-      <c r="J93" s="13"/>
-      <c r="K93" s="19"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="75"/>
-      <c r="N93" s="75"/>
-      <c r="O93" s="75"/>
-      <c r="P93" s="75"/>
-      <c r="Q93" s="2"/>
-      <c r="R93" s="75"/>
-      <c r="S93" s="75"/>
-      <c r="T93" s="75"/>
-      <c r="U93" s="3"/>
-      <c r="V93" s="3"/>
-      <c r="W93" s="3"/>
-      <c r="X93"/>
-      <c r="Y93"/>
-      <c r="Z93"/>
-      <c r="AA93"/>
-      <c r="AB93"/>
-      <c r="AC93"/>
-      <c r="AD93"/>
-    </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="D94" s="31"/>
-    </row>
-    <row r="99" spans="27:30" x14ac:dyDescent="0.3">
-      <c r="AA99" s="6"/>
-      <c r="AB99" s="6"/>
-      <c r="AC99" s="6"/>
-      <c r="AD99" s="6"/>
-    </row>
-    <row r="103" spans="27:30" x14ac:dyDescent="0.3">
-      <c r="AA103" s="6"/>
-      <c r="AB103" s="6"/>
-      <c r="AC103" s="6"/>
-      <c r="AD103" s="6"/>
-    </row>
-    <row r="108" spans="27:30" x14ac:dyDescent="0.3">
-      <c r="AA108" s="6"/>
-      <c r="AB108" s="6"/>
-      <c r="AC108" s="6"/>
-      <c r="AD108" s="6"/>
-    </row>
-    <row r="121" spans="27:30" x14ac:dyDescent="0.3">
-      <c r="AA121" s="31"/>
-      <c r="AB121" s="31"/>
-      <c r="AC121" s="31"/>
-      <c r="AD121" s="31"/>
+      <c r="S92" s="66">
+        <f t="array" ref="S92">SUM($F2:$F85*S2:S85*($U2:$U85&lt;$W$12))</f>
+        <v>0</v>
+      </c>
+      <c r="T92" s="63"/>
+    </row>
+    <row r="93" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="D93" s="31"/>
+    </row>
+    <row r="94" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="10"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="22"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="13"/>
+      <c r="K94" s="19"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="75"/>
+      <c r="N94" s="75"/>
+      <c r="O94" s="75"/>
+      <c r="P94" s="75"/>
+      <c r="Q94" s="2"/>
+      <c r="R94" s="75"/>
+      <c r="S94" s="75"/>
+      <c r="T94" s="75"/>
+      <c r="U94" s="3"/>
+      <c r="V94" s="3"/>
+      <c r="W94" s="3"/>
+      <c r="X94"/>
+      <c r="Y94"/>
+      <c r="Z94"/>
+      <c r="AA94"/>
+      <c r="AB94"/>
+      <c r="AC94"/>
+      <c r="AD94"/>
+    </row>
+    <row r="95" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="D95" s="31"/>
+    </row>
+    <row r="100" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AA100" s="6"/>
+      <c r="AB100" s="6"/>
+      <c r="AC100" s="6"/>
+      <c r="AD100" s="6"/>
+    </row>
+    <row r="104" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AA104" s="6"/>
+      <c r="AB104" s="6"/>
+      <c r="AC104" s="6"/>
+      <c r="AD104" s="6"/>
+    </row>
+    <row r="109" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AA109" s="6"/>
+      <c r="AB109" s="6"/>
+      <c r="AC109" s="6"/>
+      <c r="AD109" s="6"/>
+    </row>
+    <row r="122" spans="27:30" x14ac:dyDescent="0.3">
+      <c r="AA122" s="31"/>
+      <c r="AB122" s="31"/>
+      <c r="AC122" s="31"/>
+      <c r="AD122" s="31"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:U84">
+  <conditionalFormatting sqref="B2:U59 B61:U85 C60:U60">
     <cfRule type="expression" dxfId="2" priority="7" stopIfTrue="1">
       <formula>$U2&gt;=(0.5+$W$12)</formula>
     </cfRule>

--- a/StudentGuideModule2/what_labs_to_include/132 lab list for 2021spring.xlsx
+++ b/StudentGuideModule2/what_labs_to_include/132 lab list for 2021spring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtrawick\Desktop\github\132\StudentGuideModule2\what_labs_to_include\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747CCA84-CDAC-4184-B909-705275FD06F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08723872-15D6-4D2C-88B6-37F9B8D97D96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18780" yWindow="5136" windowWidth="26616" windowHeight="15936" tabRatio="541" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2922,8 +2922,8 @@
   <dimension ref="A1:AD122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K61" sqref="K61"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4399,15 +4399,15 @@
         <v>0</v>
       </c>
       <c r="X26" s="6">
-        <f>SUMIF(U$2:U$86,"&gt;=" &amp; W26,F$2:F$86)</f>
+        <f t="shared" ref="X26:X34" si="2">SUMIF(U$2:U$86,"&gt;=" &amp; W26,F$2:F$86)</f>
         <v>370</v>
       </c>
       <c r="Y26" s="6">
-        <f>SUMIF(U$2:U$86,"&gt;=" &amp; W26,E$2:E$86)</f>
+        <f t="shared" ref="Y26:Y34" si="3">SUMIF(U$2:U$86,"&gt;=" &amp; W26,E$2:E$86)</f>
         <v>29</v>
       </c>
       <c r="Z26" s="8">
-        <f t="shared" ref="Z26:Z34" si="2">($Y$17 + $Y$15*X26+$Y$16*Y26)*(1+Y$18+Y$19)</f>
+        <f t="shared" ref="Z26:Z34" si="4">($Y$17 + $Y$15*X26+$Y$16*Y26)*(1+Y$18+Y$19)</f>
         <v>39.26</v>
       </c>
       <c r="AA26" s="31"/>
@@ -4452,11 +4452,11 @@
         <v>0.5</v>
       </c>
       <c r="X27" s="6">
-        <f>SUMIF(U$2:U$86,"&gt;=" &amp; W27,F$2:F$86)</f>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="Y27" s="6">
-        <f>SUMIF(U$2:U$86,"&gt;=" &amp; W27,E$2:E$86)</f>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="Z27" s="8">
@@ -4528,15 +4528,15 @@
         <v>1</v>
       </c>
       <c r="X28" s="6">
-        <f>SUMIF(U$2:U$86,"&gt;=" &amp; W28,F$2:F$86)</f>
+        <f t="shared" si="2"/>
         <v>244</v>
       </c>
       <c r="Y28" s="6">
-        <f>SUMIF(U$2:U$86,"&gt;=" &amp; W28,E$2:E$86)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="Z28" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>28.340000000000003</v>
       </c>
     </row>
@@ -4599,15 +4599,15 @@
         <v>1.5</v>
       </c>
       <c r="X29" s="29">
-        <f>SUMIF(U$2:U$86,"&gt;=" &amp; W29,F$2:F$86)</f>
+        <f t="shared" si="2"/>
         <v>172</v>
       </c>
       <c r="Y29" s="29">
-        <f>SUMIF(U$2:U$86,"&gt;=" &amp; W29,E$2:E$86)</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="Z29" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>21.32</v>
       </c>
       <c r="AA29" s="31"/>
@@ -4655,15 +4655,15 @@
         <v>2</v>
       </c>
       <c r="X30" s="6">
-        <f>SUMIF(U$2:U$86,"&gt;=" &amp; W30,F$2:F$86)</f>
+        <f t="shared" si="2"/>
         <v>166</v>
       </c>
       <c r="Y30" s="6">
-        <f>SUMIF(U$2:U$86,"&gt;=" &amp; W30,E$2:E$86)</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="Z30" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20.930000000000003</v>
       </c>
     </row>
@@ -4705,15 +4705,15 @@
         <v>2.5</v>
       </c>
       <c r="X31" s="6">
-        <f>SUMIF(U$2:U$86,"&gt;=" &amp; W31,F$2:F$86)</f>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="Y31" s="6">
-        <f>SUMIF(U$2:U$86,"&gt;=" &amp; W31,E$2:E$86)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="Z31" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10.530000000000003</v>
       </c>
       <c r="AA31" s="31"/>
@@ -4770,15 +4770,15 @@
         <v>3</v>
       </c>
       <c r="X32" s="6">
-        <f>SUMIF(U$2:U$86,"&gt;=" &amp; W32,F$2:F$86)</f>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="Y32" s="6">
-        <f>SUMIF(U$2:U$86,"&gt;=" &amp; W32,E$2:E$86)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="Z32" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10.530000000000003</v>
       </c>
     </row>
@@ -4849,15 +4849,15 @@
         <v>3.5</v>
       </c>
       <c r="X33" s="6">
-        <f>SUMIF(U$2:U$86,"&gt;=" &amp; W33,F$2:F$86)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="Y33" s="6">
-        <f>SUMIF(U$2:U$86,"&gt;=" &amp; W33,E$2:E$86)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Z33" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.2</v>
       </c>
       <c r="AA33"/>
@@ -4879,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="13">
-        <f t="shared" ref="F34:F66" si="3">CEILING(D34,W$22+1)</f>
+        <f t="shared" ref="F34:F66" si="5">CEILING(D34,W$22+1)</f>
         <v>2</v>
       </c>
       <c r="J34" s="13">
@@ -4921,15 +4921,15 @@
         <v>4</v>
       </c>
       <c r="X34" s="45">
-        <f>SUMIF(U$2:U$86,"&gt;=" &amp; W34,F$2:F$86)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="Y34" s="45">
-        <f>SUMIF(U$2:U$86,"&gt;=" &amp; W34,E$2:E$86)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Z34" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.2</v>
       </c>
     </row>
@@ -4948,7 +4948,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G35" s="13">
@@ -5018,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G36" s="13">
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H37" s="13">
@@ -5117,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J38" s="13">
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J39" s="13">
@@ -5213,7 +5213,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="G40" s="13">
@@ -5280,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="G41" s="12" t="s">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="G42" s="13">
@@ -5413,7 +5413,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K43" s="21" t="s">
@@ -5444,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="H44" s="13">
@@ -5496,7 +5496,7 @@
         <v>2</v>
       </c>
       <c r="F45" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="G45" s="13" t="s">
@@ -5556,7 +5556,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="G46" s="12" t="s">
@@ -5616,7 +5616,7 @@
         <v>2</v>
       </c>
       <c r="F47" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K47" s="21" t="s">
@@ -5661,7 +5661,7 @@
         <v>3</v>
       </c>
       <c r="F48" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="G48" s="13" t="s">
@@ -5726,7 +5726,7 @@
         <v>4</v>
       </c>
       <c r="F49" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="G49" s="13"/>
@@ -5776,7 +5776,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="G50" s="13">
@@ -5834,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G51" s="13">
@@ -5887,7 +5887,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="G52" s="12">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G53" s="13">
@@ -5998,7 +5998,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="G54" s="12"/>
@@ -6057,7 +6057,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G55" s="13">
@@ -6114,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G56" s="13">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G57" s="13">
@@ -6204,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="G58" s="13">
@@ -6262,7 +6262,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="G59" s="13">
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G60" s="13"/>
@@ -6364,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="G61" s="13">
@@ -6420,7 +6420,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G62" s="13"/>
@@ -6459,7 +6459,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H63" s="13">
@@ -6517,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J64" s="13">
@@ -6557,7 +6557,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="J65" s="13">
@@ -6602,7 +6602,7 @@
         <v>2</v>
       </c>
       <c r="F66" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G66" s="13">
@@ -6641,7 +6641,7 @@
         <v>1</v>
       </c>
       <c r="F67" s="13">
-        <f t="shared" ref="F67:F85" si="4">CEILING(D67,W$22+1)</f>
+        <f t="shared" ref="F67:F85" si="6">CEILING(D67,W$22+1)</f>
         <v>8</v>
       </c>
       <c r="G67" s="13">
@@ -6658,7 +6658,7 @@
         <v>1</v>
       </c>
       <c r="U67" s="67">
-        <f t="shared" ref="U67:U85" si="5">SUM(Q67:T67)</f>
+        <f t="shared" ref="U67:U85" si="7">SUM(Q67:T67)</f>
         <v>1</v>
       </c>
       <c r="V67" s="31"/>
@@ -6679,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="J68" s="13">
@@ -6703,7 +6703,7 @@
       <c r="Q68" s="32"/>
       <c r="T68" s="78"/>
       <c r="U68" s="81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V68" s="31"/>
@@ -6726,7 +6726,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="G69" s="12">
@@ -6762,7 +6762,7 @@
       </c>
       <c r="T69" s="77"/>
       <c r="U69" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="V69" s="31"/>
@@ -6789,7 +6789,7 @@
         <v>2</v>
       </c>
       <c r="F70" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="G70" s="13">
@@ -6803,7 +6803,7 @@
         <v>1</v>
       </c>
       <c r="U70" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V70" s="31"/>
@@ -6822,7 +6822,7 @@
         <v>2</v>
       </c>
       <c r="F71" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="G71" s="13">
@@ -6833,7 +6833,7 @@
       <c r="P71" s="77"/>
       <c r="Q71" s="31"/>
       <c r="U71" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V71" s="31"/>
@@ -6853,7 +6853,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="G72" s="26">
@@ -6877,7 +6877,7 @@
       <c r="S72" s="78"/>
       <c r="T72" s="78"/>
       <c r="U72" s="81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V72" s="31"/>
@@ -6901,7 +6901,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="G73" s="13">
@@ -6921,7 +6921,7 @@
       <c r="S73" s="75"/>
       <c r="T73" s="75"/>
       <c r="U73" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V73" s="31"/>
@@ -6948,7 +6948,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="G74" s="13">
@@ -6959,7 +6959,7 @@
       <c r="P74" s="77"/>
       <c r="Q74" s="32"/>
       <c r="U74" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V74" s="31"/>
@@ -6983,7 +6983,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="G75" s="13"/>
@@ -7003,7 +7003,7 @@
       <c r="S75" s="75"/>
       <c r="T75" s="78"/>
       <c r="U75" s="81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W75" s="3"/>
@@ -7030,7 +7030,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="G76" s="12"/>
@@ -7060,7 +7060,7 @@
       <c r="S76" s="76"/>
       <c r="T76" s="77"/>
       <c r="U76" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V76" s="31"/>
@@ -7078,7 +7078,7 @@
         <v>1</v>
       </c>
       <c r="F77" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="G77" s="13"/>
@@ -7112,7 +7112,7 @@
       </c>
       <c r="T77" s="77"/>
       <c r="U77" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="W77" s="3"/>
@@ -7130,7 +7130,7 @@
         <v>1</v>
       </c>
       <c r="F78" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="K78" s="21" t="s">
@@ -7154,7 +7154,7 @@
         <v>2</v>
       </c>
       <c r="U78" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="V78" s="31"/>
@@ -7175,7 +7175,7 @@
         <v>3</v>
       </c>
       <c r="F79" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="G79" s="13"/>
@@ -7207,7 +7207,7 @@
       </c>
       <c r="T79" s="75"/>
       <c r="U79" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="V79" s="14"/>
@@ -7233,7 +7233,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="G80" s="13"/>
@@ -7267,7 +7267,7 @@
       <c r="S80" s="75"/>
       <c r="T80" s="75"/>
       <c r="U80" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="V80" s="14"/>
@@ -7291,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="F81" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="K81" s="21" t="s">
@@ -7306,7 +7306,7 @@
         <v>1</v>
       </c>
       <c r="U81" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V81" s="14"/>
@@ -7322,7 +7322,7 @@
         <v>1</v>
       </c>
       <c r="F82" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K82" s="21"/>
@@ -7330,7 +7330,7 @@
       <c r="P82" s="77"/>
       <c r="Q82" s="75"/>
       <c r="U82" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V82" s="14"/>
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="K83" s="21"/>
@@ -7358,7 +7358,7 @@
       <c r="P83" s="77"/>
       <c r="Q83" s="75"/>
       <c r="U83" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V83" s="14"/>
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="F84" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="G84" s="13"/>
@@ -7394,7 +7394,7 @@
       <c r="S84" s="75"/>
       <c r="T84" s="75"/>
       <c r="U84" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V84" s="14"/>
@@ -7419,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="F85" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="G85" s="26"/>
@@ -7445,7 +7445,7 @@
       <c r="S85" s="78"/>
       <c r="T85" s="78"/>
       <c r="U85" s="81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -7569,11 +7569,11 @@
         <v>0.61475409836065575</v>
       </c>
       <c r="R91" s="64">
-        <f t="shared" ref="R91:S91" si="6">R88/R90</f>
+        <f t="shared" ref="R91:S91" si="8">R88/R90</f>
         <v>0.69672131147540983</v>
       </c>
       <c r="S91" s="64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.62459016393442623</v>
       </c>
       <c r="T91" s="64"/>

--- a/StudentGuideModule2/what_labs_to_include/132 lab list for 2021spring.xlsx
+++ b/StudentGuideModule2/what_labs_to_include/132 lab list for 2021spring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtrawick\Desktop\github\132\StudentGuideModule2\what_labs_to_include\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08723872-15D6-4D2C-88B6-37F9B8D97D96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498BE80D-8AF8-420F-BFD4-25A6C1D2B984}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18780" yWindow="5136" windowWidth="26616" windowHeight="15936" tabRatio="541" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -55,8 +52,8 @@
           </rPr>
           <t xml:space="preserve">
 E: experimental
-T: theory
-S: simulation (uses software for visualization)</t>
+S: simulation (uses software for visualization)
+T: theory (essentially a "worksheet" deriving a result or solving example problems)</t>
         </r>
       </text>
     </comment>
@@ -84,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -108,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -135,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="L7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -161,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="L8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -187,7 +184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -213,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="T11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -238,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="G16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -262,7 +259,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="U19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -287,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="T21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -311,7 +308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="L23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -337,7 +334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="S25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -361,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="T25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -385,7 +382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="V25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -410,7 +407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="L27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -437,7 +434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="L28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -461,7 +458,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="G30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -485,7 +482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="L30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -510,7 +507,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="M30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -525,7 +522,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="M31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -540,7 +537,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="L33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -564,7 +561,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="G34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -589,7 +586,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+    <comment ref="L34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -613,7 +610,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+    <comment ref="G35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -638,7 +635,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+    <comment ref="L35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -662,7 +659,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+    <comment ref="L38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -687,7 +684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
+    <comment ref="L41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -711,7 +708,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
+    <comment ref="G46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -735,7 +732,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
+    <comment ref="L46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -760,7 +757,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
+    <comment ref="G48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -785,7 +782,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
+    <comment ref="L48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
       <text>
         <r>
           <rPr>
@@ -811,7 +808,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
+    <comment ref="L55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
       <text>
         <r>
           <rPr>
@@ -835,7 +832,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P56" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
+    <comment ref="L56" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
       <text>
         <r>
           <rPr>
@@ -860,7 +857,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P58" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
+    <comment ref="L58" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
       <text>
         <r>
           <rPr>
@@ -884,7 +881,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P63" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
+    <comment ref="L63" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
       <text>
         <r>
           <rPr>
@@ -909,7 +906,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P66" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
+    <comment ref="L66" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
       <text>
         <r>
           <rPr>
@@ -933,7 +930,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P69" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
+    <comment ref="L69" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
       <text>
         <r>
           <rPr>
@@ -958,7 +955,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P76" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
+    <comment ref="L76" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
       <text>
         <r>
           <rPr>
@@ -987,7 +984,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="235">
   <si>
     <t>1 Music to Our Ears: Standing Waves in Strings 7</t>
   </si>
@@ -1505,27 +1502,6 @@
   </si>
   <si>
     <t>Electric Charge and the Electroscope</t>
-  </si>
-  <si>
-    <t>35*</t>
-  </si>
-  <si>
-    <t>40*</t>
-  </si>
-  <si>
-    <t>41*</t>
-  </si>
-  <si>
-    <t>lab# sp15</t>
-  </si>
-  <si>
-    <t>lab# sp16</t>
-  </si>
-  <si>
-    <t>lab# fa16</t>
-  </si>
-  <si>
-    <t>lab# sp17</t>
   </si>
   <si>
     <t>How to Tune a Piano</t>
@@ -1722,10 +1698,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1873,6 +1850,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2301,7 +2285,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2346,8 +2330,11 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2541,8 +2528,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="47">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2571,6 +2577,7 @@
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Currency" xfId="42" builtinId="4"/>
+    <cellStyle name="Currency 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -2581,9 +2588,11 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Percent" xfId="43" builtinId="5"/>
+    <cellStyle name="Percent 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -2919,11 +2928,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD122"/>
+  <dimension ref="A1:Z122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K40" sqref="K40"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2932,21 +2941,20 @@
     <col min="2" max="2" width="53.77734375" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.33203125" style="22" customWidth="1"/>
     <col min="4" max="4" width="8.109375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="5.77734375" style="13" customWidth="1"/>
-    <col min="6" max="10" width="5.77734375" style="13" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="30.109375" style="19" customWidth="1"/>
-    <col min="12" max="12" width="8.77734375" style="2" customWidth="1"/>
-    <col min="13" max="16" width="8.77734375" style="75" customWidth="1"/>
-    <col min="17" max="17" width="8.77734375" style="2" customWidth="1"/>
-    <col min="18" max="20" width="8.77734375" style="75" customWidth="1"/>
-    <col min="21" max="21" width="11" style="3" customWidth="1"/>
-    <col min="22" max="22" width="2.44140625" style="3" customWidth="1"/>
-    <col min="23" max="23" width="10.33203125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="9.44140625" customWidth="1"/>
-    <col min="26" max="26" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="30.109375" style="19" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" style="2" customWidth="1"/>
+    <col min="9" max="12" width="8.77734375" style="75" customWidth="1"/>
+    <col min="13" max="13" width="8.77734375" style="2" customWidth="1"/>
+    <col min="14" max="16" width="8.77734375" style="75" customWidth="1"/>
+    <col min="17" max="17" width="11" style="3" customWidth="1"/>
+    <col min="18" max="18" width="2.44140625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="10.33203125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="9.44140625" customWidth="1"/>
+    <col min="22" max="22" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>76</v>
       </c>
@@ -2954,7 +2962,7 @@
         <v>107</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D1" s="48" t="s">
         <v>85</v>
@@ -2963,64 +2971,52 @@
         <v>86</v>
       </c>
       <c r="F1" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="G1" s="48" t="s">
-        <v>175</v>
-      </c>
-      <c r="H1" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="I1" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="J1" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="K1" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1" s="49" t="s">
         <v>108</v>
       </c>
+      <c r="H1" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="K1" s="47" t="s">
+        <v>211</v>
+      </c>
       <c r="L1" s="47" t="s">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="M1" s="47" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="N1" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="O1" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="P1" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="O1" s="47" t="s">
-        <v>218</v>
-      </c>
-      <c r="P1" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q1" s="47" t="s">
-        <v>238</v>
-      </c>
-      <c r="R1" s="47" t="s">
-        <v>239</v>
-      </c>
-      <c r="S1" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="T1" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="U1" s="50" t="s">
-        <v>233</v>
-      </c>
+      <c r="Q1" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="R1" s="30"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
       <c r="V1" s="30"/>
       <c r="W1" s="31"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-    </row>
-    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+    </row>
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>104</v>
       </c>
@@ -3035,46 +3031,42 @@
         <v>1</v>
       </c>
       <c r="F2" s="54">
-        <f t="shared" ref="F2:F33" si="0">CEILING(D2,W$22+1)</f>
+        <f t="shared" ref="F2:F33" si="0">CEILING(D2,S$22+1)</f>
         <v>4</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="56">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="79">
-        <v>1</v>
-      </c>
-      <c r="S2" s="79">
-        <v>1</v>
-      </c>
-      <c r="T2" s="79">
+      <c r="G2" s="55"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="56">
+        <v>1</v>
+      </c>
+      <c r="M2" s="53"/>
+      <c r="N2" s="79">
+        <v>1</v>
+      </c>
+      <c r="O2" s="88">
+        <v>1</v>
+      </c>
+      <c r="P2" s="79">
         <v>2</v>
       </c>
-      <c r="U2" s="67">
-        <f>SUM(Q2:T2)</f>
+      <c r="Q2" s="67">
+        <f>SUM(M2:P2)</f>
         <v>4</v>
       </c>
-      <c r="V2" s="31"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-    </row>
-    <row r="3" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R2" s="31"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+    </row>
+    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="46"/>
       <c r="B3" s="52" t="s">
         <v>106</v>
@@ -3090,43 +3082,39 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="57">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="80">
-        <v>1</v>
-      </c>
-      <c r="S3" s="80">
-        <v>1</v>
-      </c>
-      <c r="T3" s="80">
+      <c r="G3" s="59"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="57">
+        <v>1</v>
+      </c>
+      <c r="M3" s="57"/>
+      <c r="N3" s="80">
+        <v>1</v>
+      </c>
+      <c r="O3" s="89">
+        <v>1</v>
+      </c>
+      <c r="P3" s="80">
         <v>2</v>
       </c>
-      <c r="U3" s="81">
-        <f t="shared" ref="U3:U66" si="1">SUM(Q3:T3)</f>
+      <c r="Q3" s="81">
+        <f t="shared" ref="Q3:Q66" si="1">SUM(M3:P3)</f>
         <v>4</v>
       </c>
-      <c r="V3" s="31"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-    </row>
-    <row r="4" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R3" s="31"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+    </row>
+    <row r="4" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>73</v>
       </c>
@@ -3134,7 +3122,7 @@
         <v>110</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D4" s="13">
         <v>5</v>
@@ -3146,64 +3134,52 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G4" s="13">
-        <v>12</v>
-      </c>
-      <c r="H4" s="13">
-        <v>1</v>
-      </c>
-      <c r="I4" s="13">
-        <v>7</v>
-      </c>
-      <c r="J4" s="13">
-        <v>1</v>
-      </c>
-      <c r="K4" s="21" t="s">
+      <c r="G4" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="L4" s="34">
-        <v>1</v>
-      </c>
-      <c r="M4" s="77">
-        <v>1</v>
-      </c>
-      <c r="N4" s="77">
-        <v>1</v>
-      </c>
-      <c r="O4" s="77">
-        <v>1</v>
-      </c>
-      <c r="P4" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="34">
-        <v>1</v>
-      </c>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77">
-        <v>1</v>
-      </c>
-      <c r="T4" s="77"/>
-      <c r="U4" s="67">
+      <c r="H4" s="34">
+        <v>1</v>
+      </c>
+      <c r="I4" s="77">
+        <v>1</v>
+      </c>
+      <c r="J4" s="77">
+        <v>1</v>
+      </c>
+      <c r="K4" s="77">
+        <v>1</v>
+      </c>
+      <c r="L4" s="77">
+        <v>1</v>
+      </c>
+      <c r="M4" s="34">
+        <v>1</v>
+      </c>
+      <c r="N4" s="77"/>
+      <c r="O4" s="85">
+        <v>1</v>
+      </c>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="67">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="V4" s="31"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="R4" s="31"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B5" s="22" t="s">
         <v>155</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D5" s="13">
         <v>2</v>
@@ -3215,61 +3191,49 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G5" s="13">
-        <v>13</v>
-      </c>
-      <c r="H5" s="13">
-        <v>2</v>
-      </c>
-      <c r="I5" s="13">
-        <v>8</v>
-      </c>
-      <c r="J5" s="13">
-        <v>2</v>
-      </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="32">
-        <v>1</v>
-      </c>
-      <c r="M5" s="75">
-        <v>1</v>
-      </c>
-      <c r="N5" s="75">
-        <v>1</v>
-      </c>
-      <c r="O5" s="75">
-        <v>1</v>
-      </c>
-      <c r="P5" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="73">
-        <v>1</v>
-      </c>
-      <c r="S5" s="75">
-        <v>1</v>
-      </c>
-      <c r="U5" s="67">
+      <c r="G5" s="21"/>
+      <c r="H5" s="32">
+        <v>1</v>
+      </c>
+      <c r="I5" s="75">
+        <v>1</v>
+      </c>
+      <c r="J5" s="75">
+        <v>1</v>
+      </c>
+      <c r="K5" s="75">
+        <v>1</v>
+      </c>
+      <c r="L5" s="77">
+        <v>1</v>
+      </c>
+      <c r="M5" s="73">
+        <v>1</v>
+      </c>
+      <c r="O5" s="84">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="67">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="V5" s="31"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="31"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="R5" s="31"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="28"/>
       <c r="B6" s="29" t="s">
         <v>156</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D6" s="13">
         <v>2</v>
@@ -3281,51 +3245,45 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H6" s="13">
-        <v>3</v>
-      </c>
-      <c r="J6" s="13">
-        <v>3</v>
-      </c>
-      <c r="K6" s="21" t="s">
+      <c r="G6" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="L6" s="34">
-        <v>1</v>
-      </c>
-      <c r="M6" s="77">
-        <v>1</v>
-      </c>
+      <c r="H6" s="34">
+        <v>1</v>
+      </c>
+      <c r="I6" s="77">
+        <v>1</v>
+      </c>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77">
+        <v>1</v>
+      </c>
+      <c r="M6" s="6"/>
       <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="77"/>
-      <c r="U6" s="67">
+      <c r="O6" s="85"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V6" s="31"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="31"/>
-    </row>
-    <row r="7" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R6" s="31"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+    </row>
+    <row r="7" spans="1:26" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="46"/>
       <c r="B7" s="23" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D7" s="26">
         <v>1</v>
@@ -3337,34 +3295,30 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="L7" s="35"/>
-      <c r="M7" s="78"/>
+      <c r="G7" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="H7" s="35"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78">
+        <v>1</v>
+      </c>
+      <c r="M7" s="74"/>
       <c r="N7" s="78"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="78">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="78"/>
-      <c r="S7" s="78"/>
-      <c r="T7" s="78"/>
-      <c r="U7" s="81">
+      <c r="O7" s="87"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="14"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="14"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>74</v>
       </c>
@@ -3372,7 +3326,7 @@
         <v>171</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D8" s="13">
         <v>4</v>
@@ -3384,56 +3338,51 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I8" s="13">
-        <v>14</v>
-      </c>
-      <c r="J8" s="13">
-        <v>4</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="L8" s="32">
-        <v>1</v>
-      </c>
-      <c r="M8" s="75">
+      <c r="G8" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="H8" s="32">
+        <v>1</v>
+      </c>
+      <c r="I8" s="75">
+        <v>1</v>
+      </c>
+      <c r="J8" s="75">
+        <v>1</v>
+      </c>
+      <c r="K8" s="75">
+        <v>1</v>
+      </c>
+      <c r="L8" s="77">
+        <v>0.1</v>
+      </c>
+      <c r="M8" s="32">
         <v>1</v>
       </c>
       <c r="N8" s="75">
         <v>1</v>
       </c>
-      <c r="O8" s="75">
-        <v>1</v>
-      </c>
-      <c r="P8" s="77">
-        <v>0.1</v>
-      </c>
-      <c r="Q8" s="32">
-        <v>1</v>
-      </c>
-      <c r="R8" s="75">
-        <v>1</v>
-      </c>
-      <c r="U8" s="67">
+      <c r="O8" s="83"/>
+      <c r="Q8" s="67">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="V8" s="31"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="31"/>
-      <c r="AD8" s="31"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="R8" s="31"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B9" s="22" t="s">
         <v>111</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D9" s="13">
         <v>2</v>
@@ -3445,56 +3394,50 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H9" s="13">
-        <v>4</v>
-      </c>
-      <c r="I9" s="13">
-        <v>20</v>
-      </c>
-      <c r="J9" s="13">
-        <v>5</v>
-      </c>
-      <c r="K9" s="21" t="s">
+      <c r="G9" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="L9" s="32">
-        <v>1</v>
-      </c>
-      <c r="M9" s="75">
-        <v>1</v>
-      </c>
-      <c r="N9" s="75">
-        <v>1</v>
-      </c>
-      <c r="O9" s="75">
-        <v>1</v>
-      </c>
-      <c r="P9" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="32">
-        <v>1</v>
-      </c>
-      <c r="U9" s="67">
+      <c r="H9" s="32">
+        <v>1</v>
+      </c>
+      <c r="I9" s="75">
+        <v>1</v>
+      </c>
+      <c r="J9" s="75">
+        <v>1</v>
+      </c>
+      <c r="K9" s="75">
+        <v>1</v>
+      </c>
+      <c r="L9" s="77">
+        <v>1</v>
+      </c>
+      <c r="M9" s="32">
+        <v>1</v>
+      </c>
+      <c r="O9" s="84">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="67">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V9" s="31"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="31"/>
-      <c r="AD9" s="31"/>
-    </row>
-    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="R9" s="31"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
+    </row>
+    <row r="10" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="22" t="s">
         <v>112</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D10" s="13">
         <v>5</v>
@@ -3506,44 +3449,36 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G10" s="13">
-        <v>15</v>
-      </c>
-      <c r="H10" s="13">
-        <v>5</v>
-      </c>
-      <c r="I10" s="13">
-        <v>15</v>
-      </c>
-      <c r="K10" s="21"/>
-      <c r="L10" s="32"/>
-      <c r="P10" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="75">
+      <c r="G10" s="21"/>
+      <c r="H10" s="32"/>
+      <c r="L10" s="77">
+        <v>0</v>
+      </c>
+      <c r="M10" s="31"/>
+      <c r="N10" s="75">
         <v>0.5</v>
       </c>
-      <c r="U10" s="67">
+      <c r="O10" s="83"/>
+      <c r="Q10" s="67">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="V10" s="31"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="31"/>
-      <c r="AD10" s="31"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="R10" s="31"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B11" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D11" s="13">
         <v>2</v>
@@ -3555,58 +3490,50 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H11" s="13">
-        <v>7</v>
-      </c>
-      <c r="I11" s="13">
-        <v>19</v>
-      </c>
-      <c r="J11" s="13">
-        <v>7</v>
-      </c>
-      <c r="K11" s="21" t="s">
+      <c r="G11" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="L11" s="32">
-        <v>1</v>
-      </c>
-      <c r="M11" s="75">
-        <v>1</v>
-      </c>
-      <c r="N11" s="75">
-        <v>1</v>
-      </c>
-      <c r="O11" s="75">
-        <v>1</v>
-      </c>
-      <c r="P11" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="32">
-        <v>1</v>
-      </c>
-      <c r="U11" s="67">
+      <c r="H11" s="32">
+        <v>1</v>
+      </c>
+      <c r="I11" s="75">
+        <v>1</v>
+      </c>
+      <c r="J11" s="75">
+        <v>1</v>
+      </c>
+      <c r="K11" s="75">
+        <v>1</v>
+      </c>
+      <c r="L11" s="77">
+        <v>1</v>
+      </c>
+      <c r="M11" s="32">
+        <v>1</v>
+      </c>
+      <c r="O11" s="83"/>
+      <c r="Q11" s="67">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V11" s="31"/>
-      <c r="W11" s="40" t="s">
+      <c r="R11" s="31"/>
+      <c r="S11" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="31"/>
-      <c r="AC11" s="31"/>
-      <c r="AD11" s="31"/>
-    </row>
-    <row r="12" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T11" s="41"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
+    </row>
+    <row r="12" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="22" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D12" s="13">
         <v>4</v>
@@ -3618,42 +3545,42 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K12" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="L12" s="75"/>
-      <c r="P12" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="75">
-        <v>1</v>
-      </c>
-      <c r="S12" s="75">
-        <v>1</v>
-      </c>
-      <c r="U12" s="67">
+      <c r="G12" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="H12" s="75"/>
+      <c r="L12" s="77">
+        <v>0</v>
+      </c>
+      <c r="M12" s="75"/>
+      <c r="N12" s="75">
+        <v>1</v>
+      </c>
+      <c r="O12" s="84">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="67">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="V12" s="31"/>
-      <c r="W12" s="42">
-        <v>1</v>
-      </c>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="31"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="R12" s="31"/>
+      <c r="S12" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="T12" s="43"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B13" s="22" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D13" s="13">
         <v>3</v>
@@ -3665,40 +3592,40 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K13" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="L13" s="75"/>
-      <c r="P13" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="75"/>
-      <c r="R13" s="75">
-        <v>1</v>
-      </c>
-      <c r="S13" s="75">
-        <v>1</v>
-      </c>
-      <c r="U13" s="67">
+      <c r="G13" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="H13" s="75"/>
+      <c r="L13" s="77">
+        <v>0</v>
+      </c>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75">
+        <v>1</v>
+      </c>
+      <c r="O13" s="84">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="67">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="V13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="14"/>
       <c r="W13" s="31"/>
       <c r="X13" s="31"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="31"/>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="31"/>
-      <c r="AD13" s="31"/>
-    </row>
-    <row r="14" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
+    </row>
+    <row r="14" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="22" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D14" s="13">
         <v>3</v>
@@ -3710,33 +3637,34 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K14" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="L14" s="75"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="75"/>
-      <c r="U14" s="67">
+      <c r="G14" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="H14" s="75"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="75"/>
+      <c r="O14" s="83"/>
+      <c r="Q14" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V14" s="31"/>
-      <c r="W14" s="1" t="s">
+      <c r="R14" s="31"/>
+      <c r="S14" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="U14" s="31"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
       <c r="Y14" s="31"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Z14" s="31"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B15" s="22" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D15" s="13">
         <v>3</v>
@@ -3748,36 +3676,37 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K15" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="L15" s="75"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="75"/>
-      <c r="U15" s="67">
+      <c r="G15" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="H15" s="75"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="75"/>
+      <c r="O15" s="83"/>
+      <c r="Q15" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="R15" s="31"/>
+      <c r="S15" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="T15" s="36"/>
+      <c r="U15" s="15">
+        <v>0.05</v>
+      </c>
       <c r="V15" s="31"/>
-      <c r="W15" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="15">
-        <v>0.05</v>
-      </c>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
       <c r="Z15" s="31"/>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="31"/>
-      <c r="AD15" s="31"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B16" s="22" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D16" s="13">
         <v>9</v>
@@ -3789,57 +3718,57 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K16" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="L16" s="32">
-        <v>1</v>
-      </c>
-      <c r="M16" s="75">
+      <c r="G16" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="H16" s="32">
+        <v>1</v>
+      </c>
+      <c r="I16" s="75">
+        <v>1</v>
+      </c>
+      <c r="J16" s="75">
+        <v>1</v>
+      </c>
+      <c r="K16" s="75">
+        <v>1</v>
+      </c>
+      <c r="L16" s="77">
+        <v>1</v>
+      </c>
+      <c r="M16" s="32">
         <v>1</v>
       </c>
       <c r="N16" s="75">
         <v>1</v>
       </c>
-      <c r="O16" s="75">
-        <v>1</v>
-      </c>
-      <c r="P16" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="32">
-        <v>1</v>
-      </c>
-      <c r="R16" s="75">
-        <v>1</v>
-      </c>
-      <c r="S16" s="75">
-        <v>1</v>
-      </c>
-      <c r="U16" s="67">
+      <c r="O16" s="84">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="67">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
+      <c r="R16" s="31"/>
+      <c r="S16" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="T16" s="5"/>
+      <c r="U16" s="8">
+        <v>0.3</v>
+      </c>
       <c r="V16" s="31"/>
-      <c r="W16" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="8">
-        <v>0.3</v>
-      </c>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
       <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="31"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B17" s="22" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D17" s="13">
         <v>3</v>
@@ -3851,67 +3780,55 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G17" s="13">
-        <v>17</v>
-      </c>
-      <c r="H17" s="13">
-        <v>6</v>
-      </c>
-      <c r="I17" s="13">
-        <v>22</v>
-      </c>
-      <c r="J17" s="13">
-        <v>6</v>
-      </c>
-      <c r="K17" s="21"/>
-      <c r="L17" s="32">
-        <v>1</v>
-      </c>
-      <c r="M17" s="75">
+      <c r="G17" s="21"/>
+      <c r="H17" s="32">
+        <v>1</v>
+      </c>
+      <c r="I17" s="75">
+        <v>1</v>
+      </c>
+      <c r="J17" s="75">
+        <v>1</v>
+      </c>
+      <c r="K17" s="75">
+        <v>1</v>
+      </c>
+      <c r="L17" s="77">
+        <v>1</v>
+      </c>
+      <c r="M17" s="32">
         <v>1</v>
       </c>
       <c r="N17" s="75">
         <v>1</v>
       </c>
-      <c r="O17" s="75">
-        <v>1</v>
-      </c>
-      <c r="P17" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="32">
-        <v>1</v>
-      </c>
-      <c r="R17" s="75">
-        <v>1</v>
-      </c>
-      <c r="S17" s="75">
-        <v>1</v>
-      </c>
-      <c r="U17" s="67">
+      <c r="O17" s="84">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="67">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
+      <c r="R17" s="31"/>
+      <c r="S17" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="T17" s="5"/>
+      <c r="U17" s="8">
+        <v>3</v>
+      </c>
       <c r="V17" s="31"/>
-      <c r="W17" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="8">
-        <v>3</v>
-      </c>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="31"/>
       <c r="Z17" s="31"/>
-      <c r="AA17" s="31"/>
-      <c r="AB17" s="31"/>
-      <c r="AC17" s="31"/>
-      <c r="AD17" s="31"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B18" s="22" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D18" s="13">
         <v>5</v>
@@ -3923,51 +3840,51 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K18" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="L18" s="32">
-        <v>1</v>
-      </c>
-      <c r="M18" s="75">
+      <c r="G18" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="H18" s="32">
+        <v>1</v>
+      </c>
+      <c r="I18" s="75">
         <v>0.5</v>
       </c>
-      <c r="N18" s="75">
+      <c r="J18" s="75">
         <v>0.5</v>
       </c>
-      <c r="P18" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="32">
-        <v>1</v>
-      </c>
-      <c r="S18" s="75">
-        <v>1</v>
-      </c>
-      <c r="U18" s="67">
+      <c r="L18" s="77">
+        <v>1</v>
+      </c>
+      <c r="M18" s="32">
+        <v>0</v>
+      </c>
+      <c r="O18" s="84">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="67">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="R18" s="31"/>
+      <c r="S18" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="T18" s="5"/>
+      <c r="U18" s="37">
+        <v>0.25</v>
       </c>
       <c r="V18" s="31"/>
-      <c r="W18" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="37">
-        <v>0.25</v>
-      </c>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
       <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="31"/>
-    </row>
-    <row r="19" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="22" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D19" s="13">
         <v>4</v>
@@ -3979,57 +3896,57 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K19" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="L19" s="32">
-        <v>1</v>
-      </c>
-      <c r="M19" s="75">
-        <v>1</v>
+      <c r="G19" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="H19" s="32">
+        <v>1</v>
+      </c>
+      <c r="I19" s="75">
+        <v>1</v>
+      </c>
+      <c r="J19" s="75">
+        <v>1</v>
+      </c>
+      <c r="K19" s="75">
+        <v>1</v>
+      </c>
+      <c r="L19" s="77">
+        <v>1</v>
+      </c>
+      <c r="M19" s="32">
+        <v>0</v>
       </c>
       <c r="N19" s="75">
         <v>1</v>
       </c>
-      <c r="O19" s="75">
-        <v>1</v>
-      </c>
-      <c r="P19" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="32">
-        <v>1</v>
-      </c>
-      <c r="R19" s="75">
-        <v>1</v>
-      </c>
-      <c r="S19" s="75">
+      <c r="O19" s="84">
         <v>0.1</v>
       </c>
-      <c r="U19" s="67">
+      <c r="Q19" s="67">
         <f t="shared" si="1"/>
-        <v>2.1</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R19" s="31"/>
+      <c r="S19" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="T19" s="38"/>
+      <c r="U19" s="39">
+        <v>0.05</v>
       </c>
       <c r="V19" s="31"/>
-      <c r="W19" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="39">
-        <v>0.05</v>
-      </c>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
       <c r="Z19" s="31"/>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="31"/>
-      <c r="AD19" s="31"/>
-    </row>
-    <row r="20" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="22" t="s">
         <v>114</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D20" s="13">
         <v>5</v>
@@ -4041,53 +3958,50 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H20" s="13">
-        <v>10</v>
-      </c>
-      <c r="J20" s="13">
-        <v>10</v>
-      </c>
-      <c r="K20" s="21" t="s">
+      <c r="G20" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="L20" s="32">
-        <v>1</v>
-      </c>
-      <c r="M20" s="75">
+      <c r="H20" s="32">
+        <v>1</v>
+      </c>
+      <c r="I20" s="75">
+        <v>1</v>
+      </c>
+      <c r="J20" s="75">
+        <v>1</v>
+      </c>
+      <c r="K20" s="75">
+        <v>1</v>
+      </c>
+      <c r="L20" s="77">
+        <v>1</v>
+      </c>
+      <c r="M20" s="32">
         <v>1</v>
       </c>
       <c r="N20" s="75">
         <v>1</v>
       </c>
-      <c r="O20" s="75">
-        <v>1</v>
-      </c>
-      <c r="P20" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="32">
-        <v>1</v>
-      </c>
-      <c r="S20" s="75">
-        <v>1</v>
-      </c>
-      <c r="U20" s="67">
+      <c r="O20" s="84">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="67">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R20" s="31"/>
       <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
       <c r="Z20" s="31"/>
-      <c r="AA20" s="31"/>
-      <c r="AB20" s="31"/>
-      <c r="AC20" s="31"/>
-      <c r="AD20" s="31"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B21" s="22" t="s">
         <v>115</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D21" s="13">
         <v>3</v>
@@ -4099,35 +4013,33 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G21" s="13">
-        <v>22</v>
-      </c>
-      <c r="K21" s="21"/>
-      <c r="L21" s="32"/>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="31"/>
-      <c r="U21" s="67">
+      <c r="G21" s="21"/>
+      <c r="H21" s="32"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="31"/>
+      <c r="O21" s="83"/>
+      <c r="Q21" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="R21" s="31"/>
+      <c r="S21" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="T21" s="41"/>
+      <c r="U21" s="31"/>
       <c r="V21" s="31"/>
-      <c r="W21" s="40" t="s">
-        <v>199</v>
-      </c>
-      <c r="X21" s="41"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="31"/>
       <c r="Y21" s="31"/>
       <c r="Z21" s="31"/>
-      <c r="AA21" s="31"/>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="31"/>
-      <c r="AD21" s="31"/>
-    </row>
-    <row r="22" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="22" t="s">
         <v>116</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D22" s="13">
         <v>4</v>
@@ -4139,39 +4051,37 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G22" s="13">
-        <v>23</v>
-      </c>
-      <c r="K22" s="21"/>
-      <c r="L22" s="32"/>
-      <c r="P22" s="77">
+      <c r="G22" s="21"/>
+      <c r="H22" s="32"/>
+      <c r="L22" s="77">
         <v>0.1</v>
       </c>
-      <c r="Q22" s="32">
-        <v>1</v>
-      </c>
-      <c r="U22" s="67">
+      <c r="M22" s="32">
+        <v>0</v>
+      </c>
+      <c r="O22" s="83"/>
+      <c r="Q22" s="67">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R22" s="31"/>
+      <c r="S22" s="42">
+        <v>1</v>
+      </c>
+      <c r="T22" s="43"/>
+      <c r="U22" s="31"/>
       <c r="V22" s="31"/>
-      <c r="W22" s="42">
-        <v>1</v>
-      </c>
-      <c r="X22" s="43"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
       <c r="Y22" s="31"/>
       <c r="Z22" s="31"/>
-      <c r="AA22" s="31"/>
-      <c r="AB22" s="31"/>
-      <c r="AC22" s="31"/>
-      <c r="AD22" s="31"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B23" s="22" t="s">
         <v>117</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D23" s="13">
         <v>2</v>
@@ -4183,44 +4093,38 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G23" s="13">
-        <v>24</v>
-      </c>
-      <c r="I23" s="13">
-        <v>23</v>
-      </c>
-      <c r="K23" s="21"/>
-      <c r="L23" s="32"/>
-      <c r="N23" s="75">
+      <c r="G23" s="21"/>
+      <c r="H23" s="32"/>
+      <c r="J23" s="75">
         <v>0.5</v>
       </c>
-      <c r="O23" s="75">
-        <v>1</v>
-      </c>
-      <c r="P23" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="32">
-        <v>0</v>
-      </c>
-      <c r="S23" s="75">
-        <v>1</v>
-      </c>
-      <c r="T23" s="78"/>
-      <c r="U23" s="81">
+      <c r="K23" s="75">
+        <v>1</v>
+      </c>
+      <c r="L23" s="77">
+        <v>0</v>
+      </c>
+      <c r="M23" s="32">
+        <v>1</v>
+      </c>
+      <c r="O23" s="84">
+        <v>1</v>
+      </c>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="81">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
       <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
       <c r="X23" s="31"/>
       <c r="Y23" s="31"/>
       <c r="Z23" s="31"/>
-      <c r="AA23" s="31"/>
-      <c r="AB23" s="31"/>
-      <c r="AC23" s="31"/>
-      <c r="AD23" s="31"/>
-    </row>
-    <row r="24" spans="1:30" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:26" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>75</v>
       </c>
@@ -4228,7 +4132,7 @@
         <v>118</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D24" s="12">
         <v>10</v>
@@ -4240,62 +4144,52 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12">
-        <v>15</v>
-      </c>
-      <c r="I24" s="12">
-        <v>24</v>
-      </c>
-      <c r="J24" s="12">
-        <v>11</v>
-      </c>
-      <c r="K24" s="20" t="s">
+      <c r="G24" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="L24" s="33">
-        <v>1</v>
-      </c>
-      <c r="M24" s="76">
+      <c r="H24" s="33">
+        <v>1</v>
+      </c>
+      <c r="I24" s="76">
         <v>0.5</v>
       </c>
+      <c r="J24" s="76">
+        <v>0.5</v>
+      </c>
+      <c r="K24" s="76">
+        <v>1</v>
+      </c>
+      <c r="L24" s="76">
+        <v>1</v>
+      </c>
+      <c r="M24" s="33">
+        <v>1</v>
+      </c>
       <c r="N24" s="76">
-        <v>0.5</v>
-      </c>
-      <c r="O24" s="76">
-        <v>1</v>
-      </c>
-      <c r="P24" s="76">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="33">
-        <v>1</v>
-      </c>
-      <c r="R24" s="76">
-        <v>1</v>
-      </c>
-      <c r="S24" s="76">
-        <v>1</v>
-      </c>
-      <c r="T24" s="77"/>
-      <c r="U24" s="67">
+        <v>1</v>
+      </c>
+      <c r="O24" s="86">
+        <v>1</v>
+      </c>
+      <c r="P24" s="77"/>
+      <c r="Q24" s="67">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
+      <c r="R24" s="31"/>
+      <c r="S24" s="14"/>
       <c r="V24" s="31"/>
-      <c r="W24" s="14"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="31"/>
       <c r="Z24" s="31"/>
-      <c r="AA24" s="31"/>
-      <c r="AB24" s="31"/>
-      <c r="AC24" s="31"/>
-      <c r="AD24" s="31"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B25" s="22" t="s">
         <v>119</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D25" s="13">
         <v>8</v>
@@ -4307,70 +4201,61 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H25" s="13">
-        <v>16</v>
-      </c>
-      <c r="I25" s="13">
-        <v>25</v>
-      </c>
-      <c r="J25" s="13">
-        <v>12</v>
-      </c>
-      <c r="K25" s="21" t="s">
+      <c r="G25" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="L25" s="32">
-        <v>1</v>
-      </c>
-      <c r="M25" s="75">
+      <c r="H25" s="32">
+        <v>1</v>
+      </c>
+      <c r="I25" s="75">
+        <v>1</v>
+      </c>
+      <c r="J25" s="75">
+        <v>1</v>
+      </c>
+      <c r="K25" s="75">
+        <v>1</v>
+      </c>
+      <c r="L25" s="77">
+        <v>1</v>
+      </c>
+      <c r="M25" s="32">
         <v>1</v>
       </c>
       <c r="N25" s="75">
         <v>1</v>
       </c>
-      <c r="O25" s="75">
-        <v>1</v>
-      </c>
-      <c r="P25" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="32">
-        <v>1</v>
-      </c>
-      <c r="R25" s="75">
-        <v>1</v>
-      </c>
-      <c r="S25" s="75">
-        <v>1</v>
-      </c>
-      <c r="U25" s="67">
+      <c r="O25" s="84">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="67">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="V25" s="31"/>
-      <c r="W25" s="44" t="s">
+      <c r="R25" s="31"/>
+      <c r="S25" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="X25" s="4" t="s">
+      <c r="T25" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="Y25" s="4" t="s">
+      <c r="U25" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="Z25" s="7" t="s">
+      <c r="V25" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="AA25" s="31"/>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="31"/>
-      <c r="AD25" s="31"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="W25" s="31"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D26" s="13">
         <v>3</v>
@@ -4382,45 +4267,48 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K26" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="L26" s="75"/>
-      <c r="P26" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="75"/>
-      <c r="U26" s="67">
+      <c r="G26" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="H26" s="75"/>
+      <c r="L26" s="77">
+        <v>1</v>
+      </c>
+      <c r="M26" s="75">
+        <v>1</v>
+      </c>
+      <c r="O26" s="83"/>
+      <c r="Q26" s="67">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V26" s="31"/>
-      <c r="W26" s="69">
-        <v>0</v>
-      </c>
-      <c r="X26" s="6">
-        <f t="shared" ref="X26:X34" si="2">SUMIF(U$2:U$86,"&gt;=" &amp; W26,F$2:F$86)</f>
+        <v>1</v>
+      </c>
+      <c r="R26" s="31"/>
+      <c r="S26" s="69">
+        <v>0</v>
+      </c>
+      <c r="T26" s="6">
+        <f t="shared" ref="T26:T34" si="2">SUMIF(Q$2:Q$86,"&gt;=" &amp; S26,F$2:F$86)</f>
         <v>370</v>
       </c>
-      <c r="Y26" s="6">
-        <f t="shared" ref="Y26:Y34" si="3">SUMIF(U$2:U$86,"&gt;=" &amp; W26,E$2:E$86)</f>
+      <c r="U26" s="6">
+        <f t="shared" ref="U26:U34" si="3">SUMIF(Q$2:Q$86,"&gt;=" &amp; S26,E$2:E$86)</f>
         <v>29</v>
       </c>
-      <c r="Z26" s="8">
-        <f t="shared" ref="Z26:Z34" si="4">($Y$17 + $Y$15*X26+$Y$16*Y26)*(1+Y$18+Y$19)</f>
+      <c r="V26" s="8">
+        <f t="shared" ref="V26:V34" si="4">($U$17 + $U$15*T26+$U$16*U26)*(1+U$18+U$19)</f>
         <v>39.26</v>
       </c>
-      <c r="AA26" s="31"/>
-      <c r="AB26" s="31"/>
-      <c r="AC26" s="31"/>
-      <c r="AD26" s="31"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="W26" s="31"/>
+      <c r="X26" s="31"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B27" s="22" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D27" s="13">
         <v>3</v>
@@ -4432,49 +4320,50 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K27" s="21"/>
-      <c r="L27" s="75"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75">
+        <v>1</v>
+      </c>
+      <c r="L27" s="77">
+        <v>0</v>
+      </c>
       <c r="M27" s="75">
         <v>1</v>
       </c>
-      <c r="P27" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="75">
-        <v>0.2</v>
-      </c>
-      <c r="U27" s="67">
+      <c r="O27" s="83"/>
+      <c r="Q27" s="67">
         <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="V27" s="31"/>
-      <c r="W27" s="69">
+        <v>1</v>
+      </c>
+      <c r="R27" s="31"/>
+      <c r="S27" s="69">
         <v>0.5</v>
       </c>
-      <c r="X27" s="6">
+      <c r="T27" s="6">
         <f t="shared" si="2"/>
-        <v>270</v>
-      </c>
-      <c r="Y27" s="6">
+        <v>284</v>
+      </c>
+      <c r="U27" s="6">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="Z27" s="8">
-        <f>($Y$17 + $Y$15*X27+$Y$16*Y27)*(1+Y$18+Y$19)</f>
-        <v>31.590000000000003</v>
-      </c>
-      <c r="AA27" s="31"/>
-      <c r="AB27" s="31"/>
-      <c r="AC27" s="31"/>
-      <c r="AD27" s="31"/>
-    </row>
-    <row r="28" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="V27" s="8">
+        <f>($U$17 + $U$15*T27+$U$16*U27)*(1+U$18+U$19)</f>
+        <v>32.500000000000007</v>
+      </c>
+      <c r="W27" s="31"/>
+      <c r="X27" s="31"/>
+      <c r="Y27" s="31"/>
+      <c r="Z27" s="31"/>
+    </row>
+    <row r="28" spans="1:26" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="22" t="s">
         <v>120</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D28" s="13">
         <v>3</v>
@@ -4486,66 +4375,58 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13">
-        <v>17</v>
-      </c>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13">
-        <v>13</v>
-      </c>
-      <c r="K28" s="21" t="s">
+      <c r="G28" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="L28" s="32">
-        <v>1</v>
-      </c>
-      <c r="M28" s="75">
+      <c r="H28" s="32">
+        <v>1</v>
+      </c>
+      <c r="I28" s="75">
         <v>0.5</v>
       </c>
+      <c r="J28" s="75">
+        <v>1</v>
+      </c>
+      <c r="K28" s="75">
+        <v>1</v>
+      </c>
+      <c r="L28" s="77">
+        <v>1</v>
+      </c>
+      <c r="M28" s="32">
+        <v>1</v>
+      </c>
       <c r="N28" s="75">
         <v>1</v>
       </c>
-      <c r="O28" s="75">
-        <v>1</v>
-      </c>
-      <c r="P28" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="32">
-        <v>1</v>
-      </c>
-      <c r="R28" s="75">
-        <v>1</v>
-      </c>
-      <c r="S28" s="75"/>
-      <c r="T28" s="75"/>
-      <c r="U28" s="67">
+      <c r="O28" s="84"/>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="67">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="W28" s="69">
-        <v>1</v>
-      </c>
-      <c r="X28" s="6">
+      <c r="S28" s="69">
+        <v>1</v>
+      </c>
+      <c r="T28" s="6">
         <f t="shared" si="2"/>
-        <v>244</v>
-      </c>
-      <c r="Y28" s="6">
+        <v>268</v>
+      </c>
+      <c r="U28" s="6">
         <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="Z28" s="8">
+        <v>26</v>
+      </c>
+      <c r="V28" s="8">
         <f t="shared" si="4"/>
-        <v>28.340000000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+        <v>31.46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B29" s="22" t="s">
         <v>121</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D29" s="13">
         <v>3</v>
@@ -4557,70 +4438,61 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H29" s="13">
-        <v>18</v>
-      </c>
-      <c r="I29" s="13">
-        <v>26</v>
-      </c>
-      <c r="J29" s="13">
-        <v>14</v>
-      </c>
-      <c r="K29" s="21" t="s">
+      <c r="G29" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="L29" s="32">
-        <v>1</v>
-      </c>
-      <c r="M29" s="75">
-        <v>1</v>
-      </c>
-      <c r="N29" s="75">
-        <v>1</v>
-      </c>
-      <c r="O29" s="75">
-        <v>1</v>
-      </c>
-      <c r="P29" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="32">
-        <v>1</v>
-      </c>
-      <c r="S29" s="75">
-        <v>1</v>
-      </c>
-      <c r="U29" s="67">
+      <c r="H29" s="32">
+        <v>1</v>
+      </c>
+      <c r="I29" s="75">
+        <v>1</v>
+      </c>
+      <c r="J29" s="75">
+        <v>1</v>
+      </c>
+      <c r="K29" s="75">
+        <v>1</v>
+      </c>
+      <c r="L29" s="77">
+        <v>1</v>
+      </c>
+      <c r="M29" s="32">
+        <v>1</v>
+      </c>
+      <c r="O29" s="84">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="67">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="V29" s="31"/>
-      <c r="W29" s="70">
+      <c r="R29" s="31"/>
+      <c r="S29" s="70">
         <v>1.5</v>
       </c>
-      <c r="X29" s="29">
+      <c r="T29" s="29">
         <f t="shared" si="2"/>
-        <v>172</v>
-      </c>
-      <c r="Y29" s="29">
+        <v>174</v>
+      </c>
+      <c r="U29" s="29">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="Z29" s="8">
+      <c r="V29" s="8">
         <f t="shared" si="4"/>
-        <v>21.32</v>
-      </c>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="31"/>
-      <c r="AC29" s="31"/>
-      <c r="AD29" s="31"/>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+        <v>21.45</v>
+      </c>
+      <c r="W29" s="31"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B30" s="22" t="s">
         <v>122</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D30" s="13">
         <v>5</v>
@@ -4632,47 +4504,45 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G30" s="13">
-        <v>37</v>
-      </c>
-      <c r="K30" s="55" t="s">
-        <v>193</v>
-      </c>
-      <c r="L30" s="32"/>
-      <c r="N30" s="75">
+      <c r="G30" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="H30" s="32"/>
+      <c r="J30" s="75">
         <v>0.5</v>
       </c>
-      <c r="P30" s="77"/>
-      <c r="Q30" s="32">
-        <v>0</v>
-      </c>
-      <c r="U30" s="67">
+      <c r="L30" s="77"/>
+      <c r="M30" s="32">
+        <v>0</v>
+      </c>
+      <c r="O30" s="83"/>
+      <c r="Q30" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V30" s="31"/>
-      <c r="W30" s="69">
+      <c r="R30" s="31"/>
+      <c r="S30" s="69">
         <v>2</v>
       </c>
-      <c r="X30" s="6">
+      <c r="T30" s="6">
         <f t="shared" si="2"/>
-        <v>166</v>
-      </c>
-      <c r="Y30" s="6">
+        <v>170</v>
+      </c>
+      <c r="U30" s="6">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="Z30" s="8">
+      <c r="V30" s="8">
         <f t="shared" si="4"/>
-        <v>20.930000000000003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+        <v>21.19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B31" s="22" t="s">
         <v>123</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D31" s="13">
         <v>5</v>
@@ -4684,44 +4554,45 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K31" s="55" t="s">
-        <v>193</v>
-      </c>
-      <c r="L31" s="32"/>
-      <c r="N31" s="75">
+      <c r="G31" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="H31" s="32"/>
+      <c r="J31" s="75">
         <v>0.5</v>
       </c>
-      <c r="P31" s="77"/>
-      <c r="Q31" s="32">
-        <v>0</v>
-      </c>
-      <c r="T31" s="78"/>
-      <c r="U31" s="81">
+      <c r="L31" s="77"/>
+      <c r="M31" s="32">
+        <v>0</v>
+      </c>
+      <c r="O31" s="83"/>
+      <c r="P31" s="78"/>
+      <c r="Q31" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V31" s="31"/>
-      <c r="W31" s="69">
+      <c r="R31" s="31"/>
+      <c r="S31" s="69">
         <v>2.5</v>
       </c>
-      <c r="X31" s="6">
+      <c r="T31" s="6">
         <f t="shared" si="2"/>
-        <v>66</v>
-      </c>
-      <c r="Y31" s="6">
+        <v>82</v>
+      </c>
+      <c r="U31" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="Z31" s="8">
+        <v>12</v>
+      </c>
+      <c r="V31" s="8">
         <f t="shared" si="4"/>
-        <v>10.530000000000003</v>
-      </c>
-      <c r="AA31" s="31"/>
-      <c r="AB31" s="31"/>
-      <c r="AC31" s="31"/>
-      <c r="AD31" s="31"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+        <v>13.91</v>
+      </c>
+      <c r="W31" s="31"/>
+      <c r="X31" s="31"/>
+      <c r="Y31" s="31"/>
+      <c r="Z31" s="31"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>77</v>
       </c>
@@ -4729,7 +4600,7 @@
         <v>124</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D32" s="12">
         <v>3</v>
@@ -4741,54 +4612,46 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G32" s="12">
-        <v>28</v>
-      </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12">
-        <v>27</v>
-      </c>
-      <c r="J32" s="12"/>
-      <c r="K32" s="20" t="s">
+      <c r="G32" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="L32" s="33"/>
-      <c r="M32" s="76"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="33"/>
       <c r="N32" s="76"/>
-      <c r="O32" s="76"/>
-      <c r="P32" s="76"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="76"/>
-      <c r="S32" s="76"/>
-      <c r="T32" s="77"/>
-      <c r="U32" s="67">
+      <c r="O32" s="86"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V32" s="31"/>
-      <c r="W32" s="69">
+      <c r="R32" s="31"/>
+      <c r="S32" s="69">
         <v>3</v>
       </c>
-      <c r="X32" s="6">
+      <c r="T32" s="6">
         <f t="shared" si="2"/>
-        <v>66</v>
-      </c>
-      <c r="Y32" s="6">
+        <v>82</v>
+      </c>
+      <c r="U32" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="Z32" s="8">
+        <v>12</v>
+      </c>
+      <c r="V32" s="8">
         <f t="shared" si="4"/>
-        <v>10.530000000000003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>13.91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="22" t="s">
         <v>125</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D33" s="13">
         <v>2</v>
@@ -4800,77 +4663,65 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G33" s="13">
-        <v>29</v>
-      </c>
-      <c r="H33" s="13">
-        <v>19</v>
-      </c>
-      <c r="I33" s="13">
-        <v>28</v>
-      </c>
-      <c r="J33" s="13">
-        <v>15</v>
-      </c>
-      <c r="K33" s="21" t="s">
+      <c r="G33" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="L33" s="32">
-        <v>1</v>
-      </c>
-      <c r="M33" s="75">
+      <c r="H33" s="32">
+        <v>1</v>
+      </c>
+      <c r="I33" s="75">
+        <v>1</v>
+      </c>
+      <c r="J33" s="75">
+        <v>1</v>
+      </c>
+      <c r="K33" s="75">
+        <v>1</v>
+      </c>
+      <c r="L33" s="77">
+        <v>1</v>
+      </c>
+      <c r="M33" s="73">
         <v>1</v>
       </c>
       <c r="N33" s="75">
         <v>1</v>
       </c>
-      <c r="O33" s="75">
-        <v>1</v>
-      </c>
-      <c r="P33" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="73">
-        <v>1</v>
-      </c>
-      <c r="R33" s="75">
-        <v>1</v>
-      </c>
-      <c r="S33" s="75">
-        <v>1</v>
-      </c>
-      <c r="T33" s="75"/>
-      <c r="U33" s="67">
+      <c r="O33" s="84">
+        <v>1</v>
+      </c>
+      <c r="P33" s="75"/>
+      <c r="Q33" s="67">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="V33" s="31"/>
-      <c r="W33" s="69">
+      <c r="R33" s="31"/>
+      <c r="S33" s="69">
         <v>3.5</v>
       </c>
-      <c r="X33" s="6">
+      <c r="T33" s="6">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="Y33" s="6">
+      <c r="U33" s="6">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="Z33" s="8">
+      <c r="V33" s="8">
         <f t="shared" si="4"/>
         <v>5.2</v>
       </c>
-      <c r="AA33"/>
-      <c r="AB33"/>
-      <c r="AC33"/>
-      <c r="AD33"/>
-    </row>
-    <row r="34" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+    </row>
+    <row r="34" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="22" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D34" s="13">
         <v>1</v>
@@ -4879,67 +4730,64 @@
         <v>0</v>
       </c>
       <c r="F34" s="13">
-        <f t="shared" ref="F34:F66" si="5">CEILING(D34,W$22+1)</f>
+        <f t="shared" ref="F34:F65" si="5">CEILING(D34,S$22+1)</f>
         <v>2</v>
       </c>
-      <c r="J34" s="13">
-        <v>16</v>
-      </c>
-      <c r="K34" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="L34" s="32">
-        <v>1</v>
-      </c>
-      <c r="M34" s="75">
+      <c r="G34" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="H34" s="32">
+        <v>1</v>
+      </c>
+      <c r="I34" s="75">
+        <v>1</v>
+      </c>
+      <c r="J34" s="75">
+        <v>1</v>
+      </c>
+      <c r="K34" s="75">
+        <v>1</v>
+      </c>
+      <c r="L34" s="77">
+        <v>0</v>
+      </c>
+      <c r="M34" s="73">
         <v>1</v>
       </c>
       <c r="N34" s="75">
         <v>1</v>
       </c>
-      <c r="O34" s="75">
-        <v>1</v>
-      </c>
-      <c r="P34" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="73">
-        <v>1</v>
-      </c>
-      <c r="R34" s="75">
-        <v>1</v>
-      </c>
-      <c r="S34" s="75">
-        <v>1</v>
-      </c>
-      <c r="U34" s="67">
+      <c r="O34" s="84">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="67">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="V34" s="31"/>
-      <c r="W34" s="71">
+      <c r="R34" s="31"/>
+      <c r="S34" s="71">
         <v>4</v>
       </c>
-      <c r="X34" s="45">
+      <c r="T34" s="45">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="Y34" s="45">
+      <c r="U34" s="45">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="Z34" s="9">
+      <c r="V34" s="9">
         <f t="shared" si="4"/>
         <v>5.2</v>
       </c>
     </row>
-    <row r="35" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="22" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D35" s="13">
         <v>3</v>
@@ -4951,65 +4799,53 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="G35" s="13">
-        <v>30</v>
-      </c>
-      <c r="H35" s="13">
-        <v>20</v>
-      </c>
-      <c r="I35" s="13">
-        <v>29</v>
-      </c>
-      <c r="J35" s="13">
-        <v>16</v>
-      </c>
-      <c r="K35" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="L35" s="32">
-        <v>1</v>
-      </c>
-      <c r="M35" s="75">
+      <c r="G35" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="H35" s="32">
+        <v>1</v>
+      </c>
+      <c r="I35" s="75">
+        <v>1</v>
+      </c>
+      <c r="J35" s="75">
+        <v>1</v>
+      </c>
+      <c r="K35" s="75">
+        <v>1</v>
+      </c>
+      <c r="L35" s="77">
+        <v>1</v>
+      </c>
+      <c r="M35" s="32">
         <v>1</v>
       </c>
       <c r="N35" s="75">
         <v>1</v>
       </c>
-      <c r="O35" s="75">
-        <v>1</v>
-      </c>
-      <c r="P35" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="32">
-        <v>1</v>
-      </c>
-      <c r="R35" s="75">
-        <v>1</v>
-      </c>
-      <c r="S35" s="75">
-        <v>1</v>
-      </c>
-      <c r="T35" s="75"/>
-      <c r="U35" s="67">
+      <c r="O35" s="84">
+        <v>1</v>
+      </c>
+      <c r="P35" s="75"/>
+      <c r="Q35" s="67">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="W35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35" s="6"/>
+      <c r="W35"/>
       <c r="X35"/>
       <c r="Y35"/>
-      <c r="Z35" s="6"/>
-      <c r="AA35"/>
-      <c r="AB35"/>
-      <c r="AC35"/>
-      <c r="AD35"/>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Z35"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B36" s="22" t="s">
         <v>126</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D36" s="13">
         <v>3</v>
@@ -5021,41 +4857,33 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="G36" s="13">
-        <v>31</v>
-      </c>
-      <c r="I36" s="13">
-        <v>30</v>
-      </c>
-      <c r="J36" s="13">
-        <v>17</v>
-      </c>
-      <c r="K36" s="21"/>
-      <c r="L36" s="32">
-        <v>1</v>
-      </c>
-      <c r="P36" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="32">
-        <v>0</v>
-      </c>
-      <c r="U36" s="67">
+      <c r="G36" s="21"/>
+      <c r="H36" s="32">
+        <v>1</v>
+      </c>
+      <c r="L36" s="77">
+        <v>0</v>
+      </c>
+      <c r="M36" s="32">
+        <v>1</v>
+      </c>
+      <c r="O36" s="83"/>
+      <c r="Q36" s="67">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V36" s="31"/>
-      <c r="AA36" s="6"/>
-      <c r="AB36" s="6"/>
-      <c r="AC36" s="6"/>
-      <c r="AD36" s="6"/>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="R36" s="31"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B37" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D37" s="13">
         <v>2</v>
@@ -5067,48 +4895,43 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="H37" s="13">
-        <v>21</v>
-      </c>
-      <c r="I37" s="13">
-        <v>31</v>
-      </c>
-      <c r="J37" s="13">
-        <v>18</v>
-      </c>
-      <c r="K37" s="21" t="s">
+      <c r="G37" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="L37" s="32">
-        <v>1</v>
-      </c>
-      <c r="M37" s="75">
-        <v>1</v>
+      <c r="H37" s="32">
+        <v>1</v>
+      </c>
+      <c r="I37" s="75">
+        <v>1</v>
+      </c>
+      <c r="J37" s="75">
+        <v>1</v>
+      </c>
+      <c r="L37" s="77">
+        <v>1</v>
+      </c>
+      <c r="M37" s="32">
+        <v>0</v>
       </c>
       <c r="N37" s="75">
         <v>1</v>
       </c>
-      <c r="P37" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="32">
-        <v>1</v>
-      </c>
-      <c r="U37" s="67">
+      <c r="O37" s="83"/>
+      <c r="Q37" s="67">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="R37" s="31"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="31"/>
       <c r="V37" s="31"/>
-      <c r="X37" s="31"/>
-      <c r="Y37" s="31"/>
-      <c r="Z37" s="31"/>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B38" s="22" t="s">
         <v>98</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D38" s="13">
         <v>4</v>
@@ -5120,43 +4943,44 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="J38" s="13">
-        <v>19</v>
-      </c>
-      <c r="K38" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="L38" s="32">
-        <v>1</v>
-      </c>
-      <c r="M38" s="75">
+      <c r="G38" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="H38" s="32">
+        <v>1</v>
+      </c>
+      <c r="I38" s="75">
         <v>0.5</v>
       </c>
+      <c r="J38" s="75">
+        <v>1</v>
+      </c>
+      <c r="L38" s="77">
+        <v>1</v>
+      </c>
+      <c r="M38" s="32">
+        <v>0</v>
+      </c>
       <c r="N38" s="75">
         <v>1</v>
       </c>
-      <c r="P38" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="32">
-        <v>1</v>
-      </c>
-      <c r="U38" s="67">
+      <c r="O38" s="83"/>
+      <c r="Q38" s="67">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V38" s="31"/>
-      <c r="AA38" s="31"/>
-      <c r="AB38" s="31"/>
-      <c r="AC38" s="31"/>
-      <c r="AD38" s="31"/>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="R38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="31"/>
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="31"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B39" s="22" t="s">
         <v>95</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D39" s="13">
         <v>3</v>
@@ -5168,43 +4992,41 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="J39" s="13">
-        <v>20</v>
-      </c>
-      <c r="K39" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="L39" s="32">
-        <v>1</v>
-      </c>
-      <c r="M39" s="75">
-        <v>1</v>
-      </c>
-      <c r="N39" s="75">
-        <v>1</v>
-      </c>
-      <c r="O39" s="75">
-        <v>1</v>
-      </c>
-      <c r="P39" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="32">
-        <v>1</v>
-      </c>
-      <c r="U39" s="67">
+      <c r="G39" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="H39" s="32">
+        <v>1</v>
+      </c>
+      <c r="I39" s="75">
+        <v>1</v>
+      </c>
+      <c r="J39" s="75">
+        <v>1</v>
+      </c>
+      <c r="K39" s="75">
+        <v>1</v>
+      </c>
+      <c r="L39" s="77">
+        <v>1</v>
+      </c>
+      <c r="M39" s="32">
+        <v>0</v>
+      </c>
+      <c r="O39" s="83"/>
+      <c r="Q39" s="67">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V39" s="31"/>
-      <c r="W39" s="72"/>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="R39" s="31"/>
+      <c r="S39" s="72"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B40" s="22" t="s">
         <v>127</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D40" s="13">
         <v>7</v>
@@ -5216,54 +5038,42 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="G40" s="13">
-        <v>33</v>
-      </c>
-      <c r="H40" s="13">
-        <v>22</v>
-      </c>
-      <c r="I40" s="13">
-        <v>32</v>
-      </c>
-      <c r="J40" s="13">
-        <v>21</v>
-      </c>
-      <c r="K40" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="L40" s="32">
-        <v>1</v>
-      </c>
-      <c r="M40" s="75">
+      <c r="G40" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="H40" s="32">
+        <v>1</v>
+      </c>
+      <c r="I40" s="75">
         <v>0.5</v>
       </c>
+      <c r="J40" s="75">
+        <v>0.75</v>
+      </c>
+      <c r="K40" s="75">
+        <v>1</v>
+      </c>
+      <c r="L40" s="77">
+        <v>1</v>
+      </c>
+      <c r="M40" s="32">
+        <v>1</v>
+      </c>
       <c r="N40" s="75">
-        <v>0.75</v>
-      </c>
-      <c r="O40" s="75">
-        <v>1</v>
-      </c>
-      <c r="P40" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="32">
-        <v>1</v>
-      </c>
-      <c r="R40" s="75">
-        <v>1</v>
-      </c>
-      <c r="S40" s="75">
-        <v>1</v>
-      </c>
-      <c r="T40" s="78"/>
-      <c r="U40" s="81">
+        <v>1</v>
+      </c>
+      <c r="O40" s="84">
+        <v>1</v>
+      </c>
+      <c r="P40" s="78"/>
+      <c r="Q40" s="81">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="V40" s="31"/>
-      <c r="W40" s="72"/>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="R40" s="31"/>
+      <c r="S40" s="72"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
         <v>78</v>
       </c>
@@ -5271,7 +5081,7 @@
         <v>128</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D41" s="12">
         <v>2</v>
@@ -5283,61 +5093,49 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="G41" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="H41" s="12">
-        <v>23</v>
-      </c>
-      <c r="I41" s="12">
-        <v>33</v>
-      </c>
-      <c r="J41" s="12">
-        <v>22</v>
-      </c>
-      <c r="K41" s="20" t="s">
+      <c r="G41" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="L41" s="33">
-        <v>1</v>
-      </c>
-      <c r="M41" s="76">
+      <c r="H41" s="33">
+        <v>1</v>
+      </c>
+      <c r="I41" s="76">
+        <v>1</v>
+      </c>
+      <c r="J41" s="76">
+        <v>1</v>
+      </c>
+      <c r="K41" s="76">
+        <v>1</v>
+      </c>
+      <c r="L41" s="76">
+        <v>1</v>
+      </c>
+      <c r="M41" s="33">
         <v>1</v>
       </c>
       <c r="N41" s="76">
         <v>1</v>
       </c>
-      <c r="O41" s="76">
-        <v>1</v>
-      </c>
-      <c r="P41" s="76">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="33">
-        <v>1</v>
-      </c>
-      <c r="R41" s="76">
-        <v>1</v>
-      </c>
-      <c r="S41" s="76">
-        <v>1</v>
-      </c>
-      <c r="T41" s="77"/>
-      <c r="U41" s="67">
+      <c r="O41" s="86">
+        <v>1</v>
+      </c>
+      <c r="P41" s="77"/>
+      <c r="Q41" s="67">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="V41" s="31"/>
-      <c r="W41" s="72"/>
-      <c r="Z41" s="6"/>
-    </row>
-    <row r="42" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R41" s="31"/>
+      <c r="S41" s="72"/>
+      <c r="V41" s="6"/>
+    </row>
+    <row r="42" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="22" t="s">
         <v>170</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D42" s="13">
         <v>5</v>
@@ -5349,62 +5147,50 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="G42" s="13">
-        <v>36</v>
-      </c>
-      <c r="H42" s="13">
-        <v>24</v>
-      </c>
-      <c r="I42" s="13">
-        <v>34</v>
-      </c>
-      <c r="J42" s="13">
-        <v>23</v>
-      </c>
-      <c r="K42" s="21"/>
-      <c r="L42" s="32">
-        <v>1</v>
-      </c>
-      <c r="M42" s="75">
-        <v>1</v>
-      </c>
-      <c r="N42" s="75">
-        <v>1</v>
-      </c>
-      <c r="O42" s="75">
-        <v>1</v>
-      </c>
-      <c r="P42" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="32">
-        <v>1</v>
-      </c>
-      <c r="R42" s="75"/>
-      <c r="S42" s="75">
-        <v>1</v>
-      </c>
-      <c r="T42" s="75"/>
-      <c r="U42" s="67">
+      <c r="G42" s="21"/>
+      <c r="H42" s="32">
+        <v>1</v>
+      </c>
+      <c r="I42" s="75">
+        <v>1</v>
+      </c>
+      <c r="J42" s="75">
+        <v>1</v>
+      </c>
+      <c r="K42" s="75">
+        <v>1</v>
+      </c>
+      <c r="L42" s="77">
+        <v>1</v>
+      </c>
+      <c r="M42" s="32">
+        <v>1</v>
+      </c>
+      <c r="N42" s="75"/>
+      <c r="O42" s="84">
+        <v>1</v>
+      </c>
+      <c r="P42" s="75"/>
+      <c r="Q42" s="67">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="V42" s="31"/>
-      <c r="W42" s="3"/>
+      <c r="R42" s="31"/>
+      <c r="S42" s="3"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
       <c r="X42"/>
       <c r="Y42"/>
       <c r="Z42"/>
-      <c r="AA42"/>
-      <c r="AB42"/>
-      <c r="AC42"/>
-      <c r="AD42"/>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B43" s="22" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D43" s="13">
         <v>4</v>
@@ -5416,26 +5202,27 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="K43" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="L43" s="32"/>
-      <c r="P43" s="77"/>
-      <c r="Q43" s="31"/>
-      <c r="U43" s="67">
+      <c r="G43" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="H43" s="32"/>
+      <c r="L43" s="77"/>
+      <c r="M43" s="31"/>
+      <c r="O43" s="83"/>
+      <c r="Q43" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V43" s="31"/>
-      <c r="W43" s="14"/>
-      <c r="X43" s="6"/>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="R43" s="31"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="6"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B44" s="22" t="s">
         <v>129</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D44" s="13">
         <v>6</v>
@@ -5447,47 +5234,41 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="H44" s="13">
-        <v>25</v>
-      </c>
-      <c r="J44" s="13">
-        <v>24</v>
-      </c>
-      <c r="K44" s="21" t="s">
+      <c r="G44" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="L44" s="32"/>
-      <c r="M44" s="75">
-        <v>1</v>
-      </c>
-      <c r="N44" s="75">
-        <v>1</v>
-      </c>
-      <c r="O44" s="75">
-        <v>1</v>
-      </c>
-      <c r="P44" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="32">
-        <v>1</v>
-      </c>
-      <c r="S44" s="75">
-        <v>1</v>
-      </c>
-      <c r="U44" s="67">
+      <c r="H44" s="32"/>
+      <c r="I44" s="75">
+        <v>1</v>
+      </c>
+      <c r="J44" s="75">
+        <v>1</v>
+      </c>
+      <c r="K44" s="75">
+        <v>1</v>
+      </c>
+      <c r="L44" s="77">
+        <v>1</v>
+      </c>
+      <c r="M44" s="32">
+        <v>1</v>
+      </c>
+      <c r="O44" s="84">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="67">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="V44" s="31"/>
-      <c r="Z44" s="6"/>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="R44" s="31"/>
+      <c r="V44" s="6"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B45" s="22" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D45" s="13">
         <v>5</v>
@@ -5499,55 +5280,44 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="G45" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="H45" s="13">
-        <v>26</v>
-      </c>
-      <c r="I45" s="13">
-        <v>35</v>
-      </c>
-      <c r="J45" s="13">
-        <v>25</v>
-      </c>
-      <c r="K45" s="21" t="s">
+      <c r="G45" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="L45" s="32">
-        <v>1</v>
-      </c>
-      <c r="M45" s="75">
+      <c r="H45" s="32">
+        <v>1</v>
+      </c>
+      <c r="I45" s="75">
+        <v>1</v>
+      </c>
+      <c r="J45" s="75">
+        <v>1</v>
+      </c>
+      <c r="L45" s="77">
+        <v>1</v>
+      </c>
+      <c r="M45" s="32">
         <v>1</v>
       </c>
       <c r="N45" s="75">
         <v>1</v>
       </c>
-      <c r="P45" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="32">
-        <v>1</v>
-      </c>
-      <c r="R45" s="75">
-        <v>1</v>
-      </c>
-      <c r="T45" s="78"/>
-      <c r="U45" s="81">
+      <c r="O45" s="83"/>
+      <c r="P45" s="78"/>
+      <c r="Q45" s="81">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="V45" s="31"/>
-    </row>
-    <row r="46" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R45" s="31"/>
+    </row>
+    <row r="46" spans="1:26" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>79</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D46" s="12">
         <v>7</v>
@@ -5559,55 +5329,43 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="G46" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="H46" s="12">
-        <v>28</v>
-      </c>
-      <c r="I46" s="12">
-        <v>11</v>
-      </c>
-      <c r="J46" s="12">
-        <v>26</v>
-      </c>
-      <c r="K46" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="L46" s="33">
-        <v>1</v>
-      </c>
-      <c r="M46" s="76">
-        <v>1</v>
-      </c>
-      <c r="N46" s="76">
-        <v>1</v>
-      </c>
-      <c r="O46" s="76">
-        <v>1</v>
-      </c>
-      <c r="P46" s="76">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="33">
-        <v>0.8</v>
-      </c>
-      <c r="R46" s="76"/>
-      <c r="S46" s="76"/>
-      <c r="T46" s="77"/>
-      <c r="U46" s="67">
+      <c r="G46" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="H46" s="33">
+        <v>1</v>
+      </c>
+      <c r="I46" s="76">
+        <v>1</v>
+      </c>
+      <c r="J46" s="76">
+        <v>1</v>
+      </c>
+      <c r="K46" s="76">
+        <v>1</v>
+      </c>
+      <c r="L46" s="76">
+        <v>1</v>
+      </c>
+      <c r="M46" s="33">
+        <v>1</v>
+      </c>
+      <c r="N46" s="76"/>
+      <c r="O46" s="86"/>
+      <c r="P46" s="77"/>
+      <c r="Q46" s="67">
         <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="W46" s="3"/>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="S46" s="3"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" s="28"/>
       <c r="B47" s="29" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D47" s="13">
         <v>4</v>
@@ -5619,40 +5377,42 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="K47" s="21" t="s">
-        <v>216</v>
-      </c>
+      <c r="G47" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H47" s="77"/>
+      <c r="I47" s="77"/>
+      <c r="J47" s="77"/>
+      <c r="K47" s="77"/>
       <c r="L47" s="77"/>
-      <c r="M47" s="77"/>
-      <c r="N47" s="77"/>
-      <c r="O47" s="77"/>
+      <c r="M47" s="77">
+        <v>1</v>
+      </c>
+      <c r="N47" s="77">
+        <v>1</v>
+      </c>
+      <c r="O47" s="85">
+        <v>1</v>
+      </c>
       <c r="P47" s="77"/>
-      <c r="Q47" s="77"/>
-      <c r="R47" s="77">
-        <v>1</v>
-      </c>
-      <c r="S47" s="77">
-        <v>1</v>
-      </c>
-      <c r="T47" s="77"/>
-      <c r="U47" s="67">
+      <c r="Q47" s="67">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="V47" s="31"/>
+        <v>3</v>
+      </c>
+      <c r="R47" s="31"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
       <c r="Z47" s="6"/>
-      <c r="AA47" s="6"/>
-      <c r="AB47" s="6"/>
-      <c r="AC47" s="6"/>
-      <c r="AD47" s="6"/>
-    </row>
-    <row r="48" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:26" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="22" t="s">
         <v>93</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D48" s="13">
         <v>6</v>
@@ -5664,60 +5424,48 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="G48" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="H48" s="13">
-        <v>29</v>
-      </c>
-      <c r="I48" s="13">
-        <v>12</v>
-      </c>
-      <c r="J48" s="13">
-        <v>27</v>
-      </c>
-      <c r="K48" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="L48" s="32">
-        <v>1</v>
-      </c>
-      <c r="M48" s="75">
-        <v>1</v>
-      </c>
-      <c r="N48" s="75">
-        <v>1</v>
-      </c>
-      <c r="O48" s="75">
-        <v>1</v>
-      </c>
-      <c r="P48" s="77">
+      <c r="G48" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="H48" s="32">
+        <v>1</v>
+      </c>
+      <c r="I48" s="75">
+        <v>1</v>
+      </c>
+      <c r="J48" s="75">
+        <v>1</v>
+      </c>
+      <c r="K48" s="75">
+        <v>1</v>
+      </c>
+      <c r="L48" s="77">
         <v>0.9</v>
       </c>
-      <c r="Q48" s="32">
-        <v>0.8</v>
-      </c>
-      <c r="R48" s="75"/>
-      <c r="S48" s="75"/>
-      <c r="T48" s="75"/>
-      <c r="U48" s="67">
+      <c r="M48" s="32">
+        <v>1</v>
+      </c>
+      <c r="N48" s="75"/>
+      <c r="O48" s="84"/>
+      <c r="P48" s="75"/>
+      <c r="Q48" s="67">
         <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="W48" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="S48" s="3"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
       <c r="Z48" s="6"/>
-      <c r="AA48" s="6"/>
-      <c r="AB48" s="6"/>
-      <c r="AC48" s="6"/>
-      <c r="AD48" s="6"/>
-    </row>
-    <row r="49" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="22" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D49" s="13">
         <v>8</v>
@@ -5729,45 +5477,43 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="L49" s="75"/>
-      <c r="M49" s="75"/>
-      <c r="N49" s="75"/>
-      <c r="O49" s="75"/>
-      <c r="P49" s="77"/>
-      <c r="Q49" s="75"/>
-      <c r="R49" s="75">
-        <v>1</v>
-      </c>
-      <c r="S49" s="75">
-        <v>1</v>
-      </c>
-      <c r="T49" s="75"/>
-      <c r="U49" s="67">
+      <c r="G49" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H49" s="75"/>
+      <c r="I49" s="75"/>
+      <c r="J49" s="75"/>
+      <c r="K49" s="75"/>
+      <c r="L49" s="77"/>
+      <c r="M49" s="75">
+        <v>1</v>
+      </c>
+      <c r="N49" s="75">
+        <v>1</v>
+      </c>
+      <c r="O49" s="84">
+        <v>1</v>
+      </c>
+      <c r="P49" s="75"/>
+      <c r="Q49" s="67">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="V49" s="31"/>
-      <c r="W49" s="14"/>
+        <v>3</v>
+      </c>
+      <c r="R49" s="31"/>
+      <c r="S49" s="14"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
       <c r="Y49"/>
       <c r="Z49"/>
-      <c r="AA49"/>
-      <c r="AB49"/>
-      <c r="AC49"/>
-      <c r="AD49"/>
-    </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B50" s="22" t="s">
         <v>130</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D50" s="13">
         <v>2</v>
@@ -5779,53 +5525,41 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="G50" s="13">
-        <v>43</v>
-      </c>
-      <c r="H50" s="13">
-        <v>30</v>
-      </c>
-      <c r="I50" s="13">
-        <v>13</v>
-      </c>
-      <c r="J50" s="13">
-        <v>28</v>
-      </c>
-      <c r="K50" s="21"/>
-      <c r="L50" s="75">
-        <v>1</v>
+      <c r="G50" s="21"/>
+      <c r="H50" s="75">
+        <v>1</v>
+      </c>
+      <c r="I50" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="J50" s="75">
+        <v>1</v>
+      </c>
+      <c r="K50" s="75">
+        <v>1</v>
+      </c>
+      <c r="L50" s="77">
+        <v>0.1</v>
       </c>
       <c r="M50" s="75">
-        <v>0.5</v>
-      </c>
-      <c r="N50" s="75">
-        <v>1</v>
-      </c>
-      <c r="O50" s="75">
-        <v>1</v>
-      </c>
-      <c r="P50" s="77">
-        <v>0.1</v>
-      </c>
-      <c r="Q50" s="75">
-        <v>0.8</v>
-      </c>
-      <c r="S50" s="75">
-        <v>1</v>
-      </c>
-      <c r="U50" s="67">
+        <v>1</v>
+      </c>
+      <c r="O50" s="84">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="67">
         <f t="shared" si="1"/>
-        <v>1.8</v>
-      </c>
-      <c r="V50" s="31"/>
-      <c r="Y50" s="6"/>
-    </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="R50" s="31"/>
+      <c r="U50" s="6"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B51" s="22" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D51" s="13">
         <v>4</v>
@@ -5837,48 +5571,37 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="G51" s="13">
-        <v>43</v>
-      </c>
-      <c r="H51" s="13">
-        <v>30</v>
-      </c>
-      <c r="I51" s="13">
-        <v>13</v>
-      </c>
-      <c r="J51" s="13">
-        <v>28</v>
-      </c>
-      <c r="K51" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="L51" s="32"/>
-      <c r="N51" s="75">
+      <c r="G51" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="H51" s="32"/>
+      <c r="J51" s="75">
         <v>0.75</v>
       </c>
-      <c r="O51" s="75">
-        <v>1</v>
-      </c>
-      <c r="P51" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="32"/>
-      <c r="T51" s="78"/>
-      <c r="U51" s="81">
+      <c r="K51" s="75">
+        <v>1</v>
+      </c>
+      <c r="L51" s="77">
+        <v>1</v>
+      </c>
+      <c r="M51" s="32"/>
+      <c r="O51" s="83"/>
+      <c r="P51" s="78"/>
+      <c r="Q51" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V51" s="31"/>
-    </row>
-    <row r="52" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R51" s="31"/>
+    </row>
+    <row r="52" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
         <v>80</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D52" s="12">
         <v>2</v>
@@ -5890,54 +5613,46 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="G52" s="12">
-        <v>38</v>
-      </c>
-      <c r="H52" s="12">
-        <v>31</v>
-      </c>
-      <c r="I52" s="12">
-        <v>9</v>
-      </c>
-      <c r="J52" s="12"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="76">
-        <v>1</v>
-      </c>
-      <c r="N52" s="76">
+      <c r="G52" s="20"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="76">
+        <v>1</v>
+      </c>
+      <c r="J52" s="76">
         <v>0.75</v>
       </c>
-      <c r="O52" s="76">
-        <v>1</v>
-      </c>
-      <c r="P52" s="76"/>
-      <c r="Q52" s="33"/>
-      <c r="R52" s="76"/>
-      <c r="S52" s="76">
-        <v>1</v>
-      </c>
-      <c r="T52" s="77"/>
-      <c r="U52" s="67">
+      <c r="K52" s="76">
+        <v>1</v>
+      </c>
+      <c r="L52" s="76"/>
+      <c r="M52" s="33">
+        <v>1</v>
+      </c>
+      <c r="N52" s="76"/>
+      <c r="O52" s="86">
+        <v>1</v>
+      </c>
+      <c r="P52" s="77"/>
+      <c r="Q52" s="67">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V52" s="31"/>
-      <c r="W52" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="R52" s="31"/>
+      <c r="S52" s="3"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
       <c r="X52"/>
       <c r="Y52"/>
       <c r="Z52"/>
-      <c r="AA52"/>
-      <c r="AB52"/>
-      <c r="AC52"/>
-      <c r="AD52"/>
-    </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B53" s="22" t="s">
         <v>131</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D53" s="13">
         <v>3</v>
@@ -5949,39 +5664,32 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="G53" s="13">
-        <v>39</v>
-      </c>
-      <c r="H53" s="13">
-        <v>32</v>
-      </c>
-      <c r="I53" s="13">
-        <v>10</v>
-      </c>
-      <c r="K53" s="21"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="75">
-        <v>1</v>
-      </c>
-      <c r="N53" s="75">
+      <c r="G53" s="21"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="75">
+        <v>1</v>
+      </c>
+      <c r="J53" s="75">
         <v>0.75</v>
       </c>
-      <c r="O53" s="75">
-        <v>1</v>
-      </c>
-      <c r="P53" s="77"/>
-      <c r="Q53" s="32"/>
-      <c r="S53" s="75">
-        <v>1</v>
-      </c>
-      <c r="T53" s="78"/>
-      <c r="U53" s="81">
+      <c r="K53" s="75">
+        <v>1</v>
+      </c>
+      <c r="L53" s="77"/>
+      <c r="M53" s="32">
+        <v>1</v>
+      </c>
+      <c r="O53" s="84">
+        <v>1</v>
+      </c>
+      <c r="P53" s="78"/>
+      <c r="Q53" s="81">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V53" s="31"/>
-    </row>
-    <row r="54" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="R53" s="31"/>
+    </row>
+    <row r="54" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
         <v>81</v>
       </c>
@@ -5989,7 +5697,7 @@
         <v>132</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D54" s="12">
         <v>2</v>
@@ -6001,54 +5709,46 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12">
-        <v>33</v>
-      </c>
-      <c r="I54" s="12">
-        <v>1</v>
-      </c>
-      <c r="J54" s="12"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="33"/>
-      <c r="M54" s="76"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="76"/>
+      <c r="J54" s="76">
+        <v>0.5</v>
+      </c>
+      <c r="K54" s="76">
+        <v>1</v>
+      </c>
+      <c r="L54" s="76">
+        <v>0</v>
+      </c>
+      <c r="M54" s="33">
+        <v>0</v>
+      </c>
       <c r="N54" s="76">
-        <v>0.5</v>
-      </c>
-      <c r="O54" s="76">
-        <v>1</v>
-      </c>
-      <c r="P54" s="76">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="33">
-        <v>0</v>
-      </c>
-      <c r="R54" s="76">
-        <v>1</v>
-      </c>
-      <c r="S54" s="76">
-        <v>1</v>
-      </c>
-      <c r="T54" s="77"/>
-      <c r="U54" s="67">
+        <v>1</v>
+      </c>
+      <c r="O54" s="86">
+        <v>1</v>
+      </c>
+      <c r="P54" s="77"/>
+      <c r="Q54" s="67">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="V54" s="31"/>
-      <c r="W54" s="14"/>
+      <c r="R54" s="31"/>
+      <c r="S54" s="14"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+      <c r="Y54"/>
       <c r="Z54"/>
-      <c r="AA54"/>
-      <c r="AB54"/>
-      <c r="AC54"/>
-      <c r="AD54"/>
-    </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B55" s="22" t="s">
         <v>133</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D55" s="13">
         <v>3</v>
@@ -6060,52 +5760,40 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="G55" s="13">
-        <v>2</v>
-      </c>
-      <c r="H55" s="13">
-        <v>34</v>
-      </c>
-      <c r="I55" s="13">
-        <v>6</v>
-      </c>
-      <c r="J55" s="13">
-        <v>30</v>
-      </c>
-      <c r="K55" s="21"/>
-      <c r="L55" s="32">
+      <c r="G55" s="21"/>
+      <c r="H55" s="32">
+        <v>0</v>
+      </c>
+      <c r="J55" s="75">
+        <v>0.25</v>
+      </c>
+      <c r="K55" s="75">
+        <v>1</v>
+      </c>
+      <c r="L55" s="77">
+        <v>0</v>
+      </c>
+      <c r="M55" s="73">
         <v>0</v>
       </c>
       <c r="N55" s="75">
-        <v>0.25</v>
-      </c>
-      <c r="O55" s="75">
-        <v>1</v>
-      </c>
-      <c r="P55" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="73">
-        <v>0</v>
-      </c>
-      <c r="R55" s="75">
-        <v>1</v>
-      </c>
-      <c r="S55" s="75">
-        <v>1</v>
-      </c>
-      <c r="U55" s="67">
+        <v>1</v>
+      </c>
+      <c r="O55" s="84">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="67">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="V55" s="31"/>
-    </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="R55" s="31"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B56" s="22" t="s">
         <v>134</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D56" s="13">
         <v>3</v>
@@ -6117,47 +5805,38 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="G56" s="13">
-        <v>4</v>
-      </c>
-      <c r="I56" s="13">
-        <v>2</v>
-      </c>
-      <c r="J56" s="13">
-        <v>31</v>
-      </c>
-      <c r="K56" s="21"/>
-      <c r="L56" s="32">
-        <v>0</v>
-      </c>
-      <c r="P56" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="73">
-        <v>0</v>
-      </c>
-      <c r="R56" s="75">
+      <c r="G56" s="21"/>
+      <c r="H56" s="32">
+        <v>0</v>
+      </c>
+      <c r="L56" s="77">
+        <v>0</v>
+      </c>
+      <c r="M56" s="73">
+        <v>0</v>
+      </c>
+      <c r="N56" s="75">
         <v>0.5</v>
       </c>
-      <c r="S56" s="75">
-        <v>1</v>
-      </c>
-      <c r="U56" s="67">
+      <c r="O56" s="84">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="67">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="V56" s="31"/>
-      <c r="AA56" s="31"/>
-      <c r="AB56" s="6"/>
-      <c r="AC56" s="6"/>
-      <c r="AD56" s="6"/>
-    </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="R56" s="31"/>
+      <c r="W56" s="31"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6"/>
+      <c r="Z56" s="6"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B57" s="22" t="s">
         <v>135</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D57" s="13">
         <v>3</v>
@@ -6169,33 +5848,30 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="G57" s="13">
-        <v>5</v>
-      </c>
-      <c r="K57" s="21"/>
-      <c r="L57" s="32"/>
-      <c r="P57" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="73">
-        <v>0</v>
-      </c>
-      <c r="S57" s="75">
-        <v>1</v>
-      </c>
-      <c r="U57" s="67">
+      <c r="G57" s="21"/>
+      <c r="H57" s="32"/>
+      <c r="L57" s="77">
+        <v>0</v>
+      </c>
+      <c r="M57" s="73">
+        <v>0</v>
+      </c>
+      <c r="O57" s="84">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="67">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V57" s="31"/>
-      <c r="AA57" s="31"/>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="R57" s="31"/>
+      <c r="W57" s="31"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B58" s="22" t="s">
         <v>136</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D58" s="13">
         <v>2</v>
@@ -6207,53 +5883,44 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="G58" s="13">
-        <v>6</v>
-      </c>
-      <c r="I58" s="13">
-        <v>3</v>
-      </c>
-      <c r="J58" s="13">
-        <v>32</v>
-      </c>
-      <c r="K58" s="21"/>
-      <c r="L58" s="32">
+      <c r="G58" s="21"/>
+      <c r="H58" s="32">
         <v>0.5</v>
       </c>
-      <c r="M58" s="75">
+      <c r="I58" s="75">
         <v>0.5</v>
       </c>
+      <c r="J58" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="K58" s="75">
+        <v>1</v>
+      </c>
+      <c r="L58" s="77">
+        <v>0.1</v>
+      </c>
+      <c r="M58" s="73">
+        <v>0.2</v>
+      </c>
       <c r="N58" s="75">
-        <v>0.5</v>
-      </c>
-      <c r="O58" s="75">
-        <v>1</v>
-      </c>
-      <c r="P58" s="77">
-        <v>0.1</v>
-      </c>
-      <c r="Q58" s="73">
-        <v>0.2</v>
-      </c>
-      <c r="R58" s="75">
-        <v>1</v>
-      </c>
-      <c r="S58" s="75">
-        <v>1</v>
-      </c>
-      <c r="U58" s="67">
+        <v>1</v>
+      </c>
+      <c r="O58" s="84">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="67">
         <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="V58" s="31"/>
-      <c r="AA58" s="31"/>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="R58" s="31"/>
+      <c r="W58" s="31"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B59" s="22" t="s">
         <v>137</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D59" s="13">
         <v>5</v>
@@ -6265,55 +5932,44 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="G59" s="13">
-        <v>8</v>
-      </c>
-      <c r="H59" s="13">
-        <v>35</v>
-      </c>
-      <c r="I59" s="13">
-        <v>4</v>
-      </c>
-      <c r="J59" s="13">
-        <v>33</v>
-      </c>
-      <c r="K59" s="21"/>
-      <c r="L59" s="32">
-        <v>1</v>
-      </c>
-      <c r="M59" s="75">
+      <c r="G59" s="21"/>
+      <c r="H59" s="32">
+        <v>1</v>
+      </c>
+      <c r="I59" s="75">
+        <v>1</v>
+      </c>
+      <c r="J59" s="75">
+        <v>1</v>
+      </c>
+      <c r="K59" s="75">
+        <v>1</v>
+      </c>
+      <c r="L59" s="77">
+        <v>0</v>
+      </c>
+      <c r="M59" s="73">
         <v>1</v>
       </c>
       <c r="N59" s="75">
         <v>1</v>
       </c>
-      <c r="O59" s="75">
-        <v>1</v>
-      </c>
-      <c r="P59" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="73">
-        <v>1</v>
-      </c>
-      <c r="R59" s="75">
-        <v>1</v>
-      </c>
-      <c r="U59" s="67">
+      <c r="O59" s="83"/>
+      <c r="Q59" s="67">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="V59" s="31"/>
-      <c r="Y59" s="6"/>
-      <c r="AA59" s="31"/>
-    </row>
-    <row r="60" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R59" s="31"/>
+      <c r="U59" s="6"/>
+      <c r="W59" s="31"/>
+    </row>
+    <row r="60" spans="1:26" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
       <c r="B60" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D60" s="13">
         <v>4</v>
@@ -6325,37 +5981,33 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="L60" s="75"/>
-      <c r="M60" s="75"/>
+      <c r="G60" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="H60" s="75"/>
+      <c r="I60" s="75"/>
+      <c r="J60" s="75"/>
+      <c r="K60" s="75"/>
+      <c r="L60" s="77">
+        <v>1</v>
+      </c>
+      <c r="M60" s="73"/>
       <c r="N60" s="75"/>
-      <c r="O60" s="75"/>
-      <c r="P60" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q60" s="73"/>
-      <c r="R60" s="75"/>
-      <c r="S60" s="75"/>
-      <c r="T60" s="75"/>
-      <c r="U60" s="67">
+      <c r="O60" s="84"/>
+      <c r="P60" s="75"/>
+      <c r="Q60" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W60" s="3"/>
-      <c r="Y60" s="6"/>
-    </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="S60" s="3"/>
+      <c r="U60" s="6"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B61" s="22" t="s">
         <v>138</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D61" s="13">
         <v>5</v>
@@ -6367,51 +6019,40 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="G61" s="13">
-        <v>9</v>
-      </c>
-      <c r="H61" s="13">
-        <v>36</v>
-      </c>
-      <c r="I61" s="13">
-        <v>5</v>
-      </c>
-      <c r="J61" s="13">
-        <v>34</v>
-      </c>
-      <c r="K61" s="21"/>
-      <c r="L61" s="32">
-        <v>1</v>
-      </c>
-      <c r="M61" s="75">
+      <c r="G61" s="21"/>
+      <c r="H61" s="32">
+        <v>1</v>
+      </c>
+      <c r="I61" s="75">
+        <v>1</v>
+      </c>
+      <c r="J61" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="L61" s="77">
+        <v>0.1</v>
+      </c>
+      <c r="M61" s="73">
         <v>1</v>
       </c>
       <c r="N61" s="75">
-        <v>0.5</v>
-      </c>
-      <c r="P61" s="77">
-        <v>0.1</v>
-      </c>
-      <c r="Q61" s="73">
-        <v>1</v>
-      </c>
-      <c r="R61" s="75">
-        <v>1</v>
-      </c>
-      <c r="U61" s="67">
+        <v>1</v>
+      </c>
+      <c r="O61" s="83"/>
+      <c r="Q61" s="67">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="V61" s="31"/>
-      <c r="AA61" s="31"/>
-    </row>
-    <row r="62" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R61" s="31"/>
+      <c r="W61" s="31"/>
+    </row>
+    <row r="62" spans="1:26" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10"/>
       <c r="B62" s="22" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D62" s="13">
         <v>3</v>
@@ -6423,34 +6064,32 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="L62" s="75"/>
-      <c r="M62" s="75"/>
-      <c r="N62" s="75"/>
-      <c r="O62" s="75"/>
-      <c r="P62" s="77"/>
-      <c r="Q62" s="73"/>
-      <c r="R62" s="75"/>
-      <c r="S62" s="75"/>
-      <c r="T62" s="75"/>
-      <c r="U62" s="67">
+      <c r="G62" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="H62" s="75"/>
+      <c r="I62" s="75"/>
+      <c r="J62" s="75"/>
+      <c r="K62" s="75"/>
+      <c r="L62" s="77"/>
+      <c r="M62" s="73"/>
+      <c r="N62" s="75">
+        <v>1</v>
+      </c>
+      <c r="O62" s="84"/>
+      <c r="P62" s="75"/>
+      <c r="Q62" s="67">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W62" s="3"/>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="S62" s="3"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B63" s="22" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D63" s="13">
         <v>1</v>
@@ -6462,53 +6101,47 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="H63" s="13">
-        <v>37</v>
-      </c>
-      <c r="J63" s="13">
-        <v>35</v>
-      </c>
-      <c r="K63" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="L63" s="32">
-        <v>1</v>
-      </c>
-      <c r="M63" s="75">
+      <c r="G63" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="H63" s="32">
+        <v>1</v>
+      </c>
+      <c r="I63" s="75">
+        <v>1</v>
+      </c>
+      <c r="J63" s="75">
+        <v>1</v>
+      </c>
+      <c r="K63" s="75">
+        <v>1</v>
+      </c>
+      <c r="L63" s="77">
+        <v>1</v>
+      </c>
+      <c r="M63" s="73">
         <v>1</v>
       </c>
       <c r="N63" s="75">
-        <v>1</v>
-      </c>
-      <c r="O63" s="75">
-        <v>1</v>
-      </c>
-      <c r="P63" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q63" s="73">
-        <v>1</v>
-      </c>
-      <c r="R63" s="75">
-        <v>1</v>
-      </c>
-      <c r="S63" s="75">
-        <v>1</v>
-      </c>
-      <c r="U63" s="67">
+        <v>0</v>
+      </c>
+      <c r="O63" s="84">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="67">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="V63" s="31"/>
-      <c r="Z63" s="6"/>
-      <c r="AA63" s="31"/>
-    </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="R63" s="31"/>
+      <c r="V63" s="6"/>
+      <c r="W63" s="31"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B64" s="22" t="s">
         <v>96</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D64" s="13">
         <v>3</v>
@@ -6520,35 +6153,36 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="J64" s="13">
-        <v>36</v>
-      </c>
-      <c r="K64" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="L64" s="32">
-        <v>1</v>
-      </c>
+      <c r="G64" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="H64" s="32">
+        <v>1</v>
+      </c>
+      <c r="J64" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="L64" s="77">
+        <v>0.5</v>
+      </c>
+      <c r="M64" s="31"/>
       <c r="N64" s="75">
         <v>0.5</v>
       </c>
-      <c r="P64" s="77">
+      <c r="O64" s="83"/>
+      <c r="Q64" s="67">
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="Q64" s="31"/>
-      <c r="U64" s="67">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V64" s="31"/>
-      <c r="AA64" s="31"/>
-    </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="R64" s="31"/>
+      <c r="W64" s="31"/>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B65" s="22" t="s">
         <v>139</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D65" s="13">
         <v>5</v>
@@ -6560,40 +6194,38 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="J65" s="13">
-        <v>37</v>
-      </c>
-      <c r="K65" s="21" t="s">
+      <c r="G65" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="L65" s="32">
-        <v>1</v>
-      </c>
-      <c r="N65" s="75">
+      <c r="H65" s="32">
+        <v>1</v>
+      </c>
+      <c r="J65" s="75">
         <v>0.5</v>
       </c>
-      <c r="O65" s="75">
-        <v>1</v>
-      </c>
-      <c r="P65" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q65" s="32">
+      <c r="K65" s="75">
+        <v>1</v>
+      </c>
+      <c r="L65" s="77">
+        <v>1</v>
+      </c>
+      <c r="M65" s="32">
         <v>0.5</v>
       </c>
-      <c r="U65" s="67">
+      <c r="O65" s="83"/>
+      <c r="Q65" s="67">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="V65" s="31"/>
-      <c r="AA65" s="31"/>
-    </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="R65" s="31"/>
+      <c r="W65" s="31"/>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B66" s="22" t="s">
         <v>140</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D66" s="13">
         <v>9</v>
@@ -6602,37 +6234,35 @@
         <v>2</v>
       </c>
       <c r="F66" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="F66:F85" si="6">CEILING(D66,S$22+1)</f>
         <v>10</v>
       </c>
-      <c r="G66" s="13">
-        <v>10</v>
-      </c>
-      <c r="K66" s="21"/>
-      <c r="L66" s="32"/>
-      <c r="P66" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="31"/>
-      <c r="R66" s="75">
-        <v>1</v>
-      </c>
-      <c r="U66" s="67">
+      <c r="G66" s="21"/>
+      <c r="H66" s="32"/>
+      <c r="L66" s="77">
+        <v>0</v>
+      </c>
+      <c r="M66" s="31"/>
+      <c r="N66" s="75">
+        <v>1</v>
+      </c>
+      <c r="O66" s="83"/>
+      <c r="Q66" s="67">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V66" s="31"/>
-      <c r="AA66" s="31"/>
-      <c r="AB66" s="6"/>
-      <c r="AC66" s="6"/>
-      <c r="AD66" s="6"/>
-    </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="R66" s="31"/>
+      <c r="W66" s="31"/>
+      <c r="X66" s="6"/>
+      <c r="Y66" s="6"/>
+      <c r="Z66" s="6"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B67" s="22" t="s">
         <v>141</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D67" s="13">
         <v>7</v>
@@ -6641,36 +6271,34 @@
         <v>1</v>
       </c>
       <c r="F67" s="13">
-        <f t="shared" ref="F67:F85" si="6">CEILING(D67,W$22+1)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="G67" s="13">
-        <v>11</v>
-      </c>
-      <c r="K67" s="21"/>
-      <c r="L67" s="32"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="32"/>
+      <c r="J67" s="75">
+        <v>0</v>
+      </c>
+      <c r="L67" s="77"/>
+      <c r="M67" s="31"/>
       <c r="N67" s="75">
-        <v>0</v>
-      </c>
-      <c r="P67" s="77"/>
-      <c r="Q67" s="31"/>
-      <c r="R67" s="75">
-        <v>1</v>
-      </c>
-      <c r="U67" s="67">
-        <f t="shared" ref="U67:U85" si="7">SUM(Q67:T67)</f>
-        <v>1</v>
-      </c>
-      <c r="V67" s="31"/>
-      <c r="Z67" s="6"/>
-      <c r="AA67" s="31"/>
-    </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O67" s="83"/>
+      <c r="Q67" s="67">
+        <f t="shared" ref="Q67:Q85" si="7">SUM(M67:P67)</f>
+        <v>1</v>
+      </c>
+      <c r="R67" s="31"/>
+      <c r="V67" s="6"/>
+      <c r="W67" s="31"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B68" s="22" t="s">
         <v>142</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D68" s="13">
         <v>5</v>
@@ -6682,34 +6310,32 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="J68" s="13">
-        <v>38</v>
-      </c>
-      <c r="K68" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="L68" s="32">
-        <v>1</v>
-      </c>
-      <c r="N68" s="75">
+      <c r="G68" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="H68" s="32">
+        <v>1</v>
+      </c>
+      <c r="J68" s="75">
         <v>0.5</v>
       </c>
-      <c r="O68" s="75">
-        <v>1</v>
-      </c>
-      <c r="P68" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q68" s="32"/>
-      <c r="T68" s="78"/>
-      <c r="U68" s="81">
+      <c r="K68" s="75">
+        <v>1</v>
+      </c>
+      <c r="L68" s="77">
+        <v>1</v>
+      </c>
+      <c r="M68" s="32"/>
+      <c r="O68" s="83"/>
+      <c r="P68" s="78"/>
+      <c r="Q68" s="81">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V68" s="31"/>
-      <c r="AA68" s="31"/>
-    </row>
-    <row r="69" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R68" s="31"/>
+      <c r="W68" s="31"/>
+    </row>
+    <row r="69" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
         <v>82</v>
       </c>
@@ -6717,7 +6343,7 @@
         <v>143</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D69" s="12">
         <v>3</v>
@@ -6729,58 +6355,46 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="G69" s="12">
-        <v>45</v>
-      </c>
-      <c r="H69" s="12">
-        <v>27</v>
-      </c>
-      <c r="I69" s="12">
-        <v>36</v>
-      </c>
-      <c r="J69" s="12">
-        <v>29</v>
-      </c>
-      <c r="K69" s="20"/>
-      <c r="L69" s="33"/>
-      <c r="M69" s="76"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="76"/>
+      <c r="J69" s="76">
+        <v>0.5</v>
+      </c>
+      <c r="K69" s="76">
+        <v>1</v>
+      </c>
+      <c r="L69" s="76">
+        <v>0.5</v>
+      </c>
+      <c r="M69" s="33"/>
       <c r="N69" s="76">
-        <v>0.5</v>
-      </c>
-      <c r="O69" s="76">
-        <v>1</v>
-      </c>
-      <c r="P69" s="76">
-        <v>0.5</v>
-      </c>
-      <c r="Q69" s="33"/>
-      <c r="R69" s="76">
-        <v>1</v>
-      </c>
-      <c r="S69" s="76">
-        <v>1</v>
-      </c>
-      <c r="T69" s="77"/>
-      <c r="U69" s="67">
+        <v>1</v>
+      </c>
+      <c r="O69" s="86">
+        <v>1</v>
+      </c>
+      <c r="P69" s="77"/>
+      <c r="Q69" s="67">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V69" s="31"/>
-      <c r="W69" s="3"/>
+      <c r="R69" s="31"/>
+      <c r="S69" s="3"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69" s="31"/>
       <c r="X69"/>
       <c r="Y69"/>
       <c r="Z69"/>
-      <c r="AA69" s="31"/>
-      <c r="AB69"/>
-      <c r="AC69"/>
-      <c r="AD69"/>
-    </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B70" s="22" t="s">
         <v>144</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D70" s="13">
         <v>7</v>
@@ -6792,28 +6406,26 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="G70" s="13">
-        <v>46</v>
-      </c>
-      <c r="K70" s="21"/>
-      <c r="L70" s="32"/>
-      <c r="P70" s="77"/>
-      <c r="Q70" s="31"/>
-      <c r="R70" s="75">
-        <v>1</v>
-      </c>
-      <c r="U70" s="67">
+      <c r="G70" s="21"/>
+      <c r="H70" s="32"/>
+      <c r="L70" s="77"/>
+      <c r="M70" s="31"/>
+      <c r="N70" s="75">
+        <v>1</v>
+      </c>
+      <c r="O70" s="83"/>
+      <c r="Q70" s="67">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="V70" s="31"/>
-    </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="R70" s="31"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B71" s="22" t="s">
         <v>145</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D71" s="13">
         <v>7</v>
@@ -6825,26 +6437,24 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="G71" s="13">
-        <v>47</v>
-      </c>
-      <c r="K71" s="21"/>
-      <c r="L71" s="32"/>
-      <c r="P71" s="77"/>
-      <c r="Q71" s="31"/>
-      <c r="U71" s="67">
+      <c r="G71" s="21"/>
+      <c r="H71" s="32"/>
+      <c r="L71" s="77"/>
+      <c r="M71" s="31"/>
+      <c r="O71" s="83"/>
+      <c r="Q71" s="67">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V71" s="31"/>
-    </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="R71" s="31"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72" s="46"/>
       <c r="B72" s="23" t="s">
         <v>146</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D72" s="26">
         <v>10</v>
@@ -6856,35 +6466,29 @@
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="G72" s="26">
-        <v>34</v>
-      </c>
-      <c r="H72" s="26"/>
-      <c r="I72" s="26"/>
-      <c r="J72" s="26"/>
-      <c r="K72" s="27"/>
-      <c r="L72" s="35"/>
-      <c r="M72" s="78"/>
-      <c r="N72" s="78"/>
-      <c r="O72" s="78">
-        <v>1</v>
-      </c>
+      <c r="G72" s="27"/>
+      <c r="H72" s="35"/>
+      <c r="I72" s="78"/>
+      <c r="J72" s="78"/>
+      <c r="K72" s="78">
+        <v>1</v>
+      </c>
+      <c r="L72" s="78"/>
+      <c r="M72" s="35"/>
+      <c r="N72" s="78">
+        <v>1</v>
+      </c>
+      <c r="O72" s="87"/>
       <c r="P72" s="78"/>
-      <c r="Q72" s="35"/>
-      <c r="R72" s="78">
-        <v>1</v>
-      </c>
-      <c r="S72" s="78"/>
-      <c r="T72" s="78"/>
-      <c r="U72" s="81">
+      <c r="Q72" s="81">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="V72" s="31"/>
-      <c r="X72" s="31"/>
-      <c r="Z72" s="6"/>
-    </row>
-    <row r="73" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R72" s="31"/>
+      <c r="T72" s="31"/>
+      <c r="V72" s="6"/>
+    </row>
+    <row r="73" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>83</v>
       </c>
@@ -6892,7 +6496,7 @@
         <v>147</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D73" s="13">
         <v>4</v>
@@ -6904,42 +6508,36 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="G73" s="13">
-        <v>48</v>
-      </c>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="21"/>
-      <c r="L73" s="32"/>
-      <c r="M73" s="75"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="75"/>
+      <c r="J73" s="75"/>
+      <c r="K73" s="75"/>
+      <c r="L73" s="77"/>
+      <c r="M73" s="31"/>
       <c r="N73" s="75"/>
-      <c r="O73" s="75"/>
-      <c r="P73" s="77"/>
-      <c r="Q73" s="31"/>
-      <c r="R73" s="75"/>
-      <c r="S73" s="75"/>
-      <c r="T73" s="75"/>
-      <c r="U73" s="67">
+      <c r="O73" s="84"/>
+      <c r="P73" s="75"/>
+      <c r="Q73" s="67">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V73" s="31"/>
-      <c r="W73" s="3"/>
+      <c r="R73" s="31"/>
+      <c r="S73" s="3"/>
+      <c r="T73"/>
+      <c r="U73"/>
+      <c r="V73"/>
+      <c r="W73"/>
       <c r="X73"/>
       <c r="Y73"/>
       <c r="Z73"/>
-      <c r="AA73"/>
-      <c r="AB73"/>
-      <c r="AC73"/>
-      <c r="AD73"/>
-    </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B74" s="22" t="s">
         <v>148</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D74" s="13">
         <v>3</v>
@@ -6951,30 +6549,28 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="G74" s="13">
-        <v>49</v>
-      </c>
-      <c r="K74" s="21"/>
-      <c r="L74" s="32"/>
-      <c r="P74" s="77"/>
-      <c r="Q74" s="32"/>
-      <c r="U74" s="67">
+      <c r="G74" s="21"/>
+      <c r="H74" s="32"/>
+      <c r="L74" s="77"/>
+      <c r="M74" s="32"/>
+      <c r="O74" s="83"/>
+      <c r="Q74" s="67">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V74" s="31"/>
-      <c r="AA74" s="6"/>
-      <c r="AB74" s="6"/>
-      <c r="AC74" s="6"/>
-      <c r="AD74" s="6"/>
-    </row>
-    <row r="75" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R74" s="31"/>
+      <c r="W74" s="6"/>
+      <c r="X74" s="6"/>
+      <c r="Y74" s="6"/>
+      <c r="Z74" s="6"/>
+    </row>
+    <row r="75" spans="1:26" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10"/>
       <c r="B75" s="22" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D75" s="13">
         <v>4</v>
@@ -6986,36 +6582,32 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
-      <c r="J75" s="13"/>
-      <c r="K75" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="L75" s="75"/>
+      <c r="G75" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="H75" s="75"/>
+      <c r="I75" s="75"/>
+      <c r="J75" s="75"/>
+      <c r="K75" s="75"/>
+      <c r="L75" s="77"/>
       <c r="M75" s="75"/>
       <c r="N75" s="75"/>
-      <c r="O75" s="75"/>
-      <c r="P75" s="77"/>
-      <c r="Q75" s="75"/>
-      <c r="R75" s="75"/>
-      <c r="S75" s="75"/>
-      <c r="T75" s="78"/>
-      <c r="U75" s="81">
+      <c r="O75" s="84"/>
+      <c r="P75" s="78"/>
+      <c r="Q75" s="81">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75"/>
+      <c r="U75"/>
+      <c r="V75"/>
+      <c r="W75"/>
       <c r="X75"/>
       <c r="Y75"/>
       <c r="Z75"/>
-      <c r="AA75"/>
-      <c r="AB75"/>
-      <c r="AC75"/>
-      <c r="AD75"/>
-    </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
         <v>84</v>
       </c>
@@ -7033,39 +6625,37 @@
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="20"/>
-      <c r="L76" s="33">
-        <v>1</v>
-      </c>
-      <c r="M76" s="76">
+      <c r="G76" s="20"/>
+      <c r="H76" s="33">
+        <v>1</v>
+      </c>
+      <c r="I76" s="76">
+        <v>1</v>
+      </c>
+      <c r="J76" s="76">
+        <v>1</v>
+      </c>
+      <c r="K76" s="76">
+        <v>1</v>
+      </c>
+      <c r="L76" s="76">
+        <v>0</v>
+      </c>
+      <c r="M76" s="33">
         <v>1</v>
       </c>
       <c r="N76" s="76">
         <v>1</v>
       </c>
-      <c r="O76" s="76">
-        <v>1</v>
-      </c>
-      <c r="P76" s="76">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="33">
-        <v>1</v>
-      </c>
-      <c r="R76" s="76"/>
-      <c r="S76" s="76"/>
-      <c r="T76" s="77"/>
-      <c r="U76" s="67">
+      <c r="O76" s="86"/>
+      <c r="P76" s="77"/>
+      <c r="Q76" s="67">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="V76" s="31"/>
-    </row>
-    <row r="77" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="R76" s="31"/>
+    </row>
+    <row r="77" spans="1:26" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="28"/>
       <c r="B77" s="29" t="s">
         <v>99</v>
@@ -7081,46 +6671,42 @@
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="L77" s="34"/>
-      <c r="M77" s="77">
+      <c r="G77" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="H77" s="34"/>
+      <c r="I77" s="77">
+        <v>1</v>
+      </c>
+      <c r="J77" s="77">
+        <v>1</v>
+      </c>
+      <c r="K77" s="77">
+        <v>1</v>
+      </c>
+      <c r="L77" s="77">
+        <v>1</v>
+      </c>
+      <c r="M77" s="34">
         <v>1</v>
       </c>
       <c r="N77" s="77">
         <v>1</v>
       </c>
-      <c r="O77" s="77">
-        <v>1</v>
-      </c>
-      <c r="P77" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q77" s="34">
-        <v>1</v>
-      </c>
-      <c r="R77" s="77">
-        <v>1</v>
-      </c>
-      <c r="S77" s="77">
-        <v>1</v>
-      </c>
-      <c r="T77" s="77"/>
-      <c r="U77" s="67">
+      <c r="O77" s="85">
+        <v>1</v>
+      </c>
+      <c r="P77" s="77"/>
+      <c r="Q77" s="67">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="W77" s="3"/>
-    </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="S77" s="3"/>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78" s="28"/>
       <c r="B78" s="29" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C78" s="29"/>
       <c r="D78" s="13">
@@ -7133,36 +6719,36 @@
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="K78" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="L78" s="77"/>
+      <c r="G78" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="H78" s="77"/>
+      <c r="I78" s="77"/>
+      <c r="J78" s="77"/>
+      <c r="K78" s="77"/>
+      <c r="L78" s="77">
+        <v>1</v>
+      </c>
       <c r="M78" s="77"/>
-      <c r="N78" s="77"/>
-      <c r="O78" s="77"/>
+      <c r="N78" s="77">
+        <v>1</v>
+      </c>
+      <c r="O78" s="85">
+        <v>1</v>
+      </c>
       <c r="P78" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q78" s="77"/>
-      <c r="R78" s="77">
-        <v>1</v>
-      </c>
-      <c r="S78" s="77">
-        <v>1</v>
-      </c>
-      <c r="T78" s="77">
         <v>2</v>
       </c>
-      <c r="U78" s="67">
+      <c r="Q78" s="67">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
+      <c r="R78" s="31"/>
+      <c r="T78" s="31"/>
+      <c r="U78" s="31"/>
       <c r="V78" s="31"/>
-      <c r="X78" s="31"/>
-      <c r="Y78" s="31"/>
-      <c r="Z78" s="31"/>
-    </row>
-    <row r="79" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
       <c r="B79" s="22" t="s">
         <v>150</v>
@@ -7178,49 +6764,45 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="13"/>
-      <c r="K79" s="21"/>
-      <c r="L79" s="32">
-        <v>1</v>
-      </c>
-      <c r="M79" s="75">
+      <c r="G79" s="21"/>
+      <c r="H79" s="32">
+        <v>1</v>
+      </c>
+      <c r="I79" s="75">
+        <v>1</v>
+      </c>
+      <c r="J79" s="75">
+        <v>1</v>
+      </c>
+      <c r="K79" s="75"/>
+      <c r="L79" s="77">
+        <v>1</v>
+      </c>
+      <c r="M79" s="73">
         <v>1</v>
       </c>
       <c r="N79" s="75">
         <v>1</v>
       </c>
-      <c r="O79" s="75"/>
-      <c r="P79" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q79" s="73">
-        <v>1</v>
-      </c>
-      <c r="R79" s="75">
-        <v>1</v>
-      </c>
-      <c r="S79" s="75">
-        <v>1</v>
-      </c>
-      <c r="T79" s="75"/>
-      <c r="U79" s="67">
+      <c r="O79" s="84">
+        <v>1</v>
+      </c>
+      <c r="P79" s="75"/>
+      <c r="Q79" s="67">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="V79" s="14"/>
-      <c r="W79" s="3"/>
-      <c r="X79"/>
+      <c r="R79" s="14"/>
+      <c r="S79" s="3"/>
+      <c r="T79"/>
+      <c r="U79" s="31"/>
+      <c r="V79"/>
+      <c r="W79" s="31"/>
+      <c r="X79" s="31"/>
       <c r="Y79" s="31"/>
-      <c r="Z79"/>
-      <c r="AA79" s="31"/>
-      <c r="AB79" s="31"/>
-      <c r="AC79" s="31"/>
-      <c r="AD79" s="31"/>
-    </row>
-    <row r="80" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z79" s="31"/>
+    </row>
+    <row r="80" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
       <c r="B80" s="22" t="s">
         <v>151</v>
@@ -7236,53 +6818,49 @@
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="13"/>
-      <c r="K80" s="21" t="s">
+      <c r="G80" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="L80" s="32">
-        <v>1</v>
-      </c>
-      <c r="M80" s="75">
+      <c r="H80" s="32">
+        <v>1</v>
+      </c>
+      <c r="I80" s="75">
+        <v>1</v>
+      </c>
+      <c r="J80" s="75">
+        <v>1</v>
+      </c>
+      <c r="K80" s="75">
+        <v>1</v>
+      </c>
+      <c r="L80" s="77">
+        <v>1</v>
+      </c>
+      <c r="M80" s="73">
         <v>1</v>
       </c>
       <c r="N80" s="75">
         <v>1</v>
       </c>
-      <c r="O80" s="75">
-        <v>1</v>
-      </c>
-      <c r="P80" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q80" s="73">
-        <v>1</v>
-      </c>
-      <c r="R80" s="75">
-        <v>1</v>
-      </c>
-      <c r="S80" s="75"/>
-      <c r="T80" s="75"/>
-      <c r="U80" s="67">
+      <c r="O80" s="84"/>
+      <c r="P80" s="75"/>
+      <c r="Q80" s="67">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V80" s="14"/>
-      <c r="W80" s="3"/>
+      <c r="R80" s="14"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="31"/>
+      <c r="U80" s="31"/>
+      <c r="V80" s="31"/>
+      <c r="W80" s="31"/>
       <c r="X80" s="31"/>
       <c r="Y80" s="31"/>
       <c r="Z80" s="31"/>
-      <c r="AA80" s="31"/>
-      <c r="AB80" s="31"/>
-      <c r="AC80" s="31"/>
-      <c r="AD80" s="31"/>
-    </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B81" s="22" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D81" s="13">
         <v>1</v>
@@ -7294,24 +6872,25 @@
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="K81" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="L81" s="75"/>
-      <c r="P81" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q81" s="73"/>
-      <c r="R81" s="75">
-        <v>1</v>
-      </c>
-      <c r="U81" s="67">
+      <c r="G81" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="H81" s="75"/>
+      <c r="L81" s="77">
+        <v>1</v>
+      </c>
+      <c r="M81" s="73"/>
+      <c r="N81" s="75">
+        <v>1</v>
+      </c>
+      <c r="O81" s="83"/>
+      <c r="Q81" s="67">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="V81" s="14"/>
-    </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="R81" s="14"/>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B82" s="22" t="s">
         <v>152</v>
       </c>
@@ -7325,21 +6904,22 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="K82" s="21"/>
-      <c r="L82" s="75"/>
-      <c r="P82" s="77"/>
-      <c r="Q82" s="75"/>
-      <c r="U82" s="67">
+      <c r="G82" s="21"/>
+      <c r="H82" s="75"/>
+      <c r="L82" s="77"/>
+      <c r="M82" s="75"/>
+      <c r="O82" s="83"/>
+      <c r="Q82" s="67">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V82" s="14"/>
-      <c r="AA82" s="6"/>
-      <c r="AB82" s="6"/>
-      <c r="AC82" s="6"/>
-      <c r="AD82" s="6"/>
-    </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="R82" s="14"/>
+      <c r="W82" s="6"/>
+      <c r="X82" s="6"/>
+      <c r="Y82" s="6"/>
+      <c r="Z82" s="6"/>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B83" s="22" t="s">
         <v>153</v>
       </c>
@@ -7353,17 +6933,21 @@
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="K83" s="21"/>
-      <c r="L83" s="75"/>
-      <c r="P83" s="77"/>
-      <c r="Q83" s="75"/>
-      <c r="U83" s="67">
+      <c r="G83" s="21"/>
+      <c r="H83" s="75"/>
+      <c r="L83" s="77"/>
+      <c r="M83" s="75"/>
+      <c r="N83" s="75">
+        <v>1</v>
+      </c>
+      <c r="O83" s="83"/>
+      <c r="Q83" s="67">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V83" s="14"/>
-    </row>
-    <row r="84" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="R83" s="14"/>
+    </row>
+    <row r="84" spans="1:26" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10"/>
       <c r="B84" s="22" t="s">
         <v>154</v>
@@ -7379,37 +6963,33 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
-      <c r="J84" s="13"/>
-      <c r="K84" s="21"/>
-      <c r="L84" s="75"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="75"/>
+      <c r="I84" s="75"/>
+      <c r="J84" s="75"/>
+      <c r="K84" s="75"/>
+      <c r="L84" s="77"/>
       <c r="M84" s="75"/>
       <c r="N84" s="75"/>
-      <c r="O84" s="75"/>
-      <c r="P84" s="77"/>
-      <c r="Q84" s="75"/>
-      <c r="R84" s="75"/>
-      <c r="S84" s="75"/>
-      <c r="T84" s="75"/>
-      <c r="U84" s="67">
+      <c r="O84" s="84"/>
+      <c r="P84" s="75"/>
+      <c r="Q84" s="67">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V84" s="14"/>
-      <c r="W84" s="3"/>
-      <c r="X84"/>
-      <c r="Y84"/>
-      <c r="Z84"/>
-      <c r="AA84" s="6"/>
-      <c r="AB84" s="6"/>
-      <c r="AC84" s="6"/>
-      <c r="AD84" s="6"/>
-    </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="R84" s="14"/>
+      <c r="S84" s="3"/>
+      <c r="T84"/>
+      <c r="U84"/>
+      <c r="V84"/>
+      <c r="W84" s="6"/>
+      <c r="X84" s="6"/>
+      <c r="Y84" s="6"/>
+      <c r="Z84" s="6"/>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B85" s="23" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C85" s="23"/>
       <c r="D85" s="26">
@@ -7422,268 +7002,255 @@
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="G85" s="26"/>
-      <c r="H85" s="26"/>
-      <c r="I85" s="26"/>
-      <c r="J85" s="26"/>
-      <c r="K85" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="L85" s="35"/>
-      <c r="M85" s="78"/>
-      <c r="N85" s="78">
-        <v>1</v>
-      </c>
-      <c r="O85" s="78">
-        <v>1</v>
-      </c>
+      <c r="G85" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="H85" s="35"/>
+      <c r="I85" s="78"/>
+      <c r="J85" s="78">
+        <v>1</v>
+      </c>
+      <c r="K85" s="78">
+        <v>1</v>
+      </c>
+      <c r="L85" s="78"/>
+      <c r="M85" s="35">
+        <v>1</v>
+      </c>
+      <c r="N85" s="78"/>
+      <c r="O85" s="87"/>
       <c r="P85" s="78"/>
-      <c r="Q85" s="35">
-        <v>1</v>
-      </c>
-      <c r="R85" s="78"/>
-      <c r="S85" s="78"/>
-      <c r="T85" s="78"/>
-      <c r="U85" s="81">
+      <c r="Q85" s="81">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="11"/>
-      <c r="X86" s="31"/>
-      <c r="Y86" s="31"/>
-      <c r="Z86" s="31"/>
-      <c r="AA86" s="6"/>
-      <c r="AB86" s="6"/>
-      <c r="AC86" s="6"/>
-      <c r="AD86" s="6"/>
-    </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="K87" s="82"/>
-      <c r="L87" s="63"/>
-      <c r="M87" s="63"/>
-      <c r="N87" s="63"/>
-      <c r="O87" s="60" t="s">
+      <c r="T86" s="31"/>
+      <c r="U86" s="31"/>
+      <c r="V86" s="31"/>
+      <c r="W86" s="6"/>
+      <c r="X86" s="6"/>
+      <c r="Y86" s="6"/>
+      <c r="Z86" s="6"/>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G87" s="82"/>
+      <c r="H87" s="63"/>
+      <c r="I87" s="63"/>
+      <c r="J87" s="63"/>
+      <c r="K87" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="P87" s="61"/>
-      <c r="Q87" s="61">
-        <f t="array" ref="Q87">SUM($F2:$F85*(Q2:Q85&gt;=0.9)*($U2:$U85&gt;=$W$12))</f>
-        <v>148</v>
-      </c>
-      <c r="R87" s="61">
-        <f t="array" ref="R87">SUM($F2:$F85*(R2:R85&gt;=0.9)*($U2:$U85&gt;=$W$12))</f>
-        <v>168</v>
-      </c>
-      <c r="S87" s="61">
-        <f t="array" ref="S87">SUM($F2:$F85*(S2:S85&gt;=0.9)*($U2:$U85&gt;=$W$12))</f>
-        <v>152</v>
-      </c>
-      <c r="T87" s="63"/>
-      <c r="AA87" s="6"/>
-      <c r="AB87" s="6"/>
-      <c r="AC87" s="6"/>
-      <c r="AD87" s="6"/>
-    </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="K88" s="82"/>
+      <c r="L87" s="61"/>
+      <c r="M87" s="61">
+        <f t="array" ref="M87">SUM($F2:$F85*(M2:M85&gt;=0.9)*($Q2:$Q85&gt;=$S$12))</f>
+        <v>142</v>
+      </c>
+      <c r="N87" s="61">
+        <f t="array" ref="N87">SUM($F2:$F85*(N2:N85&gt;=0.9)*($Q2:$Q85&gt;=$S$12))</f>
+        <v>132</v>
+      </c>
+      <c r="O87" s="61">
+        <f t="array" ref="O87">SUM($F2:$F85*(O2:O85&gt;=0.9)*($Q2:$Q85&gt;=$S$12))</f>
+        <v>144</v>
+      </c>
+      <c r="P87" s="63"/>
+      <c r="W87" s="6"/>
+      <c r="X87" s="6"/>
+      <c r="Y87" s="6"/>
+      <c r="Z87" s="6"/>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G88" s="82"/>
+      <c r="H88" s="63"/>
+      <c r="I88" s="63"/>
+      <c r="J88" s="63"/>
+      <c r="K88" s="62" t="s">
+        <v>163</v>
+      </c>
       <c r="L88" s="63"/>
-      <c r="M88" s="63"/>
-      <c r="N88" s="63"/>
-      <c r="O88" s="62" t="s">
-        <v>163</v>
+      <c r="M88" s="63">
+        <f t="array" ref="M88">SUM($F2:$F85*M2:M85*($Q2:$Q85&gt;=$S$12))</f>
+        <v>142.4</v>
+      </c>
+      <c r="N88" s="63">
+        <f t="array" ref="N88">SUM($F2:$F85*N2:N85*($Q2:$Q85&gt;=$S$12))</f>
+        <v>134</v>
+      </c>
+      <c r="O88" s="63">
+        <f t="array" ref="O88">SUM($F2:$F85*O2:O85*($Q2:$Q85&gt;=$S$12))</f>
+        <v>144</v>
       </c>
       <c r="P88" s="63"/>
-      <c r="Q88" s="63">
-        <f t="array" ref="Q88">SUM($F2:$F85*Q2:Q85*($U2:$U85&gt;=$W$12))</f>
-        <v>150</v>
-      </c>
-      <c r="R88" s="63">
-        <f t="array" ref="R88">SUM($F2:$F85*R2:R85*($U2:$U85&gt;=$W$12))</f>
-        <v>170</v>
-      </c>
-      <c r="S88" s="63">
-        <f t="array" ref="S88">SUM($F2:$F85*S2:S85*($U2:$U85&gt;=$W$12))</f>
-        <v>152.4</v>
-      </c>
-      <c r="T88" s="63"/>
-    </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="K89" s="82"/>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G89" s="82"/>
+      <c r="H89" s="63"/>
+      <c r="I89" s="63"/>
+      <c r="J89" s="63"/>
+      <c r="K89" s="62" t="s">
+        <v>162</v>
+      </c>
       <c r="L89" s="63"/>
-      <c r="M89" s="63"/>
-      <c r="N89" s="63"/>
-      <c r="O89" s="62" t="s">
-        <v>162</v>
+      <c r="M89" s="63">
+        <f t="array" ref="M89">SUM($F$2:$F$85*(M$2:M$85&gt;=0.1)*($Q$2:$Q$85&gt;=$S$12))</f>
+        <v>144</v>
+      </c>
+      <c r="N89" s="63">
+        <f t="array" ref="N89">SUM($F$2:$F$85*(N$2:N$85&gt;=0.1)*($Q$2:$Q$85&gt;=$S$12))</f>
+        <v>136</v>
+      </c>
+      <c r="O89" s="63">
+        <f t="array" ref="O89">SUM($F$2:$F$85*(O$2:O$85&gt;=0.1)*($Q$2:$Q$85&gt;=$S$12))</f>
+        <v>144</v>
       </c>
       <c r="P89" s="63"/>
-      <c r="Q89" s="63">
-        <f t="array" ref="Q89">SUM($F$2:$F$85*(Q$2:Q$85&gt;=0.1)*($U$2:$U$85&gt;=$W$12))</f>
-        <v>152</v>
-      </c>
-      <c r="R89" s="63">
-        <f t="array" ref="R89">SUM($F$2:$F$85*(R$2:R$85&gt;=0.1)*($U$2:$U$85&gt;=$W$12))</f>
-        <v>172</v>
-      </c>
-      <c r="S89" s="63">
-        <f t="array" ref="S89">SUM($F$2:$F$85*(S$2:S$85&gt;=0.1)*($U$2:$U$85&gt;=$W$12))</f>
-        <v>156</v>
-      </c>
-      <c r="T89" s="63"/>
-    </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="K90" s="82"/>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G90" s="82"/>
+      <c r="H90" s="63"/>
+      <c r="I90" s="63"/>
+      <c r="J90" s="63"/>
+      <c r="K90" s="62" t="s">
+        <v>164</v>
+      </c>
       <c r="L90" s="63"/>
-      <c r="M90" s="63"/>
-      <c r="N90" s="63"/>
-      <c r="O90" s="62" t="s">
-        <v>164</v>
+      <c r="M90" s="63">
+        <f>LOOKUP($S$12,$S26:$S34,$T26:$T34)</f>
+        <v>174</v>
+      </c>
+      <c r="N90" s="63">
+        <f>LOOKUP($S$12,$S26:$S34,$T26:$T34)</f>
+        <v>174</v>
+      </c>
+      <c r="O90" s="63">
+        <f>LOOKUP($S$12,$S26:$S34,$T26:$T34)</f>
+        <v>174</v>
       </c>
       <c r="P90" s="63"/>
-      <c r="Q90" s="63">
-        <f>LOOKUP($W$12,$W26:$W34,$X26:$X34)</f>
-        <v>244</v>
-      </c>
-      <c r="R90" s="63">
-        <f>LOOKUP($W$12,$W26:$W34,$X26:$X34)</f>
-        <v>244</v>
-      </c>
-      <c r="S90" s="63">
-        <f>LOOKUP($W$12,$W26:$W34,$X26:$X34)</f>
-        <v>244</v>
-      </c>
-      <c r="T90" s="63"/>
-    </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="K91" s="82"/>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G91" s="82"/>
+      <c r="H91" s="64"/>
+      <c r="I91" s="64"/>
+      <c r="J91" s="64"/>
+      <c r="K91" s="62" t="s">
+        <v>165</v>
+      </c>
       <c r="L91" s="64"/>
-      <c r="M91" s="64"/>
-      <c r="N91" s="64"/>
-      <c r="O91" s="62" t="s">
-        <v>165</v>
+      <c r="M91" s="64">
+        <f>M88/M90</f>
+        <v>0.81839080459770119</v>
+      </c>
+      <c r="N91" s="64">
+        <f t="shared" ref="N91:O91" si="8">N88/N90</f>
+        <v>0.77011494252873558</v>
+      </c>
+      <c r="O91" s="64">
+        <f t="shared" si="8"/>
+        <v>0.82758620689655171</v>
       </c>
       <c r="P91" s="64"/>
-      <c r="Q91" s="64">
-        <f>Q88/Q90</f>
-        <v>0.61475409836065575</v>
-      </c>
-      <c r="R91" s="64">
-        <f t="shared" ref="R91:S91" si="8">R88/R90</f>
-        <v>0.69672131147540983</v>
-      </c>
-      <c r="S91" s="64">
-        <f t="shared" si="8"/>
-        <v>0.62459016393442623</v>
-      </c>
-      <c r="T91" s="64"/>
-      <c r="Z91" s="31"/>
-    </row>
-    <row r="92" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V91" s="31"/>
+    </row>
+    <row r="92" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D92" s="31"/>
-      <c r="K92" s="82"/>
-      <c r="L92" s="63"/>
-      <c r="M92" s="63"/>
-      <c r="N92" s="63"/>
-      <c r="O92" s="65" t="s">
+      <c r="G92" s="82"/>
+      <c r="H92" s="63"/>
+      <c r="I92" s="63"/>
+      <c r="J92" s="63"/>
+      <c r="K92" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="P92" s="66"/>
-      <c r="Q92" s="66">
-        <f t="array" ref="Q92">SUM($F2:$F85*Q2:Q85*($U2:$U85&lt;$W$12))</f>
-        <v>15</v>
-      </c>
-      <c r="R92" s="66">
-        <f t="array" ref="R92">SUM($F2:$F85*R2:R85*($U2:$U85&lt;$W$12))</f>
-        <v>3</v>
-      </c>
-      <c r="S92" s="66">
-        <f t="array" ref="S92">SUM($F2:$F85*S2:S85*($U2:$U85&lt;$W$12))</f>
-        <v>0</v>
-      </c>
-      <c r="T92" s="63"/>
-    </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="L92" s="66"/>
+      <c r="M92" s="66">
+        <f t="array" ref="M92">SUM($F2:$F85*M2:M85*($Q2:$Q85&lt;$S$12))</f>
+        <v>33</v>
+      </c>
+      <c r="N92" s="66">
+        <f t="array" ref="N92">SUM($F2:$F85*N2:N85*($Q2:$Q85&lt;$S$12))</f>
+        <v>59</v>
+      </c>
+      <c r="O92" s="66">
+        <f t="array" ref="O92">SUM($F2:$F85*O2:O85*($Q2:$Q85&lt;$S$12))</f>
+        <v>10.4</v>
+      </c>
+      <c r="P92" s="63"/>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D93" s="31"/>
     </row>
-    <row r="94" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="10"/>
       <c r="B94" s="22"/>
       <c r="C94" s="22"/>
       <c r="E94" s="13"/>
       <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="13"/>
-      <c r="J94" s="13"/>
-      <c r="K94" s="19"/>
-      <c r="L94" s="2"/>
-      <c r="M94" s="75"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="75"/>
+      <c r="J94" s="75"/>
+      <c r="K94" s="75"/>
+      <c r="L94" s="75"/>
+      <c r="M94" s="2"/>
       <c r="N94" s="75"/>
       <c r="O94" s="75"/>
       <c r="P94" s="75"/>
-      <c r="Q94" s="2"/>
-      <c r="R94" s="75"/>
-      <c r="S94" s="75"/>
-      <c r="T94" s="75"/>
-      <c r="U94" s="3"/>
-      <c r="V94" s="3"/>
-      <c r="W94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3"/>
+      <c r="S94" s="3"/>
+      <c r="T94"/>
+      <c r="U94"/>
+      <c r="V94"/>
+      <c r="W94"/>
       <c r="X94"/>
       <c r="Y94"/>
       <c r="Z94"/>
-      <c r="AA94"/>
-      <c r="AB94"/>
-      <c r="AC94"/>
-      <c r="AD94"/>
-    </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D95" s="31"/>
     </row>
-    <row r="100" spans="27:30" x14ac:dyDescent="0.3">
-      <c r="AA100" s="6"/>
-      <c r="AB100" s="6"/>
-      <c r="AC100" s="6"/>
-      <c r="AD100" s="6"/>
-    </row>
-    <row r="104" spans="27:30" x14ac:dyDescent="0.3">
-      <c r="AA104" s="6"/>
-      <c r="AB104" s="6"/>
-      <c r="AC104" s="6"/>
-      <c r="AD104" s="6"/>
-    </row>
-    <row r="109" spans="27:30" x14ac:dyDescent="0.3">
-      <c r="AA109" s="6"/>
-      <c r="AB109" s="6"/>
-      <c r="AC109" s="6"/>
-      <c r="AD109" s="6"/>
-    </row>
-    <row r="122" spans="27:30" x14ac:dyDescent="0.3">
-      <c r="AA122" s="31"/>
-      <c r="AB122" s="31"/>
-      <c r="AC122" s="31"/>
-      <c r="AD122" s="31"/>
+    <row r="100" spans="23:26" x14ac:dyDescent="0.3">
+      <c r="W100" s="6"/>
+      <c r="X100" s="6"/>
+      <c r="Y100" s="6"/>
+      <c r="Z100" s="6"/>
+    </row>
+    <row r="104" spans="23:26" x14ac:dyDescent="0.3">
+      <c r="W104" s="6"/>
+      <c r="X104" s="6"/>
+      <c r="Y104" s="6"/>
+      <c r="Z104" s="6"/>
+    </row>
+    <row r="109" spans="23:26" x14ac:dyDescent="0.3">
+      <c r="W109" s="6"/>
+      <c r="X109" s="6"/>
+      <c r="Y109" s="6"/>
+      <c r="Z109" s="6"/>
+    </row>
+    <row r="122" spans="23:26" x14ac:dyDescent="0.3">
+      <c r="W122" s="31"/>
+      <c r="X122" s="31"/>
+      <c r="Y122" s="31"/>
+      <c r="Z122" s="31"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:U59 B61:U85 C60:U60">
-    <cfRule type="expression" dxfId="2" priority="7" stopIfTrue="1">
-      <formula>$U2&gt;=(0.5+$W$12)</formula>
+  <conditionalFormatting sqref="B2:Q85">
+    <cfRule type="expression" dxfId="2" priority="10" stopIfTrue="1">
+      <formula>$Q2&gt;=(0.5+$S$12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
-      <formula>$U2&gt;=$W$12</formula>
+    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
+      <formula>$Q2&gt;=$S$12</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="9">
-      <formula>$U2&gt;0</formula>
+    <cfRule type="expression" dxfId="0" priority="12">
+      <formula>$Q2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 

--- a/StudentGuideModule2/what_labs_to_include/132 lab list for 2021spring.xlsx
+++ b/StudentGuideModule2/what_labs_to_include/132 lab list for 2021spring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtrawick\Desktop\github\132\StudentGuideModule2\what_labs_to_include\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498BE80D-8AF8-420F-BFD4-25A6C1D2B984}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD04DDB-038A-4B9D-A759-3D3390CF4969}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18780" yWindow="5136" windowWidth="26616" windowHeight="15936" tabRatio="541" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2931,8 +2931,8 @@
   <dimension ref="A1:Z122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4342,7 +4342,7 @@
       </c>
       <c r="T27" s="6">
         <f t="shared" si="2"/>
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="U27" s="6">
         <f t="shared" si="3"/>
@@ -4350,7 +4350,7 @@
       </c>
       <c r="V27" s="8">
         <f>($U$17 + $U$15*T27+$U$16*U27)*(1+U$18+U$19)</f>
-        <v>32.500000000000007</v>
+        <v>32.11</v>
       </c>
       <c r="W27" s="31"/>
       <c r="X27" s="31"/>
@@ -4410,15 +4410,15 @@
       </c>
       <c r="T28" s="6">
         <f t="shared" si="2"/>
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="U28" s="6">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="V28" s="8">
         <f t="shared" si="4"/>
-        <v>31.46</v>
+        <v>28.990000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
@@ -4634,15 +4634,15 @@
       </c>
       <c r="T32" s="6">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="U32" s="6">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="V32" s="8">
         <f t="shared" si="4"/>
-        <v>13.91</v>
+        <v>10.790000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -5348,14 +5348,14 @@
         <v>1</v>
       </c>
       <c r="M46" s="33">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N46" s="76"/>
       <c r="O46" s="86"/>
       <c r="P46" s="77"/>
       <c r="Q46" s="67">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S46" s="3"/>
     </row>
@@ -5386,7 +5386,7 @@
       <c r="K47" s="77"/>
       <c r="L47" s="77"/>
       <c r="M47" s="77">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N47" s="77">
         <v>1</v>
@@ -5397,7 +5397,7 @@
       <c r="P47" s="77"/>
       <c r="Q47" s="67">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="R47" s="31"/>
       <c r="V47" s="6"/>
@@ -5443,14 +5443,14 @@
         <v>0.9</v>
       </c>
       <c r="M48" s="32">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N48" s="75"/>
       <c r="O48" s="84"/>
       <c r="P48" s="75"/>
       <c r="Q48" s="67">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S48" s="3"/>
       <c r="V48" s="6"/>
@@ -5486,7 +5486,7 @@
       <c r="K49" s="75"/>
       <c r="L49" s="77"/>
       <c r="M49" s="75">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N49" s="75">
         <v>1</v>
@@ -5497,7 +5497,7 @@
       <c r="P49" s="75"/>
       <c r="Q49" s="67">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="R49" s="31"/>
       <c r="S49" s="14"/>
@@ -6210,12 +6210,12 @@
         <v>1</v>
       </c>
       <c r="M65" s="32">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O65" s="83"/>
       <c r="Q65" s="67">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R65" s="31"/>
       <c r="W65" s="31"/>
@@ -7046,7 +7046,7 @@
       <c r="L87" s="61"/>
       <c r="M87" s="61">
         <f t="array" ref="M87">SUM($F2:$F85*(M2:M85&gt;=0.9)*($Q2:$Q85&gt;=$S$12))</f>
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="N87" s="61">
         <f t="array" ref="N87">SUM($F2:$F85*(N2:N85&gt;=0.9)*($Q2:$Q85&gt;=$S$12))</f>
@@ -7073,7 +7073,7 @@
       <c r="L88" s="63"/>
       <c r="M88" s="63">
         <f t="array" ref="M88">SUM($F2:$F85*M2:M85*($Q2:$Q85&gt;=$S$12))</f>
-        <v>142.4</v>
+        <v>136.4</v>
       </c>
       <c r="N88" s="63">
         <f t="array" ref="N88">SUM($F2:$F85*N2:N85*($Q2:$Q85&gt;=$S$12))</f>
@@ -7142,7 +7142,7 @@
       <c r="L91" s="64"/>
       <c r="M91" s="64">
         <f>M88/M90</f>
-        <v>0.81839080459770119</v>
+        <v>0.78390804597701158</v>
       </c>
       <c r="N91" s="64">
         <f t="shared" ref="N91:O91" si="8">N88/N90</f>
@@ -7167,7 +7167,7 @@
       <c r="L92" s="66"/>
       <c r="M92" s="66">
         <f t="array" ref="M92">SUM($F2:$F85*M2:M85*($Q2:$Q85&lt;$S$12))</f>
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="N92" s="66">
         <f t="array" ref="N92">SUM($F2:$F85*N2:N85*($Q2:$Q85&lt;$S$12))</f>
